--- a/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.28308891203244</v>
+        <v>1.283088912032326</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01837620901223502</v>
+        <v>0.01837620901213555</v>
       </c>
       <c r="E2">
-        <v>0.01738740831146934</v>
+        <v>0.01738740831149421</v>
       </c>
       <c r="F2">
-        <v>2.166396712912515</v>
+        <v>2.16639671291253</v>
       </c>
       <c r="G2">
-        <v>1.719973223698062</v>
+        <v>1.719973223698076</v>
       </c>
       <c r="H2">
-        <v>0.1141271629958132</v>
+        <v>0.1141271629958256</v>
       </c>
       <c r="I2">
-        <v>0.006841899221661008</v>
+        <v>0.006841899221686543</v>
       </c>
       <c r="J2">
-        <v>3.529211563336133</v>
+        <v>3.529211563336105</v>
       </c>
       <c r="K2">
-        <v>1.978860010899439</v>
+        <v>1.978860010899425</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.112096084659044</v>
+        <v>1.112096084659015</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01491885974936835</v>
+        <v>0.01491885974940743</v>
       </c>
       <c r="E3">
-        <v>0.01724015570633952</v>
+        <v>0.01724015570635462</v>
       </c>
       <c r="F3">
-        <v>1.874977243621089</v>
+        <v>1.874977243621103</v>
       </c>
       <c r="G3">
-        <v>1.486121287028666</v>
+        <v>1.486121287028652</v>
       </c>
       <c r="H3">
-        <v>0.1386138359957654</v>
+        <v>0.1386138359957663</v>
       </c>
       <c r="I3">
-        <v>0.007769878643379302</v>
+        <v>0.007769878643379968</v>
       </c>
       <c r="J3">
         <v>3.047547169669926</v>
       </c>
       <c r="K3">
-        <v>1.702793057462884</v>
+        <v>1.702793057462912</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.00786303624497</v>
+        <v>1.007863036244828</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01299701892411065</v>
+        <v>0.0129970189241142</v>
       </c>
       <c r="E4">
-        <v>0.01717145935742348</v>
+        <v>0.01717145935744036</v>
       </c>
       <c r="F4">
-        <v>1.704821616586571</v>
+        <v>1.704821616586543</v>
       </c>
       <c r="G4">
         <v>1.349823057978782</v>
       </c>
       <c r="H4">
-        <v>0.1551002076819898</v>
+        <v>0.1551002076819943</v>
       </c>
       <c r="I4">
-        <v>0.008383773983733578</v>
+        <v>0.008383773983748233</v>
       </c>
       <c r="J4">
         <v>2.755681108229453</v>
       </c>
       <c r="K4">
-        <v>1.536286649167749</v>
+        <v>1.536286649167735</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,28 +532,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01225679599026464</v>
+        <v>0.01225679599026819</v>
       </c>
       <c r="E5">
-        <v>0.01714874268055944</v>
+        <v>0.01714874268058431</v>
       </c>
       <c r="F5">
         <v>1.637397404522901</v>
       </c>
       <c r="G5">
-        <v>1.295869563596071</v>
+        <v>1.295869563596085</v>
       </c>
       <c r="H5">
-        <v>0.1621586060571731</v>
+        <v>0.1621586060571589</v>
       </c>
       <c r="I5">
-        <v>0.008644641757922678</v>
+        <v>0.008644641757949545</v>
       </c>
       <c r="J5">
-        <v>2.637531881332848</v>
+        <v>2.637531881332862</v>
       </c>
       <c r="K5">
-        <v>1.469055636606797</v>
+        <v>1.469055636606782</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9585176103396122</v>
+        <v>0.9585176103394986</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01213627255176419</v>
+        <v>0.01213627255168603</v>
       </c>
       <c r="E6">
-        <v>0.01714528480768518</v>
+        <v>0.01714528480769673</v>
       </c>
       <c r="F6">
         <v>1.626309472185397</v>
@@ -582,13 +582,13 @@
         <v>1.287000020802765</v>
       </c>
       <c r="H6">
-        <v>0.1633505064802883</v>
+        <v>0.1633505064802785</v>
       </c>
       <c r="I6">
-        <v>0.008688594015123341</v>
+        <v>0.008688594015115569</v>
       </c>
       <c r="J6">
-        <v>2.617955879197893</v>
+        <v>2.617955879197908</v>
       </c>
       <c r="K6">
         <v>1.457925943803588</v>
@@ -608,28 +608,28 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01298687147179223</v>
+        <v>0.01298687147189526</v>
       </c>
       <c r="E7">
-        <v>0.01717113183394403</v>
+        <v>0.01717113183392627</v>
       </c>
       <c r="F7">
         <v>1.703904914811886</v>
       </c>
       <c r="G7">
-        <v>1.349089289176874</v>
+        <v>1.349089289176888</v>
       </c>
       <c r="H7">
-        <v>0.1551940538622354</v>
+        <v>0.1551940538622434</v>
       </c>
       <c r="I7">
-        <v>0.00838724930900181</v>
+        <v>0.008387249308997147</v>
       </c>
       <c r="J7">
-        <v>2.754084744213671</v>
+        <v>2.754084744213685</v>
       </c>
       <c r="K7">
-        <v>1.535377594949381</v>
+        <v>1.535377594949395</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.22394794685934</v>
+        <v>1.223947946859511</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.017137500499949</v>
+        <v>0.01713750049984242</v>
       </c>
       <c r="E8">
-        <v>0.01733200285027081</v>
+        <v>0.01733200285028769</v>
       </c>
       <c r="F8">
-        <v>2.063906970865787</v>
+        <v>2.063906970865773</v>
       </c>
       <c r="G8">
-        <v>1.637672578610491</v>
+        <v>1.637672578610477</v>
       </c>
       <c r="H8">
         <v>0.122253094503991</v>
       </c>
       <c r="I8">
-        <v>0.007152466050069473</v>
+        <v>0.007152466050097894</v>
       </c>
       <c r="J8">
-        <v>3.362209189293367</v>
+        <v>3.362209189293281</v>
       </c>
       <c r="K8">
-        <v>1.882964462237155</v>
+        <v>1.88296446223714</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.656895254134326</v>
+        <v>1.656895254134355</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02727735433805023</v>
+        <v>0.02727735433805378</v>
       </c>
       <c r="E9">
-        <v>0.01783113571534134</v>
+        <v>0.01783113571525519</v>
       </c>
       <c r="F9">
         <v>2.854792760049946</v>
       </c>
       <c r="G9">
-        <v>2.274182014676157</v>
+        <v>2.274182014676143</v>
       </c>
       <c r="H9">
-        <v>0.07044959581285859</v>
+        <v>0.07044959581285415</v>
       </c>
       <c r="I9">
-        <v>0.005100317225164464</v>
+        <v>0.005100317225162687</v>
       </c>
       <c r="J9">
         <v>4.595340332278852</v>
       </c>
       <c r="K9">
-        <v>2.595368265448286</v>
+        <v>2.595368265448258</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.983310044583135</v>
+        <v>1.983310044583163</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03663887482521488</v>
+        <v>0.03663887482501593</v>
       </c>
       <c r="E10">
-        <v>0.01833233673920809</v>
+        <v>0.01833233673919565</v>
       </c>
       <c r="F10">
-        <v>3.513095210899621</v>
+        <v>3.513095210899593</v>
       </c>
       <c r="G10">
-        <v>2.806177568533542</v>
+        <v>2.806177568533514</v>
       </c>
       <c r="H10">
-        <v>0.04226260232091761</v>
+        <v>0.0422626023209185</v>
       </c>
       <c r="I10">
-        <v>0.003847273210898727</v>
+        <v>0.003847273210916491</v>
       </c>
       <c r="J10">
         <v>5.542506989543654</v>
@@ -760,28 +760,28 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04151607602521779</v>
+        <v>0.0415160760249691</v>
       </c>
       <c r="E11">
-        <v>0.01859735787315842</v>
+        <v>0.01859735787312733</v>
       </c>
       <c r="F11">
-        <v>3.836587542408864</v>
+        <v>3.836587542408893</v>
       </c>
       <c r="G11">
         <v>3.068240546716964</v>
       </c>
       <c r="H11">
-        <v>0.03215518357950753</v>
+        <v>0.03215518357950575</v>
       </c>
       <c r="I11">
-        <v>0.00334004777631236</v>
+        <v>0.003340047776324573</v>
       </c>
       <c r="J11">
-        <v>5.987005387792294</v>
+        <v>5.987005387792323</v>
       </c>
       <c r="K11">
-        <v>3.411102965155578</v>
+        <v>3.411102965155607</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04347405464501009</v>
+        <v>0.04347405464499587</v>
       </c>
       <c r="E12">
-        <v>0.01870399861663152</v>
+        <v>0.01870399861657024</v>
       </c>
       <c r="F12">
-        <v>3.963308260998531</v>
+        <v>3.963308260998559</v>
       </c>
       <c r="G12">
         <v>3.17100535216295</v>
       </c>
       <c r="H12">
-        <v>0.02877738123133255</v>
+        <v>0.02877738123134321</v>
       </c>
       <c r="I12">
-        <v>0.003157726300672126</v>
+        <v>0.003157726300684116</v>
       </c>
       <c r="J12">
-        <v>6.157776708253124</v>
+        <v>6.157776708253067</v>
       </c>
       <c r="K12">
-        <v>3.512053405060726</v>
+        <v>3.512053405060755</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -836,28 +836,28 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0430470169657724</v>
+        <v>0.04304701696555924</v>
       </c>
       <c r="E13">
-        <v>0.01868073323375796</v>
+        <v>0.01868073323371977</v>
       </c>
       <c r="F13">
-        <v>3.935814913091008</v>
+        <v>3.935814913090979</v>
       </c>
       <c r="G13">
-        <v>3.148704443262829</v>
+        <v>3.148704443262801</v>
       </c>
       <c r="H13">
-        <v>0.02948378311528366</v>
+        <v>0.02948378311530142</v>
       </c>
       <c r="I13">
-        <v>0.003196546181194693</v>
+        <v>0.003196546181201576</v>
       </c>
       <c r="J13">
         <v>6.120880148468075</v>
       </c>
       <c r="K13">
-        <v>3.490226402311009</v>
+        <v>3.490226402311038</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.139286257062338</v>
+        <v>2.139286257062054</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04167478757403131</v>
+        <v>0.04167478757405974</v>
       </c>
       <c r="E14">
-        <v>0.01860599864841461</v>
+        <v>0.01860599864841816</v>
       </c>
       <c r="F14">
         <v>3.846923339779408</v>
@@ -886,16 +886,16 @@
         <v>3.076620182011993</v>
       </c>
       <c r="H14">
-        <v>0.03186789693066938</v>
+        <v>0.03186789693067116</v>
       </c>
       <c r="I14">
-        <v>0.003324848126135649</v>
+        <v>0.003324848126151636</v>
       </c>
       <c r="J14">
-        <v>6.001002568293643</v>
+        <v>6.001002568293671</v>
       </c>
       <c r="K14">
-        <v>3.419370288471526</v>
+        <v>3.419370288471498</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.114512376904372</v>
+        <v>2.114512376904429</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04084947300133024</v>
+        <v>0.04084947300148656</v>
       </c>
       <c r="E15">
-        <v>0.01856107395453499</v>
+        <v>0.01856107395449857</v>
       </c>
       <c r="F15">
-        <v>3.793050011244475</v>
+        <v>3.793050011244503</v>
       </c>
       <c r="G15">
         <v>3.032947354160896</v>
       </c>
       <c r="H15">
-        <v>0.03338874992114693</v>
+        <v>0.03338874992114516</v>
       </c>
       <c r="I15">
-        <v>0.003404730039855419</v>
+        <v>0.003404730039880288</v>
       </c>
       <c r="J15">
-        <v>5.92790942759018</v>
+        <v>5.927909427590151</v>
       </c>
       <c r="K15">
-        <v>3.376212223160678</v>
+        <v>3.376212223160707</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -950,22 +950,22 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03633436080482255</v>
+        <v>0.03633436080481545</v>
       </c>
       <c r="E16">
-        <v>0.01831583673042392</v>
+        <v>0.01831583673039106</v>
       </c>
       <c r="F16">
-        <v>3.492499525645542</v>
+        <v>3.492499525645513</v>
       </c>
       <c r="G16">
         <v>2.789506587732376</v>
       </c>
       <c r="H16">
-        <v>0.04298258891731166</v>
+        <v>0.04298258891731077</v>
       </c>
       <c r="I16">
-        <v>0.003881745035583695</v>
+        <v>0.003881745035584583</v>
       </c>
       <c r="J16">
         <v>5.513771733741095</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03373709942221836</v>
+        <v>0.0337370994220052</v>
       </c>
       <c r="E17">
-        <v>0.01817546013816163</v>
+        <v>0.0181754601381634</v>
       </c>
       <c r="F17">
-        <v>3.314771173473957</v>
+        <v>3.3147711734739</v>
       </c>
       <c r="G17">
-        <v>2.645716244735695</v>
+        <v>2.645716244735681</v>
       </c>
       <c r="H17">
-        <v>0.04960220806563154</v>
+        <v>0.04960220806563331</v>
       </c>
       <c r="I17">
-        <v>0.004190948858862731</v>
+        <v>0.004190948858864951</v>
       </c>
       <c r="J17">
         <v>5.263519198704557</v>
       </c>
       <c r="K17">
-        <v>2.985484961200086</v>
+        <v>2.9854849612001</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.83867392227279</v>
+        <v>1.838673922272761</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03229985938307323</v>
+        <v>0.03229985938317625</v>
       </c>
       <c r="E18">
-        <v>0.01809813088607726</v>
+        <v>0.01809813088600443</v>
       </c>
       <c r="F18">
-        <v>3.214753846194839</v>
+        <v>3.214753846194867</v>
       </c>
       <c r="G18">
-        <v>2.564853985832457</v>
+        <v>2.564853985832471</v>
       </c>
       <c r="H18">
-        <v>0.05366105405061905</v>
+        <v>0.05366105405061727</v>
       </c>
       <c r="I18">
-        <v>0.004374656632613272</v>
+        <v>0.004374656632626595</v>
       </c>
       <c r="J18">
         <v>5.120828608519616</v>
       </c>
       <c r="K18">
-        <v>2.901935795719112</v>
+        <v>2.901935795719083</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.822101102506537</v>
+        <v>1.822101102506565</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0318223694669193</v>
+        <v>0.03182236946702943</v>
       </c>
       <c r="E19">
-        <v>0.01807251028232759</v>
+        <v>0.01807251028236045</v>
       </c>
       <c r="F19">
-        <v>3.181248038809088</v>
+        <v>3.181248038809116</v>
       </c>
       <c r="G19">
-        <v>2.537774377855058</v>
+        <v>2.537774377855044</v>
       </c>
       <c r="H19">
-        <v>0.0550768633241363</v>
+        <v>0.05507686332415229</v>
       </c>
       <c r="I19">
-        <v>0.004437843050424828</v>
+        <v>0.004437843050429047</v>
       </c>
       <c r="J19">
-        <v>5.072717087444715</v>
+        <v>5.072717087444687</v>
       </c>
       <c r="K19">
-        <v>2.873794460777034</v>
+        <v>2.873794460776992</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1102,28 +1102,28 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03400757681338007</v>
+        <v>0.03400757681350797</v>
       </c>
       <c r="E20">
-        <v>0.01819004443757155</v>
+        <v>0.01819004443757422</v>
       </c>
       <c r="F20">
         <v>3.333457176359616</v>
       </c>
       <c r="G20">
-        <v>2.660828092638369</v>
+        <v>2.66082809263834</v>
       </c>
       <c r="H20">
-        <v>0.048871124088123</v>
+        <v>0.04887112408812566</v>
       </c>
       <c r="I20">
-        <v>0.004157421929184668</v>
+        <v>0.004157421929201544</v>
       </c>
       <c r="J20">
         <v>5.290026618227245</v>
       </c>
       <c r="K20">
-        <v>3.00102005433186</v>
+        <v>3.001020054331832</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.151183923368478</v>
+        <v>2.151183923368421</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04207462629114644</v>
+        <v>0.04207462629100434</v>
       </c>
       <c r="E21">
-        <v>0.01862777016007122</v>
+        <v>0.01862777016006945</v>
       </c>
       <c r="F21">
-        <v>3.872911438166369</v>
+        <v>3.872911438166398</v>
       </c>
       <c r="G21">
-        <v>3.09769150896652</v>
+        <v>3.097691508966534</v>
       </c>
       <c r="H21">
-        <v>0.03115489108641167</v>
+        <v>0.03115489108641345</v>
       </c>
       <c r="I21">
-        <v>0.003286891796379532</v>
+        <v>0.003286891796393299</v>
       </c>
       <c r="J21">
         <v>6.036142604993302</v>
       </c>
       <c r="K21">
-        <v>3.440130997107389</v>
+        <v>3.440130997107417</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.320319214137385</v>
+        <v>2.320319214137442</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04800895228405011</v>
+        <v>0.04800895228395063</v>
       </c>
       <c r="E22">
-        <v>0.01895118775563454</v>
+        <v>0.0189511877556372</v>
       </c>
       <c r="F22">
         <v>4.25056832758699</v>
       </c>
       <c r="G22">
-        <v>3.404176940995924</v>
+        <v>3.404176940995939</v>
       </c>
       <c r="H22">
-        <v>0.02223381789459644</v>
+        <v>0.02223381789459822</v>
       </c>
       <c r="I22">
-        <v>0.00277520675441556</v>
+        <v>0.002775206754417336</v>
       </c>
       <c r="J22">
-        <v>6.538360740244514</v>
+        <v>6.538360740244457</v>
       </c>
       <c r="K22">
         <v>3.737706945422076</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.229746339502071</v>
+        <v>2.229746339502015</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04477229552691142</v>
+        <v>0.0447722955271459</v>
       </c>
       <c r="E23">
-        <v>0.01877474510895638</v>
+        <v>0.01877474510895372</v>
       </c>
       <c r="F23">
         <v>4.046409811270593</v>
@@ -1228,16 +1228,16 @@
         <v>3.238429020675127</v>
       </c>
       <c r="H23">
-        <v>0.02672921317372356</v>
+        <v>0.0267292131737209</v>
       </c>
       <c r="I23">
-        <v>0.003042799979808164</v>
+        <v>0.003042799979831479</v>
       </c>
       <c r="J23">
-        <v>6.268791172932964</v>
+        <v>6.268791172932907</v>
       </c>
       <c r="K23">
-        <v>3.577779216647542</v>
+        <v>3.577779216647514</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1254,28 +1254,28 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03388512127800425</v>
+        <v>0.03388512127812504</v>
       </c>
       <c r="E24">
-        <v>0.0181834404305965</v>
+        <v>0.01818344043060716</v>
       </c>
       <c r="F24">
-        <v>3.325002558745041</v>
+        <v>3.325002558745012</v>
       </c>
       <c r="G24">
         <v>2.653990451509742</v>
       </c>
       <c r="H24">
-        <v>0.04920086300137161</v>
+        <v>0.04920086300136894</v>
       </c>
       <c r="I24">
-        <v>0.004172560998548125</v>
+        <v>0.004172560998518149</v>
       </c>
       <c r="J24">
         <v>5.278038964837009</v>
       </c>
       <c r="K24">
-        <v>2.993993945678184</v>
+        <v>2.993993945678142</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.53858569621363</v>
+        <v>1.538585696213886</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02425669644961204</v>
+        <v>0.0242566964498252</v>
       </c>
       <c r="E25">
-        <v>0.0176745365946811</v>
+        <v>0.0176745365946509</v>
       </c>
       <c r="F25">
-        <v>2.6293814073139</v>
+        <v>2.629381407313929</v>
       </c>
       <c r="G25">
-        <v>2.092454110046674</v>
+        <v>2.092454110046688</v>
       </c>
       <c r="H25">
-        <v>0.08289929177421751</v>
+        <v>0.08289929177421484</v>
       </c>
       <c r="I25">
-        <v>0.005613082574260631</v>
+        <v>0.00561308257425841</v>
       </c>
       <c r="J25">
-        <v>4.255872455826562</v>
+        <v>4.255872455826534</v>
       </c>
       <c r="K25">
-        <v>2.398264424383868</v>
+        <v>2.398264424383811</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.283088912032326</v>
+        <v>1.28308891203244</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01837620901213555</v>
+        <v>0.01837620901223502</v>
       </c>
       <c r="E2">
-        <v>0.01738740831149421</v>
+        <v>0.01738740831146934</v>
       </c>
       <c r="F2">
-        <v>2.16639671291253</v>
+        <v>2.166396712912515</v>
       </c>
       <c r="G2">
-        <v>1.719973223698076</v>
+        <v>1.719973223698062</v>
       </c>
       <c r="H2">
-        <v>0.1141271629958256</v>
+        <v>0.1141271629958132</v>
       </c>
       <c r="I2">
-        <v>0.006841899221686543</v>
+        <v>0.006841899221661008</v>
       </c>
       <c r="J2">
-        <v>3.529211563336105</v>
+        <v>3.529211563336133</v>
       </c>
       <c r="K2">
-        <v>1.978860010899425</v>
+        <v>1.978860010899439</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.112096084659015</v>
+        <v>1.112096084659044</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01491885974940743</v>
+        <v>0.01491885974936835</v>
       </c>
       <c r="E3">
-        <v>0.01724015570635462</v>
+        <v>0.01724015570633952</v>
       </c>
       <c r="F3">
-        <v>1.874977243621103</v>
+        <v>1.874977243621089</v>
       </c>
       <c r="G3">
-        <v>1.486121287028652</v>
+        <v>1.486121287028666</v>
       </c>
       <c r="H3">
-        <v>0.1386138359957663</v>
+        <v>0.1386138359957654</v>
       </c>
       <c r="I3">
-        <v>0.007769878643379968</v>
+        <v>0.007769878643379302</v>
       </c>
       <c r="J3">
         <v>3.047547169669926</v>
       </c>
       <c r="K3">
-        <v>1.702793057462912</v>
+        <v>1.702793057462884</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.007863036244828</v>
+        <v>1.00786303624497</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0129970189241142</v>
+        <v>0.01299701892411065</v>
       </c>
       <c r="E4">
-        <v>0.01717145935744036</v>
+        <v>0.01717145935742348</v>
       </c>
       <c r="F4">
-        <v>1.704821616586543</v>
+        <v>1.704821616586571</v>
       </c>
       <c r="G4">
         <v>1.349823057978782</v>
       </c>
       <c r="H4">
-        <v>0.1551002076819943</v>
+        <v>0.1551002076819898</v>
       </c>
       <c r="I4">
-        <v>0.008383773983748233</v>
+        <v>0.008383773983733578</v>
       </c>
       <c r="J4">
         <v>2.755681108229453</v>
       </c>
       <c r="K4">
-        <v>1.536286649167735</v>
+        <v>1.536286649167749</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,28 +532,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01225679599026819</v>
+        <v>0.01225679599026464</v>
       </c>
       <c r="E5">
-        <v>0.01714874268058431</v>
+        <v>0.01714874268055944</v>
       </c>
       <c r="F5">
         <v>1.637397404522901</v>
       </c>
       <c r="G5">
-        <v>1.295869563596085</v>
+        <v>1.295869563596071</v>
       </c>
       <c r="H5">
-        <v>0.1621586060571589</v>
+        <v>0.1621586060571731</v>
       </c>
       <c r="I5">
-        <v>0.008644641757949545</v>
+        <v>0.008644641757922678</v>
       </c>
       <c r="J5">
-        <v>2.637531881332862</v>
+        <v>2.637531881332848</v>
       </c>
       <c r="K5">
-        <v>1.469055636606782</v>
+        <v>1.469055636606797</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9585176103394986</v>
+        <v>0.9585176103396122</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01213627255168603</v>
+        <v>0.01213627255176419</v>
       </c>
       <c r="E6">
-        <v>0.01714528480769673</v>
+        <v>0.01714528480768518</v>
       </c>
       <c r="F6">
         <v>1.626309472185397</v>
@@ -582,13 +582,13 @@
         <v>1.287000020802765</v>
       </c>
       <c r="H6">
-        <v>0.1633505064802785</v>
+        <v>0.1633505064802883</v>
       </c>
       <c r="I6">
-        <v>0.008688594015115569</v>
+        <v>0.008688594015123341</v>
       </c>
       <c r="J6">
-        <v>2.617955879197908</v>
+        <v>2.617955879197893</v>
       </c>
       <c r="K6">
         <v>1.457925943803588</v>
@@ -608,28 +608,28 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01298687147189526</v>
+        <v>0.01298687147179223</v>
       </c>
       <c r="E7">
-        <v>0.01717113183392627</v>
+        <v>0.01717113183394403</v>
       </c>
       <c r="F7">
         <v>1.703904914811886</v>
       </c>
       <c r="G7">
-        <v>1.349089289176888</v>
+        <v>1.349089289176874</v>
       </c>
       <c r="H7">
-        <v>0.1551940538622434</v>
+        <v>0.1551940538622354</v>
       </c>
       <c r="I7">
-        <v>0.008387249308997147</v>
+        <v>0.00838724930900181</v>
       </c>
       <c r="J7">
-        <v>2.754084744213685</v>
+        <v>2.754084744213671</v>
       </c>
       <c r="K7">
-        <v>1.535377594949395</v>
+        <v>1.535377594949381</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.223947946859511</v>
+        <v>1.22394794685934</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01713750049984242</v>
+        <v>0.017137500499949</v>
       </c>
       <c r="E8">
-        <v>0.01733200285028769</v>
+        <v>0.01733200285027081</v>
       </c>
       <c r="F8">
-        <v>2.063906970865773</v>
+        <v>2.063906970865787</v>
       </c>
       <c r="G8">
-        <v>1.637672578610477</v>
+        <v>1.637672578610491</v>
       </c>
       <c r="H8">
         <v>0.122253094503991</v>
       </c>
       <c r="I8">
-        <v>0.007152466050097894</v>
+        <v>0.007152466050069473</v>
       </c>
       <c r="J8">
-        <v>3.362209189293281</v>
+        <v>3.362209189293367</v>
       </c>
       <c r="K8">
-        <v>1.88296446223714</v>
+        <v>1.882964462237155</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.656895254134355</v>
+        <v>1.656895254134326</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02727735433805378</v>
+        <v>0.02727735433805023</v>
       </c>
       <c r="E9">
-        <v>0.01783113571525519</v>
+        <v>0.01783113571534134</v>
       </c>
       <c r="F9">
         <v>2.854792760049946</v>
       </c>
       <c r="G9">
-        <v>2.274182014676143</v>
+        <v>2.274182014676157</v>
       </c>
       <c r="H9">
-        <v>0.07044959581285415</v>
+        <v>0.07044959581285859</v>
       </c>
       <c r="I9">
-        <v>0.005100317225162687</v>
+        <v>0.005100317225164464</v>
       </c>
       <c r="J9">
         <v>4.595340332278852</v>
       </c>
       <c r="K9">
-        <v>2.595368265448258</v>
+        <v>2.595368265448286</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.983310044583163</v>
+        <v>1.983310044583135</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03663887482501593</v>
+        <v>0.03663887482521488</v>
       </c>
       <c r="E10">
-        <v>0.01833233673919565</v>
+        <v>0.01833233673920809</v>
       </c>
       <c r="F10">
-        <v>3.513095210899593</v>
+        <v>3.513095210899621</v>
       </c>
       <c r="G10">
-        <v>2.806177568533514</v>
+        <v>2.806177568533542</v>
       </c>
       <c r="H10">
-        <v>0.0422626023209185</v>
+        <v>0.04226260232091761</v>
       </c>
       <c r="I10">
-        <v>0.003847273210916491</v>
+        <v>0.003847273210898727</v>
       </c>
       <c r="J10">
         <v>5.542506989543654</v>
@@ -760,28 +760,28 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0415160760249691</v>
+        <v>0.04151607602521779</v>
       </c>
       <c r="E11">
-        <v>0.01859735787312733</v>
+        <v>0.01859735787315842</v>
       </c>
       <c r="F11">
-        <v>3.836587542408893</v>
+        <v>3.836587542408864</v>
       </c>
       <c r="G11">
         <v>3.068240546716964</v>
       </c>
       <c r="H11">
-        <v>0.03215518357950575</v>
+        <v>0.03215518357950753</v>
       </c>
       <c r="I11">
-        <v>0.003340047776324573</v>
+        <v>0.00334004777631236</v>
       </c>
       <c r="J11">
-        <v>5.987005387792323</v>
+        <v>5.987005387792294</v>
       </c>
       <c r="K11">
-        <v>3.411102965155607</v>
+        <v>3.411102965155578</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04347405464499587</v>
+        <v>0.04347405464501009</v>
       </c>
       <c r="E12">
-        <v>0.01870399861657024</v>
+        <v>0.01870399861663152</v>
       </c>
       <c r="F12">
-        <v>3.963308260998559</v>
+        <v>3.963308260998531</v>
       </c>
       <c r="G12">
         <v>3.17100535216295</v>
       </c>
       <c r="H12">
-        <v>0.02877738123134321</v>
+        <v>0.02877738123133255</v>
       </c>
       <c r="I12">
-        <v>0.003157726300684116</v>
+        <v>0.003157726300672126</v>
       </c>
       <c r="J12">
-        <v>6.157776708253067</v>
+        <v>6.157776708253124</v>
       </c>
       <c r="K12">
-        <v>3.512053405060755</v>
+        <v>3.512053405060726</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -836,28 +836,28 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04304701696555924</v>
+        <v>0.0430470169657724</v>
       </c>
       <c r="E13">
-        <v>0.01868073323371977</v>
+        <v>0.01868073323375796</v>
       </c>
       <c r="F13">
-        <v>3.935814913090979</v>
+        <v>3.935814913091008</v>
       </c>
       <c r="G13">
-        <v>3.148704443262801</v>
+        <v>3.148704443262829</v>
       </c>
       <c r="H13">
-        <v>0.02948378311530142</v>
+        <v>0.02948378311528366</v>
       </c>
       <c r="I13">
-        <v>0.003196546181201576</v>
+        <v>0.003196546181194693</v>
       </c>
       <c r="J13">
         <v>6.120880148468075</v>
       </c>
       <c r="K13">
-        <v>3.490226402311038</v>
+        <v>3.490226402311009</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.139286257062054</v>
+        <v>2.139286257062338</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04167478757405974</v>
+        <v>0.04167478757403131</v>
       </c>
       <c r="E14">
-        <v>0.01860599864841816</v>
+        <v>0.01860599864841461</v>
       </c>
       <c r="F14">
         <v>3.846923339779408</v>
@@ -886,16 +886,16 @@
         <v>3.076620182011993</v>
       </c>
       <c r="H14">
-        <v>0.03186789693067116</v>
+        <v>0.03186789693066938</v>
       </c>
       <c r="I14">
-        <v>0.003324848126151636</v>
+        <v>0.003324848126135649</v>
       </c>
       <c r="J14">
-        <v>6.001002568293671</v>
+        <v>6.001002568293643</v>
       </c>
       <c r="K14">
-        <v>3.419370288471498</v>
+        <v>3.419370288471526</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.114512376904429</v>
+        <v>2.114512376904372</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04084947300148656</v>
+        <v>0.04084947300133024</v>
       </c>
       <c r="E15">
-        <v>0.01856107395449857</v>
+        <v>0.01856107395453499</v>
       </c>
       <c r="F15">
-        <v>3.793050011244503</v>
+        <v>3.793050011244475</v>
       </c>
       <c r="G15">
         <v>3.032947354160896</v>
       </c>
       <c r="H15">
-        <v>0.03338874992114516</v>
+        <v>0.03338874992114693</v>
       </c>
       <c r="I15">
-        <v>0.003404730039880288</v>
+        <v>0.003404730039855419</v>
       </c>
       <c r="J15">
-        <v>5.927909427590151</v>
+        <v>5.92790942759018</v>
       </c>
       <c r="K15">
-        <v>3.376212223160707</v>
+        <v>3.376212223160678</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -950,22 +950,22 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03633436080481545</v>
+        <v>0.03633436080482255</v>
       </c>
       <c r="E16">
-        <v>0.01831583673039106</v>
+        <v>0.01831583673042392</v>
       </c>
       <c r="F16">
-        <v>3.492499525645513</v>
+        <v>3.492499525645542</v>
       </c>
       <c r="G16">
         <v>2.789506587732376</v>
       </c>
       <c r="H16">
-        <v>0.04298258891731077</v>
+        <v>0.04298258891731166</v>
       </c>
       <c r="I16">
-        <v>0.003881745035584583</v>
+        <v>0.003881745035583695</v>
       </c>
       <c r="J16">
         <v>5.513771733741095</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0337370994220052</v>
+        <v>0.03373709942221836</v>
       </c>
       <c r="E17">
-        <v>0.0181754601381634</v>
+        <v>0.01817546013816163</v>
       </c>
       <c r="F17">
-        <v>3.3147711734739</v>
+        <v>3.314771173473957</v>
       </c>
       <c r="G17">
-        <v>2.645716244735681</v>
+        <v>2.645716244735695</v>
       </c>
       <c r="H17">
-        <v>0.04960220806563331</v>
+        <v>0.04960220806563154</v>
       </c>
       <c r="I17">
-        <v>0.004190948858864951</v>
+        <v>0.004190948858862731</v>
       </c>
       <c r="J17">
         <v>5.263519198704557</v>
       </c>
       <c r="K17">
-        <v>2.9854849612001</v>
+        <v>2.985484961200086</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.838673922272761</v>
+        <v>1.83867392227279</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03229985938317625</v>
+        <v>0.03229985938307323</v>
       </c>
       <c r="E18">
-        <v>0.01809813088600443</v>
+        <v>0.01809813088607726</v>
       </c>
       <c r="F18">
-        <v>3.214753846194867</v>
+        <v>3.214753846194839</v>
       </c>
       <c r="G18">
-        <v>2.564853985832471</v>
+        <v>2.564853985832457</v>
       </c>
       <c r="H18">
-        <v>0.05366105405061727</v>
+        <v>0.05366105405061905</v>
       </c>
       <c r="I18">
-        <v>0.004374656632626595</v>
+        <v>0.004374656632613272</v>
       </c>
       <c r="J18">
         <v>5.120828608519616</v>
       </c>
       <c r="K18">
-        <v>2.901935795719083</v>
+        <v>2.901935795719112</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.822101102506565</v>
+        <v>1.822101102506537</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03182236946702943</v>
+        <v>0.0318223694669193</v>
       </c>
       <c r="E19">
-        <v>0.01807251028236045</v>
+        <v>0.01807251028232759</v>
       </c>
       <c r="F19">
-        <v>3.181248038809116</v>
+        <v>3.181248038809088</v>
       </c>
       <c r="G19">
-        <v>2.537774377855044</v>
+        <v>2.537774377855058</v>
       </c>
       <c r="H19">
-        <v>0.05507686332415229</v>
+        <v>0.0550768633241363</v>
       </c>
       <c r="I19">
-        <v>0.004437843050429047</v>
+        <v>0.004437843050424828</v>
       </c>
       <c r="J19">
-        <v>5.072717087444687</v>
+        <v>5.072717087444715</v>
       </c>
       <c r="K19">
-        <v>2.873794460776992</v>
+        <v>2.873794460777034</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1102,28 +1102,28 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03400757681350797</v>
+        <v>0.03400757681338007</v>
       </c>
       <c r="E20">
-        <v>0.01819004443757422</v>
+        <v>0.01819004443757155</v>
       </c>
       <c r="F20">
         <v>3.333457176359616</v>
       </c>
       <c r="G20">
-        <v>2.66082809263834</v>
+        <v>2.660828092638369</v>
       </c>
       <c r="H20">
-        <v>0.04887112408812566</v>
+        <v>0.048871124088123</v>
       </c>
       <c r="I20">
-        <v>0.004157421929201544</v>
+        <v>0.004157421929184668</v>
       </c>
       <c r="J20">
         <v>5.290026618227245</v>
       </c>
       <c r="K20">
-        <v>3.001020054331832</v>
+        <v>3.00102005433186</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.151183923368421</v>
+        <v>2.151183923368478</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04207462629100434</v>
+        <v>0.04207462629114644</v>
       </c>
       <c r="E21">
-        <v>0.01862777016006945</v>
+        <v>0.01862777016007122</v>
       </c>
       <c r="F21">
-        <v>3.872911438166398</v>
+        <v>3.872911438166369</v>
       </c>
       <c r="G21">
-        <v>3.097691508966534</v>
+        <v>3.09769150896652</v>
       </c>
       <c r="H21">
-        <v>0.03115489108641345</v>
+        <v>0.03115489108641167</v>
       </c>
       <c r="I21">
-        <v>0.003286891796393299</v>
+        <v>0.003286891796379532</v>
       </c>
       <c r="J21">
         <v>6.036142604993302</v>
       </c>
       <c r="K21">
-        <v>3.440130997107417</v>
+        <v>3.440130997107389</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.320319214137442</v>
+        <v>2.320319214137385</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04800895228395063</v>
+        <v>0.04800895228405011</v>
       </c>
       <c r="E22">
-        <v>0.0189511877556372</v>
+        <v>0.01895118775563454</v>
       </c>
       <c r="F22">
         <v>4.25056832758699</v>
       </c>
       <c r="G22">
-        <v>3.404176940995939</v>
+        <v>3.404176940995924</v>
       </c>
       <c r="H22">
-        <v>0.02223381789459822</v>
+        <v>0.02223381789459644</v>
       </c>
       <c r="I22">
-        <v>0.002775206754417336</v>
+        <v>0.00277520675441556</v>
       </c>
       <c r="J22">
-        <v>6.538360740244457</v>
+        <v>6.538360740244514</v>
       </c>
       <c r="K22">
         <v>3.737706945422076</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.229746339502015</v>
+        <v>2.229746339502071</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0447722955271459</v>
+        <v>0.04477229552691142</v>
       </c>
       <c r="E23">
-        <v>0.01877474510895372</v>
+        <v>0.01877474510895638</v>
       </c>
       <c r="F23">
         <v>4.046409811270593</v>
@@ -1228,16 +1228,16 @@
         <v>3.238429020675127</v>
       </c>
       <c r="H23">
-        <v>0.0267292131737209</v>
+        <v>0.02672921317372356</v>
       </c>
       <c r="I23">
-        <v>0.003042799979831479</v>
+        <v>0.003042799979808164</v>
       </c>
       <c r="J23">
-        <v>6.268791172932907</v>
+        <v>6.268791172932964</v>
       </c>
       <c r="K23">
-        <v>3.577779216647514</v>
+        <v>3.577779216647542</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1254,28 +1254,28 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03388512127812504</v>
+        <v>0.03388512127800425</v>
       </c>
       <c r="E24">
-        <v>0.01818344043060716</v>
+        <v>0.0181834404305965</v>
       </c>
       <c r="F24">
-        <v>3.325002558745012</v>
+        <v>3.325002558745041</v>
       </c>
       <c r="G24">
         <v>2.653990451509742</v>
       </c>
       <c r="H24">
-        <v>0.04920086300136894</v>
+        <v>0.04920086300137161</v>
       </c>
       <c r="I24">
-        <v>0.004172560998518149</v>
+        <v>0.004172560998548125</v>
       </c>
       <c r="J24">
         <v>5.278038964837009</v>
       </c>
       <c r="K24">
-        <v>2.993993945678142</v>
+        <v>2.993993945678184</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.538585696213886</v>
+        <v>1.53858569621363</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0242566964498252</v>
+        <v>0.02425669644961204</v>
       </c>
       <c r="E25">
-        <v>0.0176745365946509</v>
+        <v>0.0176745365946811</v>
       </c>
       <c r="F25">
-        <v>2.629381407313929</v>
+        <v>2.6293814073139</v>
       </c>
       <c r="G25">
-        <v>2.092454110046688</v>
+        <v>2.092454110046674</v>
       </c>
       <c r="H25">
-        <v>0.08289929177421484</v>
+        <v>0.08289929177421751</v>
       </c>
       <c r="I25">
-        <v>0.00561308257425841</v>
+        <v>0.005613082574260631</v>
       </c>
       <c r="J25">
-        <v>4.255872455826534</v>
+        <v>4.255872455826562</v>
       </c>
       <c r="K25">
-        <v>2.398264424383811</v>
+        <v>2.398264424383868</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.28308891203244</v>
+        <v>1.28339217653027</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01837620901223502</v>
+        <v>0.01824696904133205</v>
       </c>
       <c r="E2">
-        <v>0.01738740831146934</v>
+        <v>0.01733667808987427</v>
       </c>
       <c r="F2">
-        <v>2.166396712912515</v>
+        <v>2.162829721198676</v>
       </c>
       <c r="G2">
-        <v>1.719973223698062</v>
+        <v>0.5733064475385561</v>
       </c>
       <c r="H2">
-        <v>0.1141271629958132</v>
+        <v>1.146582861143088</v>
       </c>
       <c r="I2">
-        <v>0.006841899221661008</v>
+        <v>0.1142344218507878</v>
       </c>
       <c r="J2">
-        <v>3.529211563336133</v>
+        <v>0.00683269558795363</v>
       </c>
       <c r="K2">
-        <v>1.978860010899439</v>
+        <v>3.527346431053928</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.977876239592959</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.112096084659044</v>
+        <v>1.112370568297649</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01491885974936835</v>
+        <v>0.01481075065517246</v>
       </c>
       <c r="E3">
-        <v>0.01724015570633952</v>
+        <v>0.01719796196721823</v>
       </c>
       <c r="F3">
-        <v>1.874977243621089</v>
+        <v>1.871933029293615</v>
       </c>
       <c r="G3">
-        <v>1.486121287028666</v>
+        <v>0.4913655582475798</v>
       </c>
       <c r="H3">
-        <v>0.1386138359957654</v>
+        <v>0.9953746432456114</v>
       </c>
       <c r="I3">
-        <v>0.007769878643379302</v>
+        <v>0.1386979112819082</v>
       </c>
       <c r="J3">
-        <v>3.047547169669926</v>
+        <v>0.007761933222006023</v>
       </c>
       <c r="K3">
-        <v>1.702793057462884</v>
+        <v>3.045993903569723</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.701978229101869</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.00786303624497</v>
+        <v>1.008118452050041</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01299701892411065</v>
+        <v>0.01290092421172773</v>
       </c>
       <c r="E4">
-        <v>0.01717145935742348</v>
+        <v>0.01713459734901246</v>
       </c>
       <c r="F4">
-        <v>1.704821616586571</v>
+        <v>1.702078943020339</v>
       </c>
       <c r="G4">
-        <v>1.349823057978782</v>
+        <v>0.4434390048535448</v>
       </c>
       <c r="H4">
-        <v>0.1551002076819898</v>
+        <v>0.9074121066729504</v>
       </c>
       <c r="I4">
-        <v>0.008383773983733578</v>
+        <v>0.1551690705540425</v>
       </c>
       <c r="J4">
-        <v>2.755681108229453</v>
+        <v>0.008376730395170062</v>
       </c>
       <c r="K4">
-        <v>1.536286649167749</v>
+        <v>2.754307966302676</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.535568250720232</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.965537699159114</v>
+        <v>0.9657850464326145</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01225679599026464</v>
+        <v>0.01216539395412042</v>
       </c>
       <c r="E5">
-        <v>0.01714874268055944</v>
+        <v>0.01711407969419465</v>
       </c>
       <c r="F5">
-        <v>1.637397404522901</v>
+        <v>1.634773526488502</v>
       </c>
       <c r="G5">
-        <v>1.295869563596071</v>
+        <v>0.4244260749375712</v>
       </c>
       <c r="H5">
-        <v>0.1621586060571731</v>
+        <v>0.8726335541298766</v>
       </c>
       <c r="I5">
-        <v>0.008644641757922678</v>
+        <v>0.1622210538511304</v>
       </c>
       <c r="J5">
-        <v>2.637531881332848</v>
+        <v>0.008637996163699313</v>
       </c>
       <c r="K5">
-        <v>1.469055636606797</v>
+        <v>2.636229797685459</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.468375024316202</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9585176103396122</v>
+        <v>0.9587636012107055</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01213627255176419</v>
+        <v>0.01204563846323126</v>
       </c>
       <c r="E6">
-        <v>0.01714528480768518</v>
+        <v>0.01711098864715854</v>
       </c>
       <c r="F6">
-        <v>1.626309472185397</v>
+        <v>1.623705094561913</v>
       </c>
       <c r="G6">
-        <v>1.287000020802765</v>
+        <v>0.4212980224913281</v>
       </c>
       <c r="H6">
-        <v>0.1633505064802883</v>
+        <v>0.8669187052643821</v>
       </c>
       <c r="I6">
-        <v>0.008688594015123341</v>
+        <v>0.1634118767889374</v>
       </c>
       <c r="J6">
-        <v>2.617955879197893</v>
+        <v>0.008682016293069195</v>
       </c>
       <c r="K6">
-        <v>1.457925943803588</v>
+        <v>2.616665466701207</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.457251523260865</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.007291662376559</v>
+        <v>1.007546970510617</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01298687147179223</v>
+        <v>0.01289084082326042</v>
       </c>
       <c r="E7">
-        <v>0.01717113183394403</v>
+        <v>0.01713429937158928</v>
       </c>
       <c r="F7">
-        <v>1.703904914811886</v>
+        <v>1.701163858928695</v>
       </c>
       <c r="G7">
-        <v>1.349089289176874</v>
+        <v>0.443180596256525</v>
       </c>
       <c r="H7">
-        <v>0.1551940538622354</v>
+        <v>0.9069389493943589</v>
       </c>
       <c r="I7">
-        <v>0.00838724930900181</v>
+        <v>0.1552628310568682</v>
       </c>
       <c r="J7">
-        <v>2.754084744213671</v>
+        <v>0.008380210967004365</v>
       </c>
       <c r="K7">
-        <v>1.535377594949381</v>
+        <v>2.752712569472052</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.534659711818506</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.22394794685934</v>
+        <v>1.224241612248477</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.017137500499949</v>
+        <v>0.0170157705527707</v>
       </c>
       <c r="E8">
-        <v>0.01733200285027081</v>
+        <v>0.01728419967484029</v>
       </c>
       <c r="F8">
-        <v>2.063906970865787</v>
+        <v>2.060524795562799</v>
       </c>
       <c r="G8">
-        <v>1.637672578610491</v>
+        <v>0.5445054028562737</v>
       </c>
       <c r="H8">
-        <v>0.122253094503991</v>
+        <v>1.093330842448438</v>
       </c>
       <c r="I8">
-        <v>0.007152466050069473</v>
+        <v>0.1223525824320539</v>
       </c>
       <c r="J8">
-        <v>3.362209189293367</v>
+        <v>0.007143668146484261</v>
       </c>
       <c r="K8">
-        <v>1.882964462237155</v>
+        <v>3.360454282509892</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.882040671691627</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.656895254134326</v>
+        <v>1.65725009327798</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02727735433805023</v>
+        <v>0.02709551752780825</v>
       </c>
       <c r="E9">
-        <v>0.01783113571534134</v>
+        <v>0.01776232359756591</v>
       </c>
       <c r="F9">
-        <v>2.854792760049946</v>
+        <v>2.849954384669957</v>
       </c>
       <c r="G9">
-        <v>2.274182014676157</v>
+        <v>0.7664492290225411</v>
       </c>
       <c r="H9">
-        <v>0.07044959581285859</v>
+        <v>1.505969145277021</v>
       </c>
       <c r="I9">
-        <v>0.005100317225164464</v>
+        <v>0.07059982651961061</v>
       </c>
       <c r="J9">
-        <v>4.595340332278852</v>
+        <v>0.005089195186321893</v>
       </c>
       <c r="K9">
-        <v>2.595368265448286</v>
+        <v>4.592716283668722</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.5939645735195</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.983310044583135</v>
+        <v>1.983695871063929</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03663887482521488</v>
+        <v>0.03640325173068959</v>
       </c>
       <c r="E10">
-        <v>0.01833233673920809</v>
+        <v>0.01824799364729479</v>
       </c>
       <c r="F10">
-        <v>3.513095210899621</v>
+        <v>3.50698564485657</v>
       </c>
       <c r="G10">
-        <v>2.806177568533542</v>
+        <v>0.9508867964230916</v>
       </c>
       <c r="H10">
-        <v>0.04226260232091761</v>
+        <v>1.851883776645778</v>
       </c>
       <c r="I10">
-        <v>0.003847273210898727</v>
+        <v>0.04244110326258443</v>
       </c>
       <c r="J10">
-        <v>5.542506989543654</v>
+        <v>0.003835287490514094</v>
       </c>
       <c r="K10">
-        <v>3.149214582907618</v>
+        <v>5.539121187051251</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>3.14737914249919</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.134544837658495</v>
+        <v>2.134940000494851</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04151607602521779</v>
+        <v>0.04125274612916741</v>
       </c>
       <c r="E11">
-        <v>0.01859735787315842</v>
+        <v>0.01850579372003391</v>
       </c>
       <c r="F11">
-        <v>3.836587542408864</v>
+        <v>3.829830834947472</v>
       </c>
       <c r="G11">
-        <v>3.068240546716964</v>
+        <v>1.041484832900437</v>
       </c>
       <c r="H11">
-        <v>0.03215518357950753</v>
+        <v>2.022524573017378</v>
       </c>
       <c r="I11">
-        <v>0.00334004777631236</v>
+        <v>0.03234351714399786</v>
       </c>
       <c r="J11">
-        <v>5.987005387792294</v>
+        <v>0.003327893367424783</v>
       </c>
       <c r="K11">
-        <v>3.411102965155578</v>
+        <v>5.983230337464221</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.409043556560022</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.192303333202119</v>
+        <v>2.192701143401905</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04347405464501009</v>
+        <v>0.0431996356749238</v>
       </c>
       <c r="E12">
-        <v>0.01870399861663152</v>
+        <v>0.01860966135733388</v>
       </c>
       <c r="F12">
-        <v>3.963308260998531</v>
+        <v>3.956293687637469</v>
       </c>
       <c r="G12">
-        <v>3.17100535216295</v>
+        <v>1.076972525035004</v>
       </c>
       <c r="H12">
-        <v>0.02877738123133255</v>
+        <v>2.089475504418672</v>
       </c>
       <c r="I12">
-        <v>0.003157726300672126</v>
+        <v>0.02896887356477329</v>
       </c>
       <c r="J12">
-        <v>6.157776708253124</v>
+        <v>0.003145544280053203</v>
       </c>
       <c r="K12">
-        <v>3.512053405060726</v>
+        <v>6.153846272841236</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>3.509904015671566</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.179840559098523</v>
+        <v>2.180237842583779</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0430470169657724</v>
+        <v>0.04277501529415417</v>
       </c>
       <c r="E13">
-        <v>0.01868073323375796</v>
+        <v>0.01858699524936203</v>
       </c>
       <c r="F13">
-        <v>3.935814913091008</v>
+        <v>3.928856501197686</v>
       </c>
       <c r="G13">
-        <v>3.148704443262829</v>
+        <v>1.069273144521645</v>
       </c>
       <c r="H13">
-        <v>0.02948378311528366</v>
+        <v>2.074944910814253</v>
       </c>
       <c r="I13">
-        <v>0.003196546181194693</v>
+        <v>0.02967462279507593</v>
       </c>
       <c r="J13">
-        <v>6.120880148468075</v>
+        <v>0.003184368423756911</v>
       </c>
       <c r="K13">
-        <v>3.490226402311009</v>
+        <v>6.116983568547823</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>3.488096645018686</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.139286257062338</v>
+        <v>2.139681656894652</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04167478757403131</v>
+        <v>0.04141055823043871</v>
       </c>
       <c r="E14">
-        <v>0.01860599864841461</v>
+        <v>0.01851420723727859</v>
       </c>
       <c r="F14">
-        <v>3.846923339779408</v>
+        <v>3.840145693996021</v>
       </c>
       <c r="G14">
-        <v>3.076620182011993</v>
+        <v>1.044379357388777</v>
       </c>
       <c r="H14">
-        <v>0.03186789693066938</v>
+        <v>2.027983151980706</v>
       </c>
       <c r="I14">
-        <v>0.003324848126135649</v>
+        <v>0.03205650258083903</v>
       </c>
       <c r="J14">
-        <v>6.001002568293643</v>
+        <v>0.003312690693604514</v>
       </c>
       <c r="K14">
-        <v>3.419370288471526</v>
+        <v>5.997214906918884</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>3.417303588926075</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.114512376904372</v>
+        <v>2.114906500157872</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04084947300133024</v>
+        <v>0.04058992212280543</v>
       </c>
       <c r="E15">
-        <v>0.01856107395453499</v>
+        <v>0.01847046926873919</v>
       </c>
       <c r="F15">
-        <v>3.793050011244475</v>
+        <v>3.786381320977029</v>
       </c>
       <c r="G15">
-        <v>3.032947354160896</v>
+        <v>1.029292152042217</v>
       </c>
       <c r="H15">
-        <v>0.03338874992114693</v>
+        <v>1.999535681984597</v>
       </c>
       <c r="I15">
-        <v>0.003404730039855419</v>
+        <v>0.03357590906283114</v>
       </c>
       <c r="J15">
-        <v>5.92790942759018</v>
+        <v>0.00339258990956659</v>
       </c>
       <c r="K15">
-        <v>3.376212223160678</v>
+        <v>5.924187377987465</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3.37418343312541</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.973489428938336</v>
+        <v>1.973874533454847</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03633436080482255</v>
+        <v>0.03610047283832074</v>
       </c>
       <c r="E16">
-        <v>0.01831583673042392</v>
+        <v>0.01823196114448056</v>
       </c>
       <c r="F16">
-        <v>3.492499525645542</v>
+        <v>3.486430636596992</v>
       </c>
       <c r="G16">
-        <v>2.789506587732376</v>
+        <v>0.9451182741321134</v>
       </c>
       <c r="H16">
-        <v>0.04298258891731166</v>
+        <v>1.84103339244426</v>
       </c>
       <c r="I16">
-        <v>0.003881745035583695</v>
+        <v>0.04316037623028812</v>
       </c>
       <c r="J16">
-        <v>5.513771733741095</v>
+        <v>0.003869775182032242</v>
       </c>
       <c r="K16">
-        <v>3.132327804484348</v>
+        <v>5.510410364302288</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>3.130506351203834</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.887741714866223</v>
+        <v>1.888119941005868</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03373709942221836</v>
+        <v>0.03351804280952564</v>
       </c>
       <c r="E17">
-        <v>0.01817546013816163</v>
+        <v>0.01809566271536767</v>
       </c>
       <c r="F17">
-        <v>3.314771173473957</v>
+        <v>3.309050788893813</v>
       </c>
       <c r="G17">
-        <v>2.645716244735695</v>
+        <v>0.8953359494640125</v>
       </c>
       <c r="H17">
-        <v>0.04960220806563154</v>
+        <v>1.747472877349963</v>
       </c>
       <c r="I17">
-        <v>0.004190948858862731</v>
+        <v>0.04977339101043299</v>
       </c>
       <c r="J17">
-        <v>5.263519198704557</v>
+        <v>0.004179143575939293</v>
       </c>
       <c r="K17">
-        <v>2.985484961200086</v>
+        <v>5.260367001047769</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>2.983782891066738</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.83867392227279</v>
+        <v>1.839047759299547</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03229985938307323</v>
+        <v>0.03208903815852082</v>
       </c>
       <c r="E18">
-        <v>0.01809813088607726</v>
+        <v>0.01802066566125315</v>
       </c>
       <c r="F18">
-        <v>3.214753846194839</v>
+        <v>3.209227644642937</v>
       </c>
       <c r="G18">
-        <v>2.564853985832457</v>
+        <v>0.8673173867597086</v>
       </c>
       <c r="H18">
-        <v>0.05366105405061905</v>
+        <v>1.694879591922117</v>
       </c>
       <c r="I18">
-        <v>0.004374656632613272</v>
+        <v>0.05382816310134064</v>
       </c>
       <c r="J18">
-        <v>5.120828608519616</v>
+        <v>0.004362966837239135</v>
       </c>
       <c r="K18">
-        <v>2.901935795719112</v>
+        <v>5.117792835945039</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2.900299886625973</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.822101102506537</v>
+        <v>1.822473384359796</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0318223694669193</v>
+        <v>0.03161428932445531</v>
       </c>
       <c r="E19">
-        <v>0.01807251028232759</v>
+        <v>0.01799583280182837</v>
       </c>
       <c r="F19">
-        <v>3.181248038809088</v>
+        <v>3.175786583206275</v>
       </c>
       <c r="G19">
-        <v>2.537774377855058</v>
+        <v>0.8579305088375548</v>
       </c>
       <c r="H19">
-        <v>0.0550768633241363</v>
+        <v>1.677270528356374</v>
       </c>
       <c r="I19">
-        <v>0.004437843050424828</v>
+        <v>0.05524254904525971</v>
       </c>
       <c r="J19">
-        <v>5.072717087444715</v>
+        <v>0.004426195821429779</v>
       </c>
       <c r="K19">
-        <v>2.873794460777034</v>
+        <v>5.069720114982886</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.872180553632745</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.896842994701046</v>
+        <v>1.897221999136207</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03400757681338007</v>
+        <v>0.03378697276703235</v>
       </c>
       <c r="E20">
-        <v>0.01819004443757155</v>
+        <v>0.01810981438089243</v>
       </c>
       <c r="F20">
-        <v>3.333457176359616</v>
+        <v>3.327700359943208</v>
       </c>
       <c r="G20">
-        <v>2.660828092638369</v>
+        <v>0.9005702947373351</v>
       </c>
       <c r="H20">
-        <v>0.048871124088123</v>
+        <v>1.75730348470897</v>
       </c>
       <c r="I20">
-        <v>0.004157421929184668</v>
+        <v>0.04904303937125931</v>
       </c>
       <c r="J20">
-        <v>5.290026618227245</v>
+        <v>0.004145596944185703</v>
       </c>
       <c r="K20">
-        <v>3.00102005433186</v>
+        <v>5.286852567632621</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>2.999305542531829</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.151183923368478</v>
+        <v>2.151579902521576</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04207462629114644</v>
+        <v>0.0418081314709724</v>
       </c>
       <c r="E21">
-        <v>0.01862777016007122</v>
+        <v>0.01853540819862243</v>
       </c>
       <c r="F21">
-        <v>3.872911438166369</v>
+        <v>3.866081072116316</v>
       </c>
       <c r="G21">
-        <v>3.09769150896652</v>
+        <v>1.051657264642245</v>
       </c>
       <c r="H21">
-        <v>0.03115489108641167</v>
+        <v>2.041709804017103</v>
       </c>
       <c r="I21">
-        <v>0.003286891796379532</v>
+        <v>0.03134416949600638</v>
       </c>
       <c r="J21">
-        <v>6.036142604993302</v>
+        <v>0.003274727374583675</v>
       </c>
       <c r="K21">
-        <v>3.440130997107389</v>
+        <v>6.032323185774317</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>3.438045927712864</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.320319214137385</v>
+        <v>2.320720964526004</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04800895228405011</v>
+        <v>0.04770889293218517</v>
       </c>
       <c r="E22">
-        <v>0.01895118775563454</v>
+        <v>0.01885065969203659</v>
       </c>
       <c r="F22">
-        <v>4.25056832758699</v>
+        <v>4.242959630450144</v>
       </c>
       <c r="G22">
-        <v>3.404176940995924</v>
+        <v>1.157418887971374</v>
       </c>
       <c r="H22">
-        <v>0.02223381789459644</v>
+        <v>2.241453854866975</v>
       </c>
       <c r="I22">
-        <v>0.00277520675441556</v>
+        <v>0.0224310580454663</v>
       </c>
       <c r="J22">
-        <v>6.538360740244514</v>
+        <v>0.002763034205949033</v>
       </c>
       <c r="K22">
-        <v>3.737706945422076</v>
+        <v>6.534071690251636</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>3.735348709745892</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.229746339502071</v>
+        <v>2.230145582103148</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04477229552691142</v>
+        <v>0.04449053130363012</v>
       </c>
       <c r="E23">
-        <v>0.01877474510895638</v>
+        <v>0.01867860405789301</v>
       </c>
       <c r="F23">
-        <v>4.046409811270593</v>
+        <v>4.039224749514943</v>
       </c>
       <c r="G23">
-        <v>3.238429020675127</v>
+        <v>1.100244690448761</v>
       </c>
       <c r="H23">
-        <v>0.02672921317372356</v>
+        <v>2.133412028473856</v>
       </c>
       <c r="I23">
-        <v>0.003042799979808164</v>
+        <v>0.02692256878931421</v>
       </c>
       <c r="J23">
-        <v>6.268791172932964</v>
+        <v>0.003030610721225235</v>
       </c>
       <c r="K23">
-        <v>3.577779216647542</v>
+        <v>6.264757916540617</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3.575570112901119</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.892727597460379</v>
+        <v>1.893106251367584</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03388512127800425</v>
+        <v>0.03366521772444031</v>
       </c>
       <c r="E24">
-        <v>0.0181834404305965</v>
+        <v>0.01810340600518501</v>
       </c>
       <c r="F24">
-        <v>3.325002558745041</v>
+        <v>3.319262232194632</v>
       </c>
       <c r="G24">
-        <v>2.653990451509742</v>
+        <v>0.898201988017604</v>
       </c>
       <c r="H24">
-        <v>0.04920086300137161</v>
+        <v>1.752855372813826</v>
       </c>
       <c r="I24">
-        <v>0.004172560998548125</v>
+        <v>0.04937244804785212</v>
       </c>
       <c r="J24">
-        <v>5.278038964837009</v>
+        <v>0.004160744856121168</v>
       </c>
       <c r="K24">
-        <v>2.993993945678184</v>
+        <v>5.274874805755815</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>2.992285066375672</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.53858569621363</v>
+        <v>1.538925965798313</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02425669644961204</v>
+        <v>0.0240924919655825</v>
       </c>
       <c r="E25">
-        <v>0.0176745365946811</v>
+        <v>0.01761138877657853</v>
       </c>
       <c r="F25">
-        <v>2.6293814073139</v>
+        <v>2.624965403126851</v>
       </c>
       <c r="G25">
-        <v>2.092454110046674</v>
+        <v>0.7032504743298063</v>
       </c>
       <c r="H25">
-        <v>0.08289929177421751</v>
+        <v>1.387993735865805</v>
       </c>
       <c r="I25">
-        <v>0.005613082574260631</v>
+        <v>0.08303709066601517</v>
       </c>
       <c r="J25">
-        <v>4.255872455826562</v>
+        <v>0.005602453596441404</v>
       </c>
       <c r="K25">
-        <v>2.398264424383868</v>
+        <v>4.253500767735829</v>
       </c>
       <c r="L25">
+        <v>2.397001616445593</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.28339217653027</v>
+        <v>1.925123417339023</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01824696904133205</v>
+        <v>0.2846100804279246</v>
       </c>
       <c r="E2">
-        <v>0.01733667808987427</v>
+        <v>0.2447576239496527</v>
       </c>
       <c r="F2">
-        <v>2.162829721198676</v>
+        <v>3.524425711973691</v>
       </c>
       <c r="G2">
-        <v>0.5733064475385561</v>
+        <v>0.0008162896468646685</v>
       </c>
       <c r="H2">
-        <v>1.146582861143088</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1142344218507878</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00683269558795363</v>
+        <v>0.2925481245696773</v>
       </c>
       <c r="K2">
-        <v>3.527346431053928</v>
+        <v>1.871561478066013</v>
       </c>
       <c r="L2">
-        <v>1.977876239592959</v>
+        <v>0.9765220113020803</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.6744019404532224</v>
+      </c>
+      <c r="N2">
+        <v>1.630489228206216</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.112370568297649</v>
+        <v>1.714890664947177</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01481075065517246</v>
+        <v>0.2429366823667323</v>
       </c>
       <c r="E3">
-        <v>0.01719796196721823</v>
+        <v>0.2108906726548838</v>
       </c>
       <c r="F3">
-        <v>1.871933029293615</v>
+        <v>3.255992431730505</v>
       </c>
       <c r="G3">
-        <v>0.4913655582475798</v>
+        <v>0.0008285827286417539</v>
       </c>
       <c r="H3">
-        <v>0.9953746432456114</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1386979112819082</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007761933222006023</v>
+        <v>0.2574762949524967</v>
       </c>
       <c r="K3">
-        <v>3.045993903569723</v>
+        <v>1.620222052637288</v>
       </c>
       <c r="L3">
-        <v>1.701978229101869</v>
+        <v>0.8528461678532722</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.5950735298445338</v>
+      </c>
+      <c r="N3">
+        <v>1.690388832770871</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.008118452050041</v>
+        <v>1.589155026662553</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01290092421172773</v>
+        <v>0.2181406465920617</v>
       </c>
       <c r="E4">
-        <v>0.01713459734901246</v>
+        <v>0.1905580268287395</v>
       </c>
       <c r="F4">
-        <v>1.702078943020339</v>
+        <v>3.099648782610785</v>
       </c>
       <c r="G4">
-        <v>0.4434390048535448</v>
+        <v>0.0008363006448224297</v>
       </c>
       <c r="H4">
-        <v>0.9074121066729504</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1551690705540425</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.008376730395170062</v>
+        <v>0.2363147532090792</v>
       </c>
       <c r="K4">
-        <v>2.754307966302676</v>
+        <v>1.469622123230309</v>
       </c>
       <c r="L4">
-        <v>1.535568250720232</v>
+        <v>0.7789114220653914</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.5476340126806392</v>
+      </c>
+      <c r="N4">
+        <v>1.729296701785003</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9657850464326145</v>
+        <v>1.538664494764134</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01216539395412042</v>
+        <v>0.2082042384448215</v>
       </c>
       <c r="E5">
-        <v>0.01711407969419465</v>
+        <v>0.1823676119810429</v>
       </c>
       <c r="F5">
-        <v>1.634773526488502</v>
+        <v>3.037850340445829</v>
       </c>
       <c r="G5">
-        <v>0.4244260749375712</v>
+        <v>0.0008394919308341106</v>
       </c>
       <c r="H5">
-        <v>0.8726335541298766</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1622210538511304</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.008637996163699313</v>
+        <v>0.2277659452120773</v>
       </c>
       <c r="K5">
-        <v>2.636229797685459</v>
+        <v>1.409056637427838</v>
       </c>
       <c r="L5">
-        <v>1.468375024316202</v>
+        <v>0.7492195054114177</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5285822418791994</v>
+      </c>
+      <c r="N5">
+        <v>1.745662917026401</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9587636012107055</v>
+        <v>1.53032316844093</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01204563846323126</v>
+        <v>0.2065636259522279</v>
       </c>
       <c r="E6">
-        <v>0.01711098864715854</v>
+        <v>0.1810127917807449</v>
       </c>
       <c r="F6">
-        <v>1.623705094561913</v>
+        <v>3.027698334263619</v>
       </c>
       <c r="G6">
-        <v>0.4212980224913281</v>
+        <v>0.0008400247244437679</v>
       </c>
       <c r="H6">
-        <v>0.8669187052643821</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1634118767889374</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.008682016293069195</v>
+        <v>0.226350418024758</v>
       </c>
       <c r="K6">
-        <v>2.616665466701207</v>
+        <v>1.399044847967318</v>
       </c>
       <c r="L6">
-        <v>1.457251523260865</v>
+        <v>0.7443137745217143</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5254345771903388</v>
+      </c>
+      <c r="N6">
+        <v>1.748410706220845</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.007546970510617</v>
+        <v>1.588471183630077</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01289084082326042</v>
+        <v>0.2180059980486675</v>
       </c>
       <c r="E7">
-        <v>0.01713429937158928</v>
+        <v>0.1904472079513368</v>
       </c>
       <c r="F7">
-        <v>1.701163858928695</v>
+        <v>3.098807874120638</v>
       </c>
       <c r="G7">
-        <v>0.443180596256525</v>
+        <v>0.0008363434923651928</v>
       </c>
       <c r="H7">
-        <v>0.9069389493943589</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1552628310568682</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.008380210967004365</v>
+        <v>0.2361991821413199</v>
       </c>
       <c r="K7">
-        <v>2.752712569472052</v>
+        <v>1.468802218772339</v>
       </c>
       <c r="L7">
-        <v>1.534659711818506</v>
+        <v>0.7785092994495528</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.5473759875420683</v>
+      </c>
+      <c r="N7">
+        <v>1.729515384002376</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.224241612248477</v>
+        <v>1.851880453699891</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0170157705527707</v>
+        <v>0.2700570525949217</v>
       </c>
       <c r="E8">
-        <v>0.01728419967484029</v>
+        <v>0.2329711338764255</v>
       </c>
       <c r="F8">
-        <v>2.060524795562799</v>
+        <v>3.429971843131966</v>
       </c>
       <c r="G8">
-        <v>0.5445054028562737</v>
+        <v>0.0008204952258491021</v>
       </c>
       <c r="H8">
-        <v>1.093330842448438</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1223525824320539</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.007143668146484261</v>
+        <v>0.2803658260788353</v>
       </c>
       <c r="K8">
-        <v>3.360454282509892</v>
+        <v>1.7840432733623</v>
       </c>
       <c r="L8">
-        <v>1.882040671691627</v>
+        <v>0.9334205109196887</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.6467615829056257</v>
+      </c>
+      <c r="N8">
+        <v>1.65068513054517</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.65725009327798</v>
+        <v>2.399830030156465</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02709551752780825</v>
+        <v>0.3800226577145907</v>
       </c>
       <c r="E9">
-        <v>0.01776232359756591</v>
+        <v>0.3211134169212073</v>
       </c>
       <c r="F9">
-        <v>2.849954384669957</v>
+        <v>4.157903505139245</v>
       </c>
       <c r="G9">
-        <v>0.7664492290225411</v>
+        <v>0.0007905876651427134</v>
       </c>
       <c r="H9">
-        <v>1.505969145277021</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.07059982651961061</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.005089195186321893</v>
+        <v>0.37092997063084</v>
       </c>
       <c r="K9">
-        <v>4.592716283668722</v>
+        <v>2.438568629401274</v>
       </c>
       <c r="L9">
-        <v>2.5939645735195</v>
+        <v>1.256540875852636</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.8537209380940851</v>
+      </c>
+      <c r="N9">
+        <v>1.514247196724</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.983695871063929</v>
+        <v>2.829393591853886</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03640325173068959</v>
+        <v>0.4682955904110031</v>
       </c>
       <c r="E10">
-        <v>0.01824799364729479</v>
+        <v>0.3905733197022911</v>
       </c>
       <c r="F10">
-        <v>3.50698564485657</v>
+        <v>4.758966667910471</v>
       </c>
       <c r="G10">
-        <v>0.9508867964230916</v>
+        <v>0.0007690398642428153</v>
       </c>
       <c r="H10">
-        <v>1.851883776645778</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.04244110326258443</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.003835287490514094</v>
+        <v>0.4415302347661054</v>
       </c>
       <c r="K10">
-        <v>5.539121187051251</v>
+        <v>2.952730461495065</v>
       </c>
       <c r="L10">
-        <v>3.14737914249919</v>
+        <v>1.511380975508132</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.016387285466557</v>
+      </c>
+      <c r="N10">
+        <v>1.427098987044658</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.134940000494851</v>
+        <v>3.032803332818219</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04125274612916741</v>
+        <v>0.5108268021205618</v>
       </c>
       <c r="E11">
-        <v>0.01850579372003391</v>
+        <v>0.4237001957240807</v>
       </c>
       <c r="F11">
-        <v>3.829830834947472</v>
+        <v>5.05184908682827</v>
       </c>
       <c r="G11">
-        <v>1.041484832900437</v>
+        <v>0.0007592504866072743</v>
       </c>
       <c r="H11">
-        <v>2.022524573017378</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03234351714399786</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.003327893367424783</v>
+        <v>0.4749949568491729</v>
       </c>
       <c r="K11">
-        <v>5.983230337464221</v>
+        <v>3.196937327854044</v>
       </c>
       <c r="L11">
-        <v>3.409043556560022</v>
+        <v>1.63266491043467</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.093585992165863</v>
+      </c>
+      <c r="N11">
+        <v>1.39085294010583</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.192701143401905</v>
+        <v>3.111195398324128</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0431996356749238</v>
+        <v>0.527352061931623</v>
       </c>
       <c r="E12">
-        <v>0.01860966135733388</v>
+        <v>0.4365173108281581</v>
       </c>
       <c r="F12">
-        <v>3.956293687637469</v>
+        <v>5.166072662669137</v>
       </c>
       <c r="G12">
-        <v>1.076972525035004</v>
+        <v>0.0007555372623475326</v>
       </c>
       <c r="H12">
-        <v>2.089475504418672</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.02896887356477329</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.003145544280053203</v>
+        <v>0.4879095978827621</v>
       </c>
       <c r="K12">
-        <v>6.153846272841236</v>
+        <v>3.291211219942028</v>
       </c>
       <c r="L12">
-        <v>3.509904015671566</v>
+        <v>1.679522983253776</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.123370596904465</v>
+      </c>
+      <c r="N12">
+        <v>1.3776735118727</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.180237842583779</v>
+        <v>3.09424770150423</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04277501529415417</v>
+        <v>0.523772972623135</v>
       </c>
       <c r="E13">
-        <v>0.01858699524936203</v>
+        <v>0.4337438293790967</v>
       </c>
       <c r="F13">
-        <v>3.928856501197686</v>
+        <v>5.141315809714939</v>
       </c>
       <c r="G13">
-        <v>1.069273144521645</v>
+        <v>0.0007563373920679815</v>
       </c>
       <c r="H13">
-        <v>2.074944910814253</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.02967462279507593</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.003184368423756911</v>
+        <v>0.4851165444443382</v>
       </c>
       <c r="K13">
-        <v>6.116983568547823</v>
+        <v>3.270822000807499</v>
       </c>
       <c r="L13">
-        <v>3.488096645018686</v>
+        <v>1.66938698594501</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.116929806704832</v>
+      </c>
+      <c r="N13">
+        <v>1.380486614760812</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.139681656894652</v>
+        <v>3.039223963758957</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04141055823043871</v>
+        <v>0.5121774311459717</v>
       </c>
       <c r="E14">
-        <v>0.01851420723727859</v>
+        <v>0.4247488611505474</v>
       </c>
       <c r="F14">
-        <v>3.840145693996021</v>
+        <v>5.061176566754369</v>
       </c>
       <c r="G14">
-        <v>1.044379357388777</v>
+        <v>0.0007589451732290628</v>
       </c>
       <c r="H14">
-        <v>2.027983151980706</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.03205650258083903</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.003312690693604514</v>
+        <v>0.476052283554111</v>
       </c>
       <c r="K14">
-        <v>5.997214906918884</v>
+        <v>3.20465523814957</v>
       </c>
       <c r="L14">
-        <v>3.417303588926075</v>
+        <v>1.636500274625405</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.096024762807858</v>
+      </c>
+      <c r="N14">
+        <v>1.389757346860875</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.114906500157872</v>
+        <v>3.005705167199551</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04058992212280543</v>
+        <v>0.5051320612342067</v>
       </c>
       <c r="E15">
-        <v>0.01847046926873919</v>
+        <v>0.419276446462753</v>
       </c>
       <c r="F15">
-        <v>3.786381320977029</v>
+        <v>5.012537759798164</v>
       </c>
       <c r="G15">
-        <v>1.029292152042217</v>
+        <v>0.0007605414422959445</v>
       </c>
       <c r="H15">
-        <v>1.999535681984597</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03357590906283114</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.00339258990956659</v>
+        <v>0.470533319609757</v>
       </c>
       <c r="K15">
-        <v>5.924187377987465</v>
+        <v>3.16437073571376</v>
       </c>
       <c r="L15">
-        <v>3.37418343312541</v>
+        <v>1.616482675518171</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.083294578204942</v>
+      </c>
+      <c r="N15">
+        <v>1.395508953635499</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.973874533454847</v>
+        <v>2.816278769923315</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03610047283832074</v>
+        <v>0.4655701949096169</v>
       </c>
       <c r="E16">
-        <v>0.01823196114448056</v>
+        <v>0.3884434467471038</v>
       </c>
       <c r="F16">
-        <v>3.486430636596992</v>
+        <v>4.740259705094559</v>
       </c>
       <c r="G16">
-        <v>0.9451182741321134</v>
+        <v>0.0007696792271741296</v>
       </c>
       <c r="H16">
-        <v>1.84103339244426</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.04316037623028812</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.003869775182032242</v>
+        <v>0.439374285981927</v>
       </c>
       <c r="K16">
-        <v>5.510410364302288</v>
+        <v>2.937004080492599</v>
       </c>
       <c r="L16">
-        <v>3.130506351203834</v>
+        <v>1.503575582593243</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.011413971769613</v>
+      </c>
+      <c r="N16">
+        <v>1.429540812047136</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.888119941005868</v>
+        <v>2.702261989831584</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03351804280952564</v>
+        <v>0.4419594717156485</v>
       </c>
       <c r="E17">
-        <v>0.01809566271536767</v>
+        <v>0.3699544254087854</v>
       </c>
       <c r="F17">
-        <v>3.309050788893813</v>
+        <v>4.578548247210222</v>
       </c>
       <c r="G17">
-        <v>0.8953359494640125</v>
+        <v>0.0007752829763931811</v>
       </c>
       <c r="H17">
-        <v>1.747472877349963</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.04977339101043299</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.004179143575939293</v>
+        <v>0.420636050205303</v>
       </c>
       <c r="K17">
-        <v>5.260367001047769</v>
+        <v>2.800369416546431</v>
       </c>
       <c r="L17">
-        <v>2.983782891066738</v>
+        <v>1.43578740019899</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9681969901413012</v>
+      </c>
+      <c r="N17">
+        <v>1.451326348604198</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.839047759299547</v>
+        <v>2.637420604427462</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03208903815852082</v>
+        <v>0.4285973121382654</v>
       </c>
       <c r="E18">
-        <v>0.01802066566125315</v>
+        <v>0.3594602571894256</v>
       </c>
       <c r="F18">
-        <v>3.209227644642937</v>
+        <v>4.487331353902363</v>
       </c>
       <c r="G18">
-        <v>0.8673173867597086</v>
+        <v>0.000778507871309107</v>
       </c>
       <c r="H18">
-        <v>1.694879591922117</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.05382816310134064</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.004362966837239135</v>
+        <v>0.4099818198109944</v>
       </c>
       <c r="K18">
-        <v>5.117792835945039</v>
+        <v>2.722729418745928</v>
       </c>
       <c r="L18">
-        <v>2.900299886625973</v>
+        <v>1.397290374659008</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9436347082383207</v>
+      </c>
+      <c r="N18">
+        <v>1.464172667722636</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.822473384359796</v>
+        <v>2.615587237079978</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03161428932445531</v>
+        <v>0.4241084423163386</v>
       </c>
       <c r="E19">
-        <v>0.01799583280182837</v>
+        <v>0.3559297548267182</v>
       </c>
       <c r="F19">
-        <v>3.175786583206275</v>
+        <v>4.456740961160563</v>
       </c>
       <c r="G19">
-        <v>0.8579305088375548</v>
+        <v>0.0007796002901979332</v>
       </c>
       <c r="H19">
-        <v>1.677270528356374</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.05524254904525971</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.004426195821429779</v>
+        <v>0.4063943717754768</v>
       </c>
       <c r="K19">
-        <v>5.069720114982886</v>
+        <v>2.696596114999622</v>
       </c>
       <c r="L19">
-        <v>2.872180553632745</v>
+        <v>1.384336200013564</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9353664995680759</v>
+      </c>
+      <c r="N19">
+        <v>1.468574871421183</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.897221999136207</v>
+        <v>2.714321447810221</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03378697276703235</v>
+        <v>0.4444497844216073</v>
       </c>
       <c r="E20">
-        <v>0.01810981438089243</v>
+        <v>0.3719077511742483</v>
       </c>
       <c r="F20">
-        <v>3.327700359943208</v>
+        <v>4.595573457771621</v>
       </c>
       <c r="G20">
-        <v>0.9005702947373351</v>
+        <v>0.0007746863183926145</v>
       </c>
       <c r="H20">
-        <v>1.75730348470897</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.04904303937125931</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.004145596944185703</v>
+        <v>0.4226176649337674</v>
       </c>
       <c r="K20">
-        <v>5.286852567632621</v>
+        <v>2.814814132391803</v>
       </c>
       <c r="L20">
-        <v>2.999305542531829</v>
+        <v>1.44295148414551</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9727663762687939</v>
+      </c>
+      <c r="N20">
+        <v>1.448974167532867</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.151579902521576</v>
+        <v>3.055346810461856</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0418081314709724</v>
+        <v>0.5155712326387061</v>
       </c>
       <c r="E21">
-        <v>0.01853540819862243</v>
+        <v>0.4273830257319275</v>
       </c>
       <c r="F21">
-        <v>3.866081072116316</v>
+        <v>5.084620809971483</v>
       </c>
       <c r="G21">
-        <v>1.051657264642245</v>
+        <v>0.0007581794447418976</v>
       </c>
       <c r="H21">
-        <v>2.041709804017103</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.03134416949600638</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.003274727374583675</v>
+        <v>0.4787076657744223</v>
       </c>
       <c r="K21">
-        <v>6.032323185774317</v>
+        <v>3.224038404985151</v>
       </c>
       <c r="L21">
-        <v>3.438045927712864</v>
+        <v>1.646133213280649</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.102149314522499</v>
+      </c>
+      <c r="N21">
+        <v>1.387018973504638</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.320720964526004</v>
+        <v>3.286313931556549</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04770889293218517</v>
+        <v>0.5645477171338484</v>
       </c>
       <c r="E22">
-        <v>0.01885065969203659</v>
+        <v>0.4652617044461209</v>
       </c>
       <c r="F22">
-        <v>4.242959630450144</v>
+        <v>5.42388249014914</v>
       </c>
       <c r="G22">
-        <v>1.157418887971374</v>
+        <v>0.00074735019163465</v>
       </c>
       <c r="H22">
-        <v>2.241453854866975</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.0224310580454663</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.002763034205949033</v>
+        <v>0.5168081335721553</v>
       </c>
       <c r="K22">
-        <v>6.534071690251636</v>
+        <v>3.502164131706991</v>
       </c>
       <c r="L22">
-        <v>3.735348709745892</v>
+        <v>1.784446239263843</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.189976281413962</v>
+      </c>
+      <c r="N22">
+        <v>1.349746109475277</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.230145582103148</v>
+        <v>3.162220732520325</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04449053130363012</v>
+        <v>0.5381495954016771</v>
       </c>
       <c r="E23">
-        <v>0.01867860405789301</v>
+        <v>0.4448762526710013</v>
       </c>
       <c r="F23">
-        <v>4.039224749514943</v>
+        <v>5.240816884969547</v>
       </c>
       <c r="G23">
-        <v>1.100244690448761</v>
+        <v>0.0007531368043445036</v>
       </c>
       <c r="H23">
-        <v>2.133412028473856</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.02692256878931421</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.003030610721225235</v>
+        <v>0.4963224703728457</v>
       </c>
       <c r="K23">
-        <v>6.264757916540617</v>
+        <v>3.352625592805879</v>
       </c>
       <c r="L23">
-        <v>3.575570112901119</v>
+        <v>1.71005919526948</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.142767687171101</v>
+      </c>
+      <c r="N23">
+        <v>1.36932290339422</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.893106251367584</v>
+        <v>2.708867176128877</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03366521772444031</v>
+        <v>0.4433232595165748</v>
       </c>
       <c r="E24">
-        <v>0.01810340600518501</v>
+        <v>0.3710242346432651</v>
       </c>
       <c r="F24">
-        <v>3.319262232194632</v>
+        <v>4.587870937097676</v>
       </c>
       <c r="G24">
-        <v>0.898201988017604</v>
+        <v>0.0007749560568104056</v>
       </c>
       <c r="H24">
-        <v>1.752855372813826</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.04937244804785212</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.004160744856121168</v>
+        <v>0.4217214109256417</v>
       </c>
       <c r="K24">
-        <v>5.274874805755815</v>
+        <v>2.808280855271235</v>
       </c>
       <c r="L24">
-        <v>2.992285066375672</v>
+        <v>1.439711133019671</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9706996796578196</v>
+      </c>
+      <c r="N24">
+        <v>1.450036591321734</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.538925965798313</v>
+        <v>2.247492145638148</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0240924919655825</v>
+        <v>0.3491800513472896</v>
       </c>
       <c r="E25">
-        <v>0.01761138877657853</v>
+        <v>0.2965915409902991</v>
       </c>
       <c r="F25">
-        <v>2.624965403126851</v>
+        <v>3.950843937909667</v>
       </c>
       <c r="G25">
-        <v>0.7032504743298063</v>
+        <v>0.0007985802872976226</v>
       </c>
       <c r="H25">
-        <v>1.387993735865805</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.08303709066601517</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.005602453596441404</v>
+        <v>0.3458526952384631</v>
       </c>
       <c r="K25">
-        <v>4.253500767735829</v>
+        <v>2.256567099559049</v>
       </c>
       <c r="L25">
-        <v>2.397001616445593</v>
+        <v>1.166527227854118</v>
       </c>
       <c r="M25">
+        <v>0.7961344669680344</v>
+      </c>
+      <c r="N25">
+        <v>1.549023560152207</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.925123417339023</v>
+        <v>1.64962766391352</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2846100804279246</v>
+        <v>0.1845851300791708</v>
       </c>
       <c r="E2">
-        <v>0.2447576239496527</v>
+        <v>0.2584388839073881</v>
       </c>
       <c r="F2">
-        <v>3.524425711973691</v>
+        <v>1.381830661596368</v>
       </c>
       <c r="G2">
-        <v>0.0008162896468646685</v>
+        <v>1.548296239773549</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.869504728740111</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3521715174716107</v>
       </c>
       <c r="J2">
-        <v>0.2925481245696773</v>
+        <v>0.3824863911031571</v>
       </c>
       <c r="K2">
-        <v>1.871561478066013</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9765220113020803</v>
+        <v>1.028945310806535</v>
       </c>
       <c r="M2">
-        <v>0.6744019404532224</v>
+        <v>0.6402176061022118</v>
       </c>
       <c r="N2">
-        <v>1.630489228206216</v>
+        <v>1.022830337813446</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.714890664947177</v>
+        <v>1.442906876162539</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2429366823667323</v>
+        <v>0.1660113751006094</v>
       </c>
       <c r="E3">
-        <v>0.2108906726548838</v>
+        <v>0.2331046979960476</v>
       </c>
       <c r="F3">
-        <v>3.255992431730505</v>
+        <v>1.26766986975835</v>
       </c>
       <c r="G3">
-        <v>0.0008285827286417539</v>
+        <v>1.379071101753198</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.7984080833327596</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3721253201683652</v>
       </c>
       <c r="J3">
-        <v>0.2574762949524967</v>
+        <v>0.345339137719165</v>
       </c>
       <c r="K3">
-        <v>1.620222052637288</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8528461678532722</v>
+        <v>0.8949940480941905</v>
       </c>
       <c r="M3">
-        <v>0.5950735298445338</v>
+        <v>0.5584887243867556</v>
       </c>
       <c r="N3">
-        <v>1.690388832770871</v>
+        <v>1.046427772604687</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.589155026662553</v>
+        <v>1.316790044821317</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2181406465920617</v>
+        <v>0.1547109991171922</v>
       </c>
       <c r="E4">
-        <v>0.1905580268287395</v>
+        <v>0.2176241180164453</v>
       </c>
       <c r="F4">
-        <v>3.099648782610785</v>
+        <v>1.20069237394442</v>
       </c>
       <c r="G4">
-        <v>0.0008363006448224297</v>
+        <v>1.27857998437571</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.756622746163174</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3853750923781512</v>
       </c>
       <c r="J4">
-        <v>0.2363147532090792</v>
+        <v>0.3226035887653609</v>
       </c>
       <c r="K4">
-        <v>1.469622123230309</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7789114220653914</v>
+        <v>0.8135435104566682</v>
       </c>
       <c r="M4">
-        <v>0.5476340126806392</v>
+        <v>0.5087013769851367</v>
       </c>
       <c r="N4">
-        <v>1.729296701785003</v>
+        <v>1.062130537981965</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.538664494764134</v>
+        <v>1.26557218849149</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2082042384448215</v>
+        <v>0.1501258523431162</v>
       </c>
       <c r="E5">
-        <v>0.1823676119810429</v>
+        <v>0.2113287221744216</v>
       </c>
       <c r="F5">
-        <v>3.037850340445829</v>
+        <v>1.174118309399887</v>
       </c>
       <c r="G5">
-        <v>0.0008394919308341106</v>
+        <v>1.238404576176322</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.7400259560450593</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3910153330920565</v>
       </c>
       <c r="J5">
-        <v>0.2277659452120773</v>
+        <v>0.3133503105992617</v>
       </c>
       <c r="K5">
-        <v>1.409056637427838</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7492195054114177</v>
+        <v>0.7805235591680741</v>
       </c>
       <c r="M5">
-        <v>0.5285822418791994</v>
+        <v>0.4884979897833901</v>
       </c>
       <c r="N5">
-        <v>1.745662917026401</v>
+        <v>1.068827036654859</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.53032316844093</v>
+        <v>1.257077338034975</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2065636259522279</v>
+        <v>0.1493655171556227</v>
       </c>
       <c r="E6">
-        <v>0.1810127917807449</v>
+        <v>0.2102840077493795</v>
       </c>
       <c r="F6">
-        <v>3.027698334263619</v>
+        <v>1.169747391593404</v>
       </c>
       <c r="G6">
-        <v>0.0008400247244437679</v>
+        <v>1.231778011555804</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.7372950288395543</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3919661533539625</v>
       </c>
       <c r="J6">
-        <v>0.226350418024758</v>
+        <v>0.3118143286054789</v>
       </c>
       <c r="K6">
-        <v>1.399044847967318</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7443137745217143</v>
+        <v>0.7750502099212326</v>
       </c>
       <c r="M6">
-        <v>0.5254345771903388</v>
+        <v>0.4851480033575442</v>
       </c>
       <c r="N6">
-        <v>1.748410706220845</v>
+        <v>1.069956736148384</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.588471183630077</v>
+        <v>1.316098626768195</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2180059980486675</v>
+        <v>0.1546490897897499</v>
       </c>
       <c r="E7">
-        <v>0.1904472079513368</v>
+        <v>0.2175391704058249</v>
       </c>
       <c r="F7">
-        <v>3.098807874120638</v>
+        <v>1.200331153807696</v>
       </c>
       <c r="G7">
-        <v>0.0008363434923651928</v>
+        <v>1.278035129813816</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.7563972197668818</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3854501963604218</v>
       </c>
       <c r="J7">
-        <v>0.2361991821413199</v>
+        <v>0.3224787571378869</v>
       </c>
       <c r="K7">
-        <v>1.468802218772339</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7785092994495528</v>
+        <v>0.8130975321322467</v>
       </c>
       <c r="M7">
-        <v>0.5473759875420683</v>
+        <v>0.5084285789585792</v>
       </c>
       <c r="N7">
-        <v>1.729515384002376</v>
+        <v>1.062219654623171</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.851880453699891</v>
+        <v>1.578164507912334</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2700570525949217</v>
+        <v>0.1781553445075872</v>
       </c>
       <c r="E8">
-        <v>0.2329711338764255</v>
+        <v>0.2496845407350676</v>
       </c>
       <c r="F8">
-        <v>3.429971843131966</v>
+        <v>1.341780828697225</v>
       </c>
       <c r="G8">
-        <v>0.0008204952258491021</v>
+        <v>1.489187006577964</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.8445786082918971</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3588381594071031</v>
       </c>
       <c r="J8">
-        <v>0.2803658260788353</v>
+        <v>0.3696586236589781</v>
       </c>
       <c r="K8">
-        <v>1.7840432733623</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9334205109196887</v>
+        <v>0.9825758697825222</v>
       </c>
       <c r="M8">
-        <v>0.6467615829056257</v>
+        <v>0.6119469183104371</v>
       </c>
       <c r="N8">
-        <v>1.65068513054517</v>
+        <v>1.030709992290788</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.399830030156465</v>
+        <v>2.099908636449754</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3800226577145907</v>
+        <v>0.225393604988426</v>
       </c>
       <c r="E9">
-        <v>0.3211134169212073</v>
+        <v>0.313603402742487</v>
       </c>
       <c r="F9">
-        <v>4.157903505139245</v>
+        <v>1.647062926217401</v>
       </c>
       <c r="G9">
-        <v>0.0007905876651427134</v>
+        <v>1.934437170361548</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.0342392160901</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3150595529395233</v>
       </c>
       <c r="J9">
-        <v>0.37092997063084</v>
+        <v>0.4630978179583849</v>
       </c>
       <c r="K9">
-        <v>2.438568629401274</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.256540875852636</v>
+        <v>1.322656936640442</v>
       </c>
       <c r="M9">
-        <v>0.8537209380940851</v>
+        <v>0.8187679918775785</v>
       </c>
       <c r="N9">
-        <v>1.514247196724</v>
+        <v>0.9789244624802009</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.829393591853886</v>
+        <v>2.490185505745274</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4682955904110031</v>
+        <v>0.2612963532096018</v>
       </c>
       <c r="E10">
-        <v>0.3905733197022911</v>
+        <v>0.361558300691442</v>
       </c>
       <c r="F10">
-        <v>4.758966667910471</v>
+        <v>1.893219444546759</v>
       </c>
       <c r="G10">
-        <v>0.0007690398642428153</v>
+        <v>2.286878802671509</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.186733057596882</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2887547727099609</v>
       </c>
       <c r="J10">
-        <v>0.4415302347661054</v>
+        <v>0.5328458906452482</v>
       </c>
       <c r="K10">
-        <v>2.952730461495065</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.511380975508132</v>
+        <v>1.579436189948638</v>
       </c>
       <c r="M10">
-        <v>1.016387285466557</v>
+        <v>0.974123731027305</v>
       </c>
       <c r="N10">
-        <v>1.427098987044658</v>
+        <v>0.9475354791592849</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.032803332818219</v>
+        <v>2.669787293528316</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5108268021205618</v>
+        <v>0.2780193303737377</v>
       </c>
       <c r="E11">
-        <v>0.4237001957240807</v>
+        <v>0.3837082123193269</v>
       </c>
       <c r="F11">
-        <v>5.05184908682827</v>
+        <v>2.011172444154184</v>
       </c>
       <c r="G11">
-        <v>0.0007592504866072743</v>
+        <v>2.454302861032261</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.259705921396545</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2782412152395999</v>
       </c>
       <c r="J11">
-        <v>0.4749949568491729</v>
+        <v>0.5649537342682578</v>
       </c>
       <c r="K11">
-        <v>3.196937327854044</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.63266491043467</v>
+        <v>1.698314795094973</v>
       </c>
       <c r="M11">
-        <v>1.093585992165863</v>
+        <v>1.045809309716851</v>
       </c>
       <c r="N11">
-        <v>1.39085294010583</v>
+        <v>0.9348375557311357</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.111195398324128</v>
+        <v>2.738144813811118</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.527352061931623</v>
+        <v>0.2844206328789909</v>
       </c>
       <c r="E12">
-        <v>0.4365173108281581</v>
+        <v>0.3921553382743426</v>
       </c>
       <c r="F12">
-        <v>5.166072662669137</v>
+        <v>2.056812538806483</v>
       </c>
       <c r="G12">
-        <v>0.0007555372623475326</v>
+        <v>2.518872846865065</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.287927206370597</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.274485784178836</v>
       </c>
       <c r="J12">
-        <v>0.4879095978827621</v>
+        <v>0.5771799673801041</v>
       </c>
       <c r="K12">
-        <v>3.291211219942028</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.679522983253776</v>
+        <v>1.743681220070044</v>
       </c>
       <c r="M12">
-        <v>1.123370596904465</v>
+        <v>1.073125803633189</v>
       </c>
       <c r="N12">
-        <v>1.3776735118727</v>
+        <v>0.9302690694537574</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.09424770150423</v>
+        <v>2.723406552119116</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.523772972623135</v>
+        <v>0.2830387259198943</v>
       </c>
       <c r="E13">
-        <v>0.4337438293790967</v>
+        <v>0.3903332593138558</v>
       </c>
       <c r="F13">
-        <v>5.141315809714939</v>
+        <v>2.046937848330415</v>
       </c>
       <c r="G13">
-        <v>0.0007563373920679815</v>
+        <v>2.504911931432474</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.281821891353815</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2752842518036509</v>
       </c>
       <c r="J13">
-        <v>0.4851165444443382</v>
+        <v>0.5745435899021771</v>
       </c>
       <c r="K13">
-        <v>3.270822000807499</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.66938698594501</v>
+        <v>1.733894297200635</v>
       </c>
       <c r="M13">
-        <v>1.116929806704832</v>
+        <v>1.067234686094118</v>
       </c>
       <c r="N13">
-        <v>1.380486614760812</v>
+        <v>0.9312420912920345</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.039223963758957</v>
+        <v>2.675403865558962</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5121774311459717</v>
+        <v>0.2785445152954225</v>
       </c>
       <c r="E14">
-        <v>0.4247488611505474</v>
+        <v>0.3844019013031499</v>
       </c>
       <c r="F14">
-        <v>5.061176566754369</v>
+        <v>2.014907061126408</v>
       </c>
       <c r="G14">
-        <v>0.0007589451732290628</v>
+        <v>2.459590701679303</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.262015487986218</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2779276247011992</v>
       </c>
       <c r="J14">
-        <v>0.476052283554111</v>
+        <v>0.5659581554241839</v>
       </c>
       <c r="K14">
-        <v>3.20465523814957</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.636500274625405</v>
+        <v>1.702039788453334</v>
       </c>
       <c r="M14">
-        <v>1.096024762807858</v>
+        <v>1.048053079179873</v>
       </c>
       <c r="N14">
-        <v>1.389757346860875</v>
+        <v>0.9344568188998181</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.005705167199551</v>
+        <v>2.646047486736563</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5051320612342067</v>
+        <v>0.2758010252076559</v>
       </c>
       <c r="E15">
-        <v>0.419276446462753</v>
+        <v>0.3807768737806683</v>
       </c>
       <c r="F15">
-        <v>5.012537759798164</v>
+        <v>1.995417729615994</v>
       </c>
       <c r="G15">
-        <v>0.0007605414422959445</v>
+        <v>2.431987264912465</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.2499622916921</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.279576707665754</v>
       </c>
       <c r="J15">
-        <v>0.470533319609757</v>
+        <v>0.5607085652684276</v>
       </c>
       <c r="K15">
-        <v>3.16437073571376</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.616482675518171</v>
+        <v>1.682575177708088</v>
       </c>
       <c r="M15">
-        <v>1.083294578204942</v>
+        <v>1.036326814677864</v>
       </c>
       <c r="N15">
-        <v>1.395508953635499</v>
+        <v>0.9364575717128076</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.816278769923315</v>
+        <v>2.47849373363772</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4655701949096169</v>
+        <v>0.2602123583702109</v>
       </c>
       <c r="E16">
-        <v>0.3884434467471038</v>
+        <v>0.3601184216912401</v>
       </c>
       <c r="F16">
-        <v>4.740259705094559</v>
+        <v>1.885640680862821</v>
       </c>
       <c r="G16">
-        <v>0.0007696792271741296</v>
+        <v>2.276092450824223</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.182042404312455</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2894724991245319</v>
       </c>
       <c r="J16">
-        <v>0.439374285981927</v>
+        <v>0.5307562829605388</v>
       </c>
       <c r="K16">
-        <v>2.937004080492599</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.503575582593243</v>
+        <v>1.571713141542233</v>
       </c>
       <c r="M16">
-        <v>1.011413971769613</v>
+        <v>0.9694613750802361</v>
       </c>
       <c r="N16">
-        <v>1.429540812047136</v>
+        <v>0.9483981853444874</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.702261989831584</v>
+        <v>2.376266904466661</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4419594717156485</v>
+        <v>0.2507576431301146</v>
       </c>
       <c r="E17">
-        <v>0.3699544254087854</v>
+        <v>0.3475384825228858</v>
       </c>
       <c r="F17">
-        <v>4.578548247210222</v>
+        <v>1.819903978514802</v>
       </c>
       <c r="G17">
-        <v>0.0007752829763931811</v>
+        <v>2.18237480702399</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.141345792326547</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2959268349750062</v>
       </c>
       <c r="J17">
-        <v>0.420636050205303</v>
+        <v>0.5124874637654671</v>
       </c>
       <c r="K17">
-        <v>2.800369416546431</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.43578740019899</v>
+        <v>1.504267914514173</v>
       </c>
       <c r="M17">
-        <v>0.9681969901413012</v>
+        <v>0.9287180699682054</v>
       </c>
       <c r="N17">
-        <v>1.451326348604198</v>
+        <v>0.956136941745541</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.637420604427462</v>
+        <v>2.317659635033124</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4285973121382654</v>
+        <v>0.2453554682712422</v>
       </c>
       <c r="E18">
-        <v>0.3594602571894256</v>
+        <v>0.3403336078776391</v>
       </c>
       <c r="F18">
-        <v>4.487331353902363</v>
+        <v>1.782648795702642</v>
       </c>
       <c r="G18">
-        <v>0.000778507871309107</v>
+        <v>2.129128946563554</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.118272638448758</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2997748182543205</v>
       </c>
       <c r="J18">
-        <v>0.4099818198109944</v>
+        <v>0.5020145196591699</v>
       </c>
       <c r="K18">
-        <v>2.722729418745928</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.397290374659008</v>
+        <v>1.465666424023993</v>
       </c>
       <c r="M18">
-        <v>0.9436347082383207</v>
+        <v>0.9053773373672414</v>
       </c>
       <c r="N18">
-        <v>1.464172667722636</v>
+        <v>0.960736074659934</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.615587237079978</v>
+        <v>2.297847583166515</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4241084423163386</v>
+        <v>0.2435322013107424</v>
       </c>
       <c r="E19">
-        <v>0.3559297548267182</v>
+        <v>0.3378991272634977</v>
       </c>
       <c r="F19">
-        <v>4.456740961160563</v>
+        <v>1.770126837620495</v>
       </c>
       <c r="G19">
-        <v>0.0007796002901979332</v>
+        <v>2.111209549795319</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.110515905506389</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3011004827462216</v>
       </c>
       <c r="J19">
-        <v>0.4063943717754768</v>
+        <v>0.4984741635457368</v>
       </c>
       <c r="K19">
-        <v>2.696596114999622</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.384336200013564</v>
+        <v>1.45262797202767</v>
       </c>
       <c r="M19">
-        <v>0.9353664995680759</v>
+        <v>0.8974899503013489</v>
       </c>
       <c r="N19">
-        <v>1.468574871421183</v>
+        <v>0.9623183157207649</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.714321447810221</v>
+        <v>2.387129025505658</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4444497844216073</v>
+        <v>0.2517603101613446</v>
       </c>
       <c r="E20">
-        <v>0.3719077511742483</v>
+        <v>0.3488743767175109</v>
       </c>
       <c r="F20">
-        <v>4.595573457771621</v>
+        <v>1.826843550494104</v>
       </c>
       <c r="G20">
-        <v>0.0007746863183926145</v>
+        <v>2.192282075106732</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.145642919253163</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2952256063295344</v>
       </c>
       <c r="J20">
-        <v>0.4226176649337674</v>
+        <v>0.5144285194015197</v>
       </c>
       <c r="K20">
-        <v>2.814814132391803</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.44295148414551</v>
+        <v>1.51142742464495</v>
       </c>
       <c r="M20">
-        <v>0.9727663762687939</v>
+        <v>0.9330453907386413</v>
       </c>
       <c r="N20">
-        <v>1.448974167532867</v>
+        <v>0.9552977321877592</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.055346810461856</v>
+        <v>2.68949359950102</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5155712326387061</v>
+        <v>0.2798626018948767</v>
       </c>
       <c r="E21">
-        <v>0.4273830257319275</v>
+        <v>0.386142374487406</v>
       </c>
       <c r="F21">
-        <v>5.084620809971483</v>
+        <v>2.02428787054626</v>
       </c>
       <c r="G21">
-        <v>0.0007581794447418976</v>
+        <v>2.472869608503373</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.267816550727559</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2771449297184958</v>
       </c>
       <c r="J21">
-        <v>0.4787076657744223</v>
+        <v>0.5684779547352292</v>
       </c>
       <c r="K21">
-        <v>3.224038404985151</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.646133213280649</v>
+        <v>1.711386292062144</v>
       </c>
       <c r="M21">
-        <v>1.102149314522499</v>
+        <v>1.053682335274452</v>
       </c>
       <c r="N21">
-        <v>1.387018973504638</v>
+        <v>0.9335059578743312</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.286313931556549</v>
+        <v>2.889151461413917</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5645477171338484</v>
+        <v>0.2986364591562136</v>
       </c>
       <c r="E22">
-        <v>0.4652617044461209</v>
+        <v>0.4108519783413271</v>
       </c>
       <c r="F22">
-        <v>5.42388249014914</v>
+        <v>2.159068574787653</v>
       </c>
       <c r="G22">
-        <v>0.00074735019163465</v>
+        <v>2.663152794771406</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.35113029651194</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2666535734888456</v>
       </c>
       <c r="J22">
-        <v>0.5168081335721553</v>
+        <v>0.6042043802391817</v>
       </c>
       <c r="K22">
-        <v>3.502164131706991</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.784446239263843</v>
+        <v>1.844138114939739</v>
       </c>
       <c r="M22">
-        <v>1.189976281413962</v>
+        <v>1.133534402623425</v>
       </c>
       <c r="N22">
-        <v>1.349746109475277</v>
+        <v>0.9206689735124627</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.162220732520325</v>
+        <v>2.78238532521533</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5381495954016771</v>
+        <v>0.2885746271157075</v>
       </c>
       <c r="E23">
-        <v>0.4448762526710013</v>
+        <v>0.3976275811143779</v>
       </c>
       <c r="F23">
-        <v>5.240816884969547</v>
+        <v>2.08656700544428</v>
       </c>
       <c r="G23">
-        <v>0.0007531368043445036</v>
+        <v>2.560909288050794</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.306321691119791</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2721256798897578</v>
       </c>
       <c r="J23">
-        <v>0.4963224703728457</v>
+        <v>0.5850949009242754</v>
       </c>
       <c r="K23">
-        <v>3.352625592805879</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.71005919526948</v>
+        <v>1.773077874302146</v>
       </c>
       <c r="M23">
-        <v>1.142767687171101</v>
+        <v>1.090814510577452</v>
       </c>
       <c r="N23">
-        <v>1.36932290339422</v>
+        <v>0.9273872930690743</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.708867176128877</v>
+        <v>2.382217752516055</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4433232595165748</v>
+        <v>0.2513069010766174</v>
       </c>
       <c r="E24">
-        <v>0.3710242346432651</v>
+        <v>0.348270334127001</v>
       </c>
       <c r="F24">
-        <v>4.587870937097676</v>
+        <v>1.823704503614451</v>
       </c>
       <c r="G24">
-        <v>0.0007749560568104056</v>
+        <v>2.187801036581988</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.143699184572483</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2955422054025405</v>
       </c>
       <c r="J24">
-        <v>0.4217214109256417</v>
+        <v>0.513550875542407</v>
       </c>
       <c r="K24">
-        <v>2.808280855271235</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.439711133019671</v>
+        <v>1.508190073043039</v>
       </c>
       <c r="M24">
-        <v>0.9706996796578196</v>
+        <v>0.9310887519192903</v>
       </c>
       <c r="N24">
-        <v>1.450036591321734</v>
+        <v>0.9556766724931407</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.247492145638148</v>
+        <v>1.95771217168442</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3491800513472896</v>
+        <v>0.2124440245175805</v>
       </c>
       <c r="E25">
-        <v>0.2965915409902991</v>
+        <v>0.296173370492312</v>
       </c>
       <c r="F25">
-        <v>3.950843937909667</v>
+        <v>1.561016528135852</v>
       </c>
       <c r="G25">
-        <v>0.0007985802872976226</v>
+        <v>1.810034030760875</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.9808528285045952</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3259307914166634</v>
       </c>
       <c r="J25">
-        <v>0.3458526952384631</v>
+        <v>0.4376698281479037</v>
       </c>
       <c r="K25">
-        <v>2.256567099559049</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1.166527227854118</v>
+        <v>1.229613926683896</v>
       </c>
       <c r="M25">
-        <v>0.7961344669680344</v>
+        <v>0.762303759622398</v>
       </c>
       <c r="N25">
-        <v>1.549023560152207</v>
+        <v>0.9918077749889562</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.64962766391352</v>
+        <v>1.129710549422754</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1845851300791708</v>
+        <v>0.1439484244774292</v>
       </c>
       <c r="E2">
-        <v>0.2584388839073881</v>
+        <v>0.1709925828979948</v>
       </c>
       <c r="F2">
-        <v>1.381830661596368</v>
+        <v>1.913762155300162</v>
       </c>
       <c r="G2">
-        <v>1.548296239773549</v>
+        <v>1.424422803818146</v>
       </c>
       <c r="H2">
-        <v>0.869504728740111</v>
+        <v>1.253037334986175</v>
       </c>
       <c r="I2">
-        <v>0.3521715174716107</v>
+        <v>1.026254946460977</v>
       </c>
       <c r="J2">
-        <v>0.3824863911031571</v>
+        <v>0.2333503628092757</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.028945310806535</v>
+        <v>0.5719242724773324</v>
       </c>
       <c r="M2">
-        <v>0.6402176061022118</v>
+        <v>0.397124536698243</v>
       </c>
       <c r="N2">
-        <v>1.022830337813446</v>
+        <v>1.705392521894602</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.442906876162539</v>
+        <v>1.074200315205076</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1660113751006094</v>
+        <v>0.138153360017057</v>
       </c>
       <c r="E3">
-        <v>0.2331046979960476</v>
+        <v>0.1630573364092456</v>
       </c>
       <c r="F3">
-        <v>1.26766986975835</v>
+        <v>1.902138619123846</v>
       </c>
       <c r="G3">
-        <v>1.379071101753198</v>
+        <v>1.394602647724838</v>
       </c>
       <c r="H3">
-        <v>0.7984080833327596</v>
+        <v>1.245767170004882</v>
       </c>
       <c r="I3">
-        <v>0.3721253201683652</v>
+        <v>1.040115062785878</v>
       </c>
       <c r="J3">
-        <v>0.345339137719165</v>
+        <v>0.2216599351786499</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8949940480941905</v>
+        <v>0.5369131452780209</v>
       </c>
       <c r="M3">
-        <v>0.5584887243867556</v>
+        <v>0.3754618069485787</v>
       </c>
       <c r="N3">
-        <v>1.046427772604687</v>
+        <v>1.71702300785995</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.316790044821317</v>
+        <v>1.040463292841736</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1547109991171922</v>
+        <v>0.1345519039550496</v>
       </c>
       <c r="E4">
-        <v>0.2176241180164453</v>
+        <v>0.1581391367878098</v>
       </c>
       <c r="F4">
-        <v>1.20069237394442</v>
+        <v>1.896237796578859</v>
       </c>
       <c r="G4">
-        <v>1.27857998437571</v>
+        <v>1.377362996401672</v>
       </c>
       <c r="H4">
-        <v>0.756622746163174</v>
+        <v>1.242062647602154</v>
       </c>
       <c r="I4">
-        <v>0.3853750923781512</v>
+        <v>1.04915934569064</v>
       </c>
       <c r="J4">
-        <v>0.3226035887653609</v>
+        <v>0.2144233159528284</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8135435104566682</v>
+        <v>0.5156206934085503</v>
       </c>
       <c r="M4">
-        <v>0.5087013769851367</v>
+        <v>0.3622924937205525</v>
       </c>
       <c r="N4">
-        <v>1.062130537981965</v>
+        <v>1.724786803803724</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.26557218849149</v>
+        <v>1.026803131409281</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1501258523431162</v>
+        <v>0.1330732933918881</v>
       </c>
       <c r="E5">
-        <v>0.2113287221744216</v>
+        <v>0.1561233434492664</v>
       </c>
       <c r="F5">
-        <v>1.174118309399887</v>
+        <v>1.894143248181621</v>
       </c>
       <c r="G5">
-        <v>1.238404576176322</v>
+        <v>1.370605587835797</v>
       </c>
       <c r="H5">
-        <v>0.7400259560450593</v>
+        <v>1.24074359113385</v>
       </c>
       <c r="I5">
-        <v>0.3910153330920565</v>
+        <v>1.052979143706674</v>
       </c>
       <c r="J5">
-        <v>0.3133503105992617</v>
+        <v>0.2114595995698068</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7805235591680741</v>
+        <v>0.5069953875702993</v>
       </c>
       <c r="M5">
-        <v>0.4884979897833901</v>
+        <v>0.3569592133494268</v>
       </c>
       <c r="N5">
-        <v>1.068827036654859</v>
+        <v>1.728107436477522</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.257077338034975</v>
+        <v>1.024540208268519</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1493655171556227</v>
+        <v>0.1328271044141971</v>
       </c>
       <c r="E6">
-        <v>0.2102840077493795</v>
+        <v>0.1557879215687414</v>
       </c>
       <c r="F6">
-        <v>1.169747391593404</v>
+        <v>1.893814156993983</v>
       </c>
       <c r="G6">
-        <v>1.231778011555804</v>
+        <v>1.369499670762906</v>
       </c>
       <c r="H6">
-        <v>0.7372950288395543</v>
+        <v>1.240536061329578</v>
       </c>
       <c r="I6">
-        <v>0.3919661533539625</v>
+        <v>1.05362151862067</v>
       </c>
       <c r="J6">
-        <v>0.3118143286054789</v>
+        <v>0.2109665871540329</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7750502099212326</v>
+        <v>0.5055662785304094</v>
       </c>
       <c r="M6">
-        <v>0.4851480033575442</v>
+        <v>0.3560756449197271</v>
       </c>
       <c r="N6">
-        <v>1.069956736148384</v>
+        <v>1.728668304403378</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.316098626768195</v>
+        <v>1.040278709935876</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1546490897897499</v>
+        <v>0.1345320075264524</v>
       </c>
       <c r="E7">
-        <v>0.2175391704058249</v>
+        <v>0.1581119980575139</v>
       </c>
       <c r="F7">
-        <v>1.200331153807696</v>
+        <v>1.896208294229424</v>
       </c>
       <c r="G7">
-        <v>1.278035129813816</v>
+        <v>1.377270780519325</v>
       </c>
       <c r="H7">
-        <v>0.7563972197668818</v>
+        <v>1.242044087271807</v>
       </c>
       <c r="I7">
-        <v>0.3854501963604218</v>
+        <v>1.049210317710255</v>
       </c>
       <c r="J7">
-        <v>0.3224787571378869</v>
+        <v>0.2143834058797438</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8130975321322467</v>
+        <v>0.5155041606778923</v>
       </c>
       <c r="M7">
-        <v>0.5084285789585792</v>
+        <v>0.3622204320435358</v>
       </c>
       <c r="N7">
-        <v>1.062219654623171</v>
+        <v>1.724830951707979</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.578164507912334</v>
+        <v>1.1104991800525</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1781553445075872</v>
+        <v>0.1419591982531898</v>
       </c>
       <c r="E8">
-        <v>0.2496845407350676</v>
+        <v>0.1682660163710139</v>
       </c>
       <c r="F8">
-        <v>1.341780828697225</v>
+        <v>1.909497358052349</v>
       </c>
       <c r="G8">
-        <v>1.489187006577964</v>
+        <v>1.413917999278709</v>
       </c>
       <c r="H8">
-        <v>0.8445786082918971</v>
+        <v>1.250372730427102</v>
       </c>
       <c r="I8">
-        <v>0.3588381594071031</v>
+        <v>1.030922982750308</v>
       </c>
       <c r="J8">
-        <v>0.3696586236589781</v>
+        <v>0.2293316800398202</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9825758697825222</v>
+        <v>0.5598100415368492</v>
       </c>
       <c r="M8">
-        <v>0.6119469183104371</v>
+        <v>0.3896280112354091</v>
       </c>
       <c r="N8">
-        <v>1.030709992290788</v>
+        <v>1.709273638701056</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.099908636449754</v>
+        <v>1.250922290934</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.225393604988426</v>
+        <v>0.1561861214397595</v>
       </c>
       <c r="E9">
-        <v>0.313603402742487</v>
+        <v>0.1878162413001832</v>
       </c>
       <c r="F9">
-        <v>1.647062926217401</v>
+        <v>1.945402487263976</v>
       </c>
       <c r="G9">
-        <v>1.934437170361548</v>
+        <v>1.494332703216458</v>
       </c>
       <c r="H9">
-        <v>1.0342392160901</v>
+        <v>1.272750868124007</v>
       </c>
       <c r="I9">
-        <v>0.3150595529395233</v>
+        <v>0.9993049111922403</v>
       </c>
       <c r="J9">
-        <v>0.4630978179583849</v>
+        <v>0.2581806622534515</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.322656936640442</v>
+        <v>0.6483167224948829</v>
       </c>
       <c r="M9">
-        <v>0.8187679918775785</v>
+        <v>0.4444131167562873</v>
       </c>
       <c r="N9">
-        <v>0.9789244624802009</v>
+        <v>1.683695194549585</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.490185505745274</v>
+        <v>1.355723670794134</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2612963532096018</v>
+        <v>0.1664411654595881</v>
       </c>
       <c r="E10">
-        <v>0.361558300691442</v>
+        <v>0.2019641710143461</v>
       </c>
       <c r="F10">
-        <v>1.893219444546759</v>
+        <v>1.977842360598999</v>
       </c>
       <c r="G10">
-        <v>2.286878802671509</v>
+        <v>1.558716158103863</v>
       </c>
       <c r="H10">
-        <v>1.186733057596882</v>
+        <v>1.292909830617958</v>
       </c>
       <c r="I10">
-        <v>0.2887547727099609</v>
+        <v>0.9786688003388342</v>
       </c>
       <c r="J10">
-        <v>0.5328458906452482</v>
+        <v>0.2790959494226541</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.579436189948638</v>
+        <v>0.7143398781350925</v>
       </c>
       <c r="M10">
-        <v>0.974123731027305</v>
+        <v>0.485293671741502</v>
       </c>
       <c r="N10">
-        <v>0.9475354791592849</v>
+        <v>1.667893756055307</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.669787293528316</v>
+        <v>1.403750277914014</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2780193303737377</v>
+        <v>0.1710654465030927</v>
       </c>
       <c r="E11">
-        <v>0.3837082123193269</v>
+        <v>0.2083547580269638</v>
       </c>
       <c r="F11">
-        <v>2.011172444154184</v>
+        <v>1.993929175902537</v>
       </c>
       <c r="G11">
-        <v>2.454302861032261</v>
+        <v>1.589177517364789</v>
       </c>
       <c r="H11">
-        <v>1.259705921396545</v>
+        <v>1.302895213528387</v>
       </c>
       <c r="I11">
-        <v>0.2782412152395999</v>
+        <v>0.9698455784568054</v>
       </c>
       <c r="J11">
-        <v>0.5649537342682578</v>
+        <v>0.288550852160796</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.698314795094973</v>
+        <v>0.744594323536063</v>
       </c>
       <c r="M11">
-        <v>1.045809309716851</v>
+        <v>0.5040276895206546</v>
       </c>
       <c r="N11">
-        <v>0.9348375557311357</v>
+        <v>1.661351950973199</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.738144813811118</v>
+        <v>1.42198667030209</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2844206328789909</v>
+        <v>0.1728108100522405</v>
       </c>
       <c r="E12">
-        <v>0.3921553382743426</v>
+        <v>0.2107682468441965</v>
       </c>
       <c r="F12">
-        <v>2.056812538806483</v>
+        <v>2.00021301452287</v>
       </c>
       <c r="G12">
-        <v>2.518872846865065</v>
+        <v>1.600882601025233</v>
       </c>
       <c r="H12">
-        <v>1.287927206370597</v>
+        <v>1.306794137091742</v>
       </c>
       <c r="I12">
-        <v>0.274485784178836</v>
+        <v>0.966585740960614</v>
       </c>
       <c r="J12">
-        <v>0.5771799673801041</v>
+        <v>0.2921226345225847</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.743681220070044</v>
+        <v>0.7560825863351965</v>
       </c>
       <c r="M12">
-        <v>1.073125803633189</v>
+        <v>0.5111413811053893</v>
       </c>
       <c r="N12">
-        <v>0.9302690694537574</v>
+        <v>1.658967472021601</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.723406552119116</v>
+        <v>1.418056937321467</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2830387259198943</v>
+        <v>0.1724351687447836</v>
       </c>
       <c r="E13">
-        <v>0.3903332593138558</v>
+        <v>0.2102487467849556</v>
       </c>
       <c r="F13">
-        <v>2.046937848330415</v>
+        <v>1.998851118917429</v>
       </c>
       <c r="G13">
-        <v>2.504911931432474</v>
+        <v>1.598354118129208</v>
       </c>
       <c r="H13">
-        <v>1.281821891353815</v>
+        <v>1.305949192692594</v>
       </c>
       <c r="I13">
-        <v>0.2752842518036509</v>
+        <v>0.9672841853349361</v>
       </c>
       <c r="J13">
-        <v>0.5745435899021771</v>
+        <v>0.2913537693459034</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.733894297200635</v>
+        <v>0.7536069812474011</v>
       </c>
       <c r="M13">
-        <v>1.067234686094118</v>
+        <v>0.5096084552522413</v>
       </c>
       <c r="N13">
-        <v>0.9312420912920345</v>
+        <v>1.659476889509676</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.675403865558962</v>
+        <v>1.40524960449244</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2785445152954225</v>
+        <v>0.1712091532193654</v>
       </c>
       <c r="E14">
-        <v>0.3844019013031499</v>
+        <v>0.2085534470114254</v>
       </c>
       <c r="F14">
-        <v>2.014907061126408</v>
+        <v>1.99444229574533</v>
       </c>
       <c r="G14">
-        <v>2.459590701679303</v>
+        <v>1.590137086241299</v>
       </c>
       <c r="H14">
-        <v>1.262015487986218</v>
+        <v>1.303213619121664</v>
       </c>
       <c r="I14">
-        <v>0.2779276247011992</v>
+        <v>0.9695757587096168</v>
       </c>
       <c r="J14">
-        <v>0.5659581554241839</v>
+        <v>0.2888448769852658</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.702039788453334</v>
+        <v>0.7455388378584189</v>
       </c>
       <c r="M14">
-        <v>1.048053079179873</v>
+        <v>0.504612547080562</v>
       </c>
       <c r="N14">
-        <v>0.9344568188998181</v>
+        <v>1.661153920416581</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.646047486736563</v>
+        <v>1.397411198294719</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2758010252076559</v>
+        <v>0.1704574377269523</v>
       </c>
       <c r="E15">
-        <v>0.3807768737806683</v>
+        <v>0.2075141831752561</v>
       </c>
       <c r="F15">
-        <v>1.995417729615994</v>
+        <v>1.991766809448805</v>
       </c>
       <c r="G15">
-        <v>2.431987264912465</v>
+        <v>1.58512609994068</v>
       </c>
       <c r="H15">
-        <v>1.2499622916921</v>
+        <v>1.301553340666601</v>
       </c>
       <c r="I15">
-        <v>0.279576707665754</v>
+        <v>0.9709900100843036</v>
       </c>
       <c r="J15">
-        <v>0.5607085652684276</v>
+        <v>0.2873069895394309</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.682575177708088</v>
+        <v>0.7406009743481832</v>
       </c>
       <c r="M15">
-        <v>1.036326814677864</v>
+        <v>0.5015549456911401</v>
       </c>
       <c r="N15">
-        <v>0.9364575717128076</v>
+        <v>1.662193225133194</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.47849373363772</v>
+        <v>1.352592028126196</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2602123583702109</v>
+        <v>0.1661381467591667</v>
       </c>
       <c r="E16">
-        <v>0.3601184216912401</v>
+        <v>0.201545621192281</v>
       </c>
       <c r="F16">
-        <v>1.885640680862821</v>
+        <v>1.976817883603758</v>
       </c>
       <c r="G16">
-        <v>2.276092450824223</v>
+        <v>1.556749155711543</v>
       </c>
       <c r="H16">
-        <v>1.182042404312455</v>
+        <v>1.292273702857955</v>
       </c>
       <c r="I16">
-        <v>0.2894724991245319</v>
+        <v>0.9792567886909076</v>
       </c>
       <c r="J16">
-        <v>0.5307562829605388</v>
+        <v>0.2784768490511738</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.571713141542233</v>
+        <v>0.7123671008197334</v>
       </c>
       <c r="M16">
-        <v>0.9694613750802361</v>
+        <v>0.4840721033416671</v>
       </c>
       <c r="N16">
-        <v>0.9483981853444874</v>
+        <v>1.668334268724649</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.376266904466661</v>
+        <v>1.325186451103775</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2507576431301146</v>
+        <v>0.1634780352940055</v>
       </c>
       <c r="E17">
-        <v>0.3475384825228858</v>
+        <v>0.1978725058419499</v>
       </c>
       <c r="F17">
-        <v>1.819903978514802</v>
+        <v>1.96798841636847</v>
       </c>
       <c r="G17">
-        <v>2.18237480702399</v>
+        <v>1.539642211503292</v>
       </c>
       <c r="H17">
-        <v>1.141345792326547</v>
+        <v>1.286790021145634</v>
       </c>
       <c r="I17">
-        <v>0.2959268349750062</v>
+        <v>0.9844728394999329</v>
       </c>
       <c r="J17">
-        <v>0.5124874637654671</v>
+        <v>0.2730445739052669</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.504267914514173</v>
+        <v>0.6951028538268815</v>
       </c>
       <c r="M17">
-        <v>0.9287180699682054</v>
+        <v>0.4733819476396448</v>
       </c>
       <c r="N17">
-        <v>0.956136941745541</v>
+        <v>1.67226701238009</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.317659635033124</v>
+        <v>1.309456664013794</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2453554682712422</v>
+        <v>0.1619441632985001</v>
       </c>
       <c r="E18">
-        <v>0.3403336078776391</v>
+        <v>0.1957555536278832</v>
       </c>
       <c r="F18">
-        <v>1.782648795702642</v>
+        <v>1.963035049069489</v>
       </c>
       <c r="G18">
-        <v>2.129128946563554</v>
+        <v>1.529913076688189</v>
       </c>
       <c r="H18">
-        <v>1.118272638448758</v>
+        <v>1.283712631920167</v>
       </c>
       <c r="I18">
-        <v>0.2997748182543205</v>
+        <v>0.9875260724179249</v>
       </c>
       <c r="J18">
-        <v>0.5020145196591699</v>
+        <v>0.2699144672820353</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.465666424023993</v>
+        <v>0.6851936456793055</v>
       </c>
       <c r="M18">
-        <v>0.9053773373672414</v>
+        <v>0.467246183670845</v>
       </c>
       <c r="N18">
-        <v>0.960736074659934</v>
+        <v>1.674589870386271</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.297847583166515</v>
+        <v>1.30413655237453</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2435322013107424</v>
+        <v>0.1614241565408747</v>
       </c>
       <c r="E19">
-        <v>0.3378991272634977</v>
+        <v>0.1950380548982409</v>
       </c>
       <c r="F19">
-        <v>1.770126837620495</v>
+        <v>1.961379384478448</v>
       </c>
       <c r="G19">
-        <v>2.111209549795319</v>
+        <v>1.526637866590306</v>
       </c>
       <c r="H19">
-        <v>1.110515905506389</v>
+        <v>1.282683835929333</v>
       </c>
       <c r="I19">
-        <v>0.3011004827462216</v>
+        <v>0.9885689586633717</v>
       </c>
       <c r="J19">
-        <v>0.4984741635457368</v>
+        <v>0.2688537047772996</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.45262797202767</v>
+        <v>0.6818421216497086</v>
       </c>
       <c r="M19">
-        <v>0.8974899503013489</v>
+        <v>0.4651709467677065</v>
       </c>
       <c r="N19">
-        <v>0.9623183157207649</v>
+        <v>1.675386806586388</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.387129025505658</v>
+        <v>1.328100394162334</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2517603101613446</v>
+        <v>0.1637616059428808</v>
       </c>
       <c r="E20">
-        <v>0.3488743767175109</v>
+        <v>0.1982639572509015</v>
       </c>
       <c r="F20">
-        <v>1.826843550494104</v>
+        <v>1.968915373544988</v>
       </c>
       <c r="G20">
-        <v>2.192282075106732</v>
+        <v>1.54145184675761</v>
       </c>
       <c r="H20">
-        <v>1.145642919253163</v>
+        <v>1.287365828937226</v>
       </c>
       <c r="I20">
-        <v>0.2952256063295344</v>
+        <v>0.9839120851675958</v>
       </c>
       <c r="J20">
-        <v>0.5144285194015197</v>
+        <v>0.2736234291630524</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.51142742464495</v>
+        <v>0.6969385176561502</v>
       </c>
       <c r="M20">
-        <v>0.9330453907386413</v>
+        <v>0.474518596207794</v>
       </c>
       <c r="N20">
-        <v>0.9552977321877592</v>
+        <v>1.671842068953069</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.68949359950102</v>
+        <v>1.409010084894533</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2798626018948767</v>
+        <v>0.1715694188721528</v>
       </c>
       <c r="E21">
-        <v>0.386142374487406</v>
+        <v>0.2090515734233662</v>
       </c>
       <c r="F21">
-        <v>2.02428787054626</v>
+        <v>1.995732052975015</v>
       </c>
       <c r="G21">
-        <v>2.472869608503373</v>
+        <v>1.59254600234533</v>
       </c>
       <c r="H21">
-        <v>1.267816550727559</v>
+        <v>1.304013925810182</v>
       </c>
       <c r="I21">
-        <v>0.2771449297184958</v>
+        <v>0.9689004594200519</v>
       </c>
       <c r="J21">
-        <v>0.5684779547352292</v>
+        <v>0.2895820325990854</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.711386292062144</v>
+        <v>0.7479077913643835</v>
       </c>
       <c r="M21">
-        <v>1.053682335274452</v>
+        <v>0.5060794381550977</v>
       </c>
       <c r="N21">
-        <v>0.9335059578743312</v>
+        <v>1.660658819712808</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.889151461413917</v>
+        <v>1.462178887441723</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2986364591562136</v>
+        <v>0.1766388066916704</v>
       </c>
       <c r="E22">
-        <v>0.4108519783413271</v>
+        <v>0.2160641064893127</v>
       </c>
       <c r="F22">
-        <v>2.159068574787653</v>
+        <v>2.014378494211527</v>
       </c>
       <c r="G22">
-        <v>2.663152794771406</v>
+        <v>1.626930676222599</v>
       </c>
       <c r="H22">
-        <v>1.35113029651194</v>
+        <v>1.315580553673442</v>
       </c>
       <c r="I22">
-        <v>0.2666535734888456</v>
+        <v>0.9595636075458245</v>
       </c>
       <c r="J22">
-        <v>0.6042043802391817</v>
+        <v>0.2999618600839682</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.844138114939739</v>
+        <v>0.7814030770724969</v>
       </c>
       <c r="M22">
-        <v>1.133534402623425</v>
+        <v>0.5268199877239539</v>
       </c>
       <c r="N22">
-        <v>0.9206689735124627</v>
+        <v>1.65389052031999</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.78238532521533</v>
+        <v>1.433775473173569</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2885746271157075</v>
+        <v>0.1739362034135041</v>
       </c>
       <c r="E23">
-        <v>0.3976275811143779</v>
+        <v>0.212324831487031</v>
       </c>
       <c r="F23">
-        <v>2.08656700544428</v>
+        <v>2.004323741985104</v>
       </c>
       <c r="G23">
-        <v>2.560909288050794</v>
+        <v>1.608487739128492</v>
       </c>
       <c r="H23">
-        <v>1.306321691119791</v>
+        <v>1.309344283559767</v>
       </c>
       <c r="I23">
-        <v>0.2721256798897578</v>
+        <v>0.9645034174163634</v>
       </c>
       <c r="J23">
-        <v>0.5850949009242754</v>
+        <v>0.2944265354725673</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.773077874302146</v>
+        <v>0.763509215811041</v>
       </c>
       <c r="M23">
-        <v>1.090814510577452</v>
+        <v>0.5157400298963992</v>
       </c>
       <c r="N23">
-        <v>0.9273872930690743</v>
+        <v>1.657453482699367</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.382217752516055</v>
+        <v>1.326782919313018</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2513069010766174</v>
+        <v>0.1636334178007957</v>
       </c>
       <c r="E24">
-        <v>0.348270334127001</v>
+        <v>0.1980869983622995</v>
       </c>
       <c r="F24">
-        <v>1.823704503614451</v>
+        <v>1.968495913726656</v>
       </c>
       <c r="G24">
-        <v>2.187801036581988</v>
+        <v>1.540633380973702</v>
       </c>
       <c r="H24">
-        <v>1.143699184572483</v>
+        <v>1.287105271862089</v>
       </c>
       <c r="I24">
-        <v>0.2955422054025405</v>
+        <v>0.984165432589748</v>
       </c>
       <c r="J24">
-        <v>0.513550875542407</v>
+        <v>0.2733617505661528</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.508190073043039</v>
+        <v>0.6961085634541178</v>
       </c>
       <c r="M24">
-        <v>0.9310887519192903</v>
+        <v>0.4740046857607041</v>
       </c>
       <c r="N24">
-        <v>0.9556766724931407</v>
+        <v>1.672033993138072</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.95771217168442</v>
+        <v>1.212645561671934</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2124440245175805</v>
+        <v>0.1523726541197732</v>
       </c>
       <c r="E25">
-        <v>0.296173370492312</v>
+        <v>0.1825656119314232</v>
       </c>
       <c r="F25">
-        <v>1.561016528135852</v>
+        <v>1.934629189134085</v>
       </c>
       <c r="G25">
-        <v>1.810034030760875</v>
+        <v>1.471653767640902</v>
       </c>
       <c r="H25">
-        <v>0.9808528285045952</v>
+        <v>1.266046459764965</v>
       </c>
       <c r="I25">
-        <v>0.3259307914166634</v>
+        <v>1.007403460107454</v>
       </c>
       <c r="J25">
-        <v>0.4376698281479037</v>
+        <v>0.2504256605021453</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.229613926683896</v>
+        <v>0.6241987755155094</v>
       </c>
       <c r="M25">
-        <v>0.762303759622398</v>
+        <v>0.4294814347178786</v>
       </c>
       <c r="N25">
-        <v>0.9918077749889562</v>
+        <v>1.690088598177645</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.129710549422754</v>
+        <v>1.649627663913634</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1439484244774292</v>
+        <v>0.184585130079256</v>
       </c>
       <c r="E2">
-        <v>0.1709925828979948</v>
+        <v>0.258438883907381</v>
       </c>
       <c r="F2">
-        <v>1.913762155300162</v>
+        <v>1.381830661596354</v>
       </c>
       <c r="G2">
-        <v>1.424422803818146</v>
+        <v>1.548296239773606</v>
       </c>
       <c r="H2">
-        <v>1.253037334986175</v>
+        <v>0.869504728740111</v>
       </c>
       <c r="I2">
-        <v>1.026254946460977</v>
+        <v>0.3521715174716036</v>
       </c>
       <c r="J2">
-        <v>0.2333503628092757</v>
+        <v>0.3824863911032139</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5719242724773324</v>
+        <v>1.028945310806563</v>
       </c>
       <c r="M2">
-        <v>0.397124536698243</v>
+        <v>0.6402176061022331</v>
       </c>
       <c r="N2">
-        <v>1.705392521894602</v>
+        <v>1.022830337813424</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.074200315205076</v>
+        <v>1.442906876162425</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.138153360017057</v>
+        <v>0.1660113751006236</v>
       </c>
       <c r="E3">
-        <v>0.1630573364092456</v>
+        <v>0.2331046979960476</v>
       </c>
       <c r="F3">
-        <v>1.902138619123846</v>
+        <v>1.267669869758308</v>
       </c>
       <c r="G3">
-        <v>1.394602647724838</v>
+        <v>1.379071101753254</v>
       </c>
       <c r="H3">
-        <v>1.245767170004882</v>
+        <v>0.7984080833326459</v>
       </c>
       <c r="I3">
-        <v>1.040115062785878</v>
+        <v>0.3721253201683439</v>
       </c>
       <c r="J3">
-        <v>0.2216599351786499</v>
+        <v>0.3453391377191792</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5369131452780209</v>
+        <v>0.8949940480942189</v>
       </c>
       <c r="M3">
-        <v>0.3754618069485787</v>
+        <v>0.5584887243867556</v>
       </c>
       <c r="N3">
-        <v>1.71702300785995</v>
+        <v>1.04642777260473</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.040463292841736</v>
+        <v>1.316790044821346</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1345519039550496</v>
+        <v>0.1547109991172064</v>
       </c>
       <c r="E4">
-        <v>0.1581391367878098</v>
+        <v>0.2176241180164453</v>
       </c>
       <c r="F4">
-        <v>1.896237796578859</v>
+        <v>1.200692373944449</v>
       </c>
       <c r="G4">
-        <v>1.377362996401672</v>
+        <v>1.278579984375739</v>
       </c>
       <c r="H4">
-        <v>1.242062647602154</v>
+        <v>0.7566227461631456</v>
       </c>
       <c r="I4">
-        <v>1.04915934569064</v>
+        <v>0.3853750923781423</v>
       </c>
       <c r="J4">
-        <v>0.2144233159528284</v>
+        <v>0.3226035887653609</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5156206934085503</v>
+        <v>0.8135435104567534</v>
       </c>
       <c r="M4">
-        <v>0.3622924937205525</v>
+        <v>0.5087013769851296</v>
       </c>
       <c r="N4">
-        <v>1.724786803803724</v>
+        <v>1.062130537981957</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.026803131409281</v>
+        <v>1.265572188491376</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1330732933918881</v>
+        <v>0.1501258523431162</v>
       </c>
       <c r="E5">
-        <v>0.1561233434492664</v>
+        <v>0.2113287221744322</v>
       </c>
       <c r="F5">
-        <v>1.894143248181621</v>
+        <v>1.174118309399887</v>
       </c>
       <c r="G5">
-        <v>1.370605587835797</v>
+        <v>1.238404576176322</v>
       </c>
       <c r="H5">
-        <v>1.24074359113385</v>
+        <v>0.7400259560450593</v>
       </c>
       <c r="I5">
-        <v>1.052979143706674</v>
+        <v>0.3910153330920672</v>
       </c>
       <c r="J5">
-        <v>0.2114595995698068</v>
+        <v>0.3133503105993185</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5069953875702993</v>
+        <v>0.780523559168131</v>
       </c>
       <c r="M5">
-        <v>0.3569592133494268</v>
+        <v>0.4884979897833901</v>
       </c>
       <c r="N5">
-        <v>1.728107436477522</v>
+        <v>1.068827036654866</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.024540208268519</v>
+        <v>1.25707733803489</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1328271044141971</v>
+        <v>0.1493655171556583</v>
       </c>
       <c r="E6">
-        <v>0.1557879215687414</v>
+        <v>0.2102840077493973</v>
       </c>
       <c r="F6">
-        <v>1.893814156993983</v>
+        <v>1.169747391593432</v>
       </c>
       <c r="G6">
-        <v>1.369499670762906</v>
+        <v>1.231778011555775</v>
       </c>
       <c r="H6">
-        <v>1.240536061329578</v>
+        <v>0.7372950288394122</v>
       </c>
       <c r="I6">
-        <v>1.05362151862067</v>
+        <v>0.3919661533539749</v>
       </c>
       <c r="J6">
-        <v>0.2109665871540329</v>
+        <v>0.3118143286053936</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5055662785304094</v>
+        <v>0.7750502099213463</v>
       </c>
       <c r="M6">
-        <v>0.3560756449197271</v>
+        <v>0.4851480033575584</v>
       </c>
       <c r="N6">
-        <v>1.728668304403378</v>
+        <v>1.069956736148391</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.040278709935876</v>
+        <v>1.316098626768024</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1345320075264524</v>
+        <v>0.1546490897897925</v>
       </c>
       <c r="E7">
-        <v>0.1581119980575139</v>
+        <v>0.2175391704058427</v>
       </c>
       <c r="F7">
-        <v>1.896208294229424</v>
+        <v>1.200331153807696</v>
       </c>
       <c r="G7">
-        <v>1.377270780519325</v>
+        <v>1.278035129813873</v>
       </c>
       <c r="H7">
-        <v>1.242044087271807</v>
+        <v>0.7563972197667681</v>
       </c>
       <c r="I7">
-        <v>1.049210317710255</v>
+        <v>0.385450196360436</v>
       </c>
       <c r="J7">
-        <v>0.2143834058797438</v>
+        <v>0.3224787571380148</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5155041606778923</v>
+        <v>0.8130975321323035</v>
       </c>
       <c r="M7">
-        <v>0.3622204320435358</v>
+        <v>0.5084285789585721</v>
       </c>
       <c r="N7">
-        <v>1.724830951707979</v>
+        <v>1.06221965462322</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.1104991800525</v>
+        <v>1.57816450791222</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1419591982531898</v>
+        <v>0.1781553445076156</v>
       </c>
       <c r="E8">
-        <v>0.1682660163710139</v>
+        <v>0.2496845407350747</v>
       </c>
       <c r="F8">
-        <v>1.909497358052349</v>
+        <v>1.341780828697225</v>
       </c>
       <c r="G8">
-        <v>1.413917999278709</v>
+        <v>1.489187006577993</v>
       </c>
       <c r="H8">
-        <v>1.250372730427102</v>
+        <v>0.844578608291755</v>
       </c>
       <c r="I8">
-        <v>1.030922982750308</v>
+        <v>0.3588381594071031</v>
       </c>
       <c r="J8">
-        <v>0.2293316800398202</v>
+        <v>0.3696586236589638</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5598100415368492</v>
+        <v>0.9825758697825506</v>
       </c>
       <c r="M8">
-        <v>0.3896280112354091</v>
+        <v>0.6119469183104229</v>
       </c>
       <c r="N8">
-        <v>1.709273638701056</v>
+        <v>1.030709992290824</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.250922290934</v>
+        <v>2.099908636449697</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1561861214397595</v>
+        <v>0.2253936049882128</v>
       </c>
       <c r="E9">
-        <v>0.1878162413001832</v>
+        <v>0.3136034027424728</v>
       </c>
       <c r="F9">
-        <v>1.945402487263976</v>
+        <v>1.647062926217401</v>
       </c>
       <c r="G9">
-        <v>1.494332703216458</v>
+        <v>1.93443717036152</v>
       </c>
       <c r="H9">
-        <v>1.272750868124007</v>
+        <v>1.0342392160901</v>
       </c>
       <c r="I9">
-        <v>0.9993049111922403</v>
+        <v>0.3150595529395233</v>
       </c>
       <c r="J9">
-        <v>0.2581806622534515</v>
+        <v>0.4630978179583281</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6483167224948829</v>
+        <v>1.32265693664047</v>
       </c>
       <c r="M9">
-        <v>0.4444131167562873</v>
+        <v>0.8187679918775856</v>
       </c>
       <c r="N9">
-        <v>1.683695194549585</v>
+        <v>0.9789244624801867</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.355723670794134</v>
+        <v>2.490185505745217</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1664411654595881</v>
+        <v>0.2612963532098007</v>
       </c>
       <c r="E10">
-        <v>0.2019641710143461</v>
+        <v>0.3615583006914704</v>
       </c>
       <c r="F10">
-        <v>1.977842360598999</v>
+        <v>1.893219444546759</v>
       </c>
       <c r="G10">
-        <v>1.558716158103863</v>
+        <v>2.286878802671453</v>
       </c>
       <c r="H10">
-        <v>1.292909830617958</v>
+        <v>1.186733057596854</v>
       </c>
       <c r="I10">
-        <v>0.9786688003388342</v>
+        <v>0.2887547727099573</v>
       </c>
       <c r="J10">
-        <v>0.2790959494226541</v>
+        <v>0.5328458906451914</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7143398781350925</v>
+        <v>1.579436189948808</v>
       </c>
       <c r="M10">
-        <v>0.485293671741502</v>
+        <v>0.974123731027305</v>
       </c>
       <c r="N10">
-        <v>1.667893756055307</v>
+        <v>0.9475354791592849</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.403750277914014</v>
+        <v>2.669787293528316</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1710654465030927</v>
+        <v>0.2780193303737093</v>
       </c>
       <c r="E11">
-        <v>0.2083547580269638</v>
+        <v>0.3837082123192985</v>
       </c>
       <c r="F11">
-        <v>1.993929175902537</v>
+        <v>2.011172444154184</v>
       </c>
       <c r="G11">
-        <v>1.589177517364789</v>
+        <v>2.454302861032176</v>
       </c>
       <c r="H11">
-        <v>1.302895213528387</v>
+        <v>1.259705921396574</v>
       </c>
       <c r="I11">
-        <v>0.9698455784568054</v>
+        <v>0.2782412152395821</v>
       </c>
       <c r="J11">
-        <v>0.288550852160796</v>
+        <v>0.5649537342683288</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.744594323536063</v>
+        <v>1.698314795094888</v>
       </c>
       <c r="M11">
-        <v>0.5040276895206546</v>
+        <v>1.045809309716851</v>
       </c>
       <c r="N11">
-        <v>1.661351950973199</v>
+        <v>0.9348375557311357</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.42198667030209</v>
+        <v>2.738144813810948</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1728108100522405</v>
+        <v>0.2844206328786782</v>
       </c>
       <c r="E12">
-        <v>0.2107682468441965</v>
+        <v>0.3921553382743284</v>
       </c>
       <c r="F12">
-        <v>2.00021301452287</v>
+        <v>2.056812538806497</v>
       </c>
       <c r="G12">
-        <v>1.600882601025233</v>
+        <v>2.518872846864951</v>
       </c>
       <c r="H12">
-        <v>1.306794137091742</v>
+        <v>1.287927206370568</v>
       </c>
       <c r="I12">
-        <v>0.966585740960614</v>
+        <v>0.2744857841788146</v>
       </c>
       <c r="J12">
-        <v>0.2921226345225847</v>
+        <v>0.577179967379962</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.7560825863351965</v>
+        <v>1.743681220070187</v>
       </c>
       <c r="M12">
-        <v>0.5111413811053893</v>
+        <v>1.073125803633204</v>
       </c>
       <c r="N12">
-        <v>1.658967472021601</v>
+        <v>0.9302690694537716</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.418056937321467</v>
+        <v>2.723406552119172</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1724351687447836</v>
+        <v>0.2830387259200222</v>
       </c>
       <c r="E13">
-        <v>0.2102487467849556</v>
+        <v>0.390333259313806</v>
       </c>
       <c r="F13">
-        <v>1.998851118917429</v>
+        <v>2.046937848330415</v>
       </c>
       <c r="G13">
-        <v>1.598354118129208</v>
+        <v>2.504911931432503</v>
       </c>
       <c r="H13">
-        <v>1.305949192692594</v>
+        <v>1.281821891353701</v>
       </c>
       <c r="I13">
-        <v>0.9672841853349361</v>
+        <v>0.2752842518036545</v>
       </c>
       <c r="J13">
-        <v>0.2913537693459034</v>
+        <v>0.574543589902234</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7536069812474011</v>
+        <v>1.733894297200663</v>
       </c>
       <c r="M13">
-        <v>0.5096084552522413</v>
+        <v>1.06723468609411</v>
       </c>
       <c r="N13">
-        <v>1.659476889509676</v>
+        <v>0.9312420912920345</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.40524960449244</v>
+        <v>2.67540386555919</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1712091532193654</v>
+        <v>0.2785445152950814</v>
       </c>
       <c r="E14">
-        <v>0.2085534470114254</v>
+        <v>0.3844019013031286</v>
       </c>
       <c r="F14">
-        <v>1.99444229574533</v>
+        <v>2.014907061126408</v>
       </c>
       <c r="G14">
-        <v>1.590137086241299</v>
+        <v>2.459590701679303</v>
       </c>
       <c r="H14">
-        <v>1.303213619121664</v>
+        <v>1.262015487986218</v>
       </c>
       <c r="I14">
-        <v>0.9695757587096168</v>
+        <v>0.2779276247012064</v>
       </c>
       <c r="J14">
-        <v>0.2888448769852658</v>
+        <v>0.5659581554242976</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7455388378584189</v>
+        <v>1.702039788453249</v>
       </c>
       <c r="M14">
-        <v>0.504612547080562</v>
+        <v>1.048053079179873</v>
       </c>
       <c r="N14">
-        <v>1.661153920416581</v>
+        <v>0.9344568188998323</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.397411198294719</v>
+        <v>2.64604748673662</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1704574377269523</v>
+        <v>0.2758010252076559</v>
       </c>
       <c r="E15">
-        <v>0.2075141831752561</v>
+        <v>0.3807768737806754</v>
       </c>
       <c r="F15">
-        <v>1.991766809448805</v>
+        <v>1.995417729615966</v>
       </c>
       <c r="G15">
-        <v>1.58512609994068</v>
+        <v>2.431987264912436</v>
       </c>
       <c r="H15">
-        <v>1.301553340666601</v>
+        <v>1.249962291691986</v>
       </c>
       <c r="I15">
-        <v>0.9709900100843036</v>
+        <v>0.279576707665754</v>
       </c>
       <c r="J15">
-        <v>0.2873069895394309</v>
+        <v>0.5607085652684134</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7406009743481832</v>
+        <v>1.682575177708088</v>
       </c>
       <c r="M15">
-        <v>0.5015549456911401</v>
+        <v>1.036326814677857</v>
       </c>
       <c r="N15">
-        <v>1.662193225133194</v>
+        <v>0.9364575717127508</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.352592028126196</v>
+        <v>2.47849373363772</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1661381467591667</v>
+        <v>0.2602123583701967</v>
       </c>
       <c r="E16">
-        <v>0.201545621192281</v>
+        <v>0.3601184216912401</v>
       </c>
       <c r="F16">
-        <v>1.976817883603758</v>
+        <v>1.885640680862807</v>
       </c>
       <c r="G16">
-        <v>1.556749155711543</v>
+        <v>2.276092450824251</v>
       </c>
       <c r="H16">
-        <v>1.292273702857955</v>
+        <v>1.182042404312455</v>
       </c>
       <c r="I16">
-        <v>0.9792567886909076</v>
+        <v>0.2894724991245532</v>
       </c>
       <c r="J16">
-        <v>0.2784768490511738</v>
+        <v>0.5307562829606383</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7123671008197334</v>
+        <v>1.571713141542176</v>
       </c>
       <c r="M16">
-        <v>0.4840721033416671</v>
+        <v>0.9694613750802432</v>
       </c>
       <c r="N16">
-        <v>1.668334268724649</v>
+        <v>0.9483981853445584</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.325186451103775</v>
+        <v>2.376266904466661</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1634780352940055</v>
+        <v>0.2507576431301004</v>
       </c>
       <c r="E17">
-        <v>0.1978725058419499</v>
+        <v>0.3475384825228858</v>
       </c>
       <c r="F17">
-        <v>1.96798841636847</v>
+        <v>1.819903978514802</v>
       </c>
       <c r="G17">
-        <v>1.539642211503292</v>
+        <v>2.182374807024075</v>
       </c>
       <c r="H17">
-        <v>1.286790021145634</v>
+        <v>1.141345792326518</v>
       </c>
       <c r="I17">
-        <v>0.9844728394999329</v>
+        <v>0.2959268349750204</v>
       </c>
       <c r="J17">
-        <v>0.2730445739052669</v>
+        <v>0.5124874637655665</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6951028538268815</v>
+        <v>1.504267914514116</v>
       </c>
       <c r="M17">
-        <v>0.4733819476396448</v>
+        <v>0.9287180699682125</v>
       </c>
       <c r="N17">
-        <v>1.67226701238009</v>
+        <v>0.956136941745541</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.309456664013794</v>
+        <v>2.317659635032953</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1619441632985001</v>
+        <v>0.245355468271228</v>
       </c>
       <c r="E18">
-        <v>0.1957555536278832</v>
+        <v>0.340333607877632</v>
       </c>
       <c r="F18">
-        <v>1.963035049069489</v>
+        <v>1.782648795702642</v>
       </c>
       <c r="G18">
-        <v>1.529913076688189</v>
+        <v>2.129128946563583</v>
       </c>
       <c r="H18">
-        <v>1.283712631920167</v>
+        <v>1.118272638448758</v>
       </c>
       <c r="I18">
-        <v>0.9875260724179249</v>
+        <v>0.2997748182543205</v>
       </c>
       <c r="J18">
-        <v>0.2699144672820353</v>
+        <v>0.5020145196591699</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6851936456793055</v>
+        <v>1.465666424024022</v>
       </c>
       <c r="M18">
-        <v>0.467246183670845</v>
+        <v>0.9053773373672342</v>
       </c>
       <c r="N18">
-        <v>1.674589870386271</v>
+        <v>0.9607360746600051</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.30413655237453</v>
+        <v>2.297847583166401</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1614241565408747</v>
+        <v>0.2435322013106287</v>
       </c>
       <c r="E19">
-        <v>0.1950380548982409</v>
+        <v>0.3378991272634835</v>
       </c>
       <c r="F19">
-        <v>1.961379384478448</v>
+        <v>1.770126837620495</v>
       </c>
       <c r="G19">
-        <v>1.526637866590306</v>
+        <v>2.111209549795348</v>
       </c>
       <c r="H19">
-        <v>1.282683835929333</v>
+        <v>1.110515905506389</v>
       </c>
       <c r="I19">
-        <v>0.9885689586633717</v>
+        <v>0.301100482746218</v>
       </c>
       <c r="J19">
-        <v>0.2688537047772996</v>
+        <v>0.4984741635457368</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6818421216497086</v>
+        <v>1.45262797202767</v>
       </c>
       <c r="M19">
-        <v>0.4651709467677065</v>
+        <v>0.8974899503013631</v>
       </c>
       <c r="N19">
-        <v>1.675386806586388</v>
+        <v>0.962318315720708</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.328100394162334</v>
+        <v>2.387129025505658</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1637616059428808</v>
+        <v>0.2517603101612309</v>
       </c>
       <c r="E20">
-        <v>0.1982639572509015</v>
+        <v>0.3488743767175109</v>
       </c>
       <c r="F20">
-        <v>1.968915373544988</v>
+        <v>1.826843550494104</v>
       </c>
       <c r="G20">
-        <v>1.54145184675761</v>
+        <v>2.192282075106675</v>
       </c>
       <c r="H20">
-        <v>1.287365828937226</v>
+        <v>1.145642919253163</v>
       </c>
       <c r="I20">
-        <v>0.9839120851675958</v>
+        <v>0.2952256063295344</v>
       </c>
       <c r="J20">
-        <v>0.2736234291630524</v>
+        <v>0.5144285194016049</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6969385176561502</v>
+        <v>1.511427424645035</v>
       </c>
       <c r="M20">
-        <v>0.474518596207794</v>
+        <v>0.9330453907386485</v>
       </c>
       <c r="N20">
-        <v>1.671842068953069</v>
+        <v>0.9552977321877592</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.409010084894533</v>
+        <v>2.689493599501134</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1715694188721528</v>
+        <v>0.2798626018947914</v>
       </c>
       <c r="E21">
-        <v>0.2090515734233662</v>
+        <v>0.3861423744874344</v>
       </c>
       <c r="F21">
-        <v>1.995732052975015</v>
+        <v>2.024287870546232</v>
       </c>
       <c r="G21">
-        <v>1.59254600234533</v>
+        <v>2.472869608503345</v>
       </c>
       <c r="H21">
-        <v>1.304013925810182</v>
+        <v>1.267816550727673</v>
       </c>
       <c r="I21">
-        <v>0.9689004594200519</v>
+        <v>0.2771449297184816</v>
       </c>
       <c r="J21">
-        <v>0.2895820325990854</v>
+        <v>0.5684779547352292</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7479077913643835</v>
+        <v>1.71138629206223</v>
       </c>
       <c r="M21">
-        <v>0.5060794381550977</v>
+        <v>1.053682335274452</v>
       </c>
       <c r="N21">
-        <v>1.660658819712808</v>
+        <v>0.933505957874317</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.462178887441723</v>
+        <v>2.889151461413917</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1766388066916704</v>
+        <v>0.2986364591561994</v>
       </c>
       <c r="E22">
-        <v>0.2160641064893127</v>
+        <v>0.4108519783413414</v>
       </c>
       <c r="F22">
-        <v>2.014378494211527</v>
+        <v>2.159068574787625</v>
       </c>
       <c r="G22">
-        <v>1.626930676222599</v>
+        <v>2.663152794771406</v>
       </c>
       <c r="H22">
-        <v>1.315580553673442</v>
+        <v>1.351130296511855</v>
       </c>
       <c r="I22">
-        <v>0.9595636075458245</v>
+        <v>0.2666535734888456</v>
       </c>
       <c r="J22">
-        <v>0.2999618600839682</v>
+        <v>0.6042043802390822</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7814030770724969</v>
+        <v>1.84413811493971</v>
       </c>
       <c r="M22">
-        <v>0.5268199877239539</v>
+        <v>1.133534402623425</v>
       </c>
       <c r="N22">
-        <v>1.65389052031999</v>
+        <v>0.9206689735124058</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.433775473173569</v>
+        <v>2.782385325215159</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1739362034135041</v>
+        <v>0.2885746271157217</v>
       </c>
       <c r="E23">
-        <v>0.212324831487031</v>
+        <v>0.3976275811143424</v>
       </c>
       <c r="F23">
-        <v>2.004323741985104</v>
+        <v>2.08656700544428</v>
       </c>
       <c r="G23">
-        <v>1.608487739128492</v>
+        <v>2.560909288050794</v>
       </c>
       <c r="H23">
-        <v>1.309344283559767</v>
+        <v>1.30632169111982</v>
       </c>
       <c r="I23">
-        <v>0.9645034174163634</v>
+        <v>0.2721256798897578</v>
       </c>
       <c r="J23">
-        <v>0.2944265354725673</v>
+        <v>0.585094900924247</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.763509215811041</v>
+        <v>1.773077874302146</v>
       </c>
       <c r="M23">
-        <v>0.5157400298963992</v>
+        <v>1.090814510577474</v>
       </c>
       <c r="N23">
-        <v>1.657453482699367</v>
+        <v>0.9273872930690175</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.326782919313018</v>
+        <v>2.382217752516169</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1636334178007957</v>
+        <v>0.2513069010767168</v>
       </c>
       <c r="E24">
-        <v>0.1980869983622995</v>
+        <v>0.3482703341270152</v>
       </c>
       <c r="F24">
-        <v>1.968495913726656</v>
+        <v>1.823704503614465</v>
       </c>
       <c r="G24">
-        <v>1.540633380973702</v>
+        <v>2.18780103658213</v>
       </c>
       <c r="H24">
-        <v>1.287105271862089</v>
+        <v>1.143699184572341</v>
       </c>
       <c r="I24">
-        <v>0.984165432589748</v>
+        <v>0.2955422054025618</v>
       </c>
       <c r="J24">
-        <v>0.2733617505661528</v>
+        <v>0.5135508755424496</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6961085634541178</v>
+        <v>1.508190073043011</v>
       </c>
       <c r="M24">
-        <v>0.4740046857607041</v>
+        <v>0.9310887519192903</v>
       </c>
       <c r="N24">
-        <v>1.672033993138072</v>
+        <v>0.9556766724931407</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.212645561671934</v>
+        <v>1.957712171684591</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1523726541197732</v>
+        <v>0.2124440245174952</v>
       </c>
       <c r="E25">
-        <v>0.1825656119314232</v>
+        <v>0.296173370492312</v>
       </c>
       <c r="F25">
-        <v>1.934629189134085</v>
+        <v>1.561016528135866</v>
       </c>
       <c r="G25">
-        <v>1.471653767640902</v>
+        <v>1.810034030760932</v>
       </c>
       <c r="H25">
-        <v>1.266046459764965</v>
+        <v>0.9808528285045952</v>
       </c>
       <c r="I25">
-        <v>1.007403460107454</v>
+        <v>0.3259307914166776</v>
       </c>
       <c r="J25">
-        <v>0.2504256605021453</v>
+        <v>0.4376698281478326</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6241987755155094</v>
+        <v>1.229613926683925</v>
       </c>
       <c r="M25">
-        <v>0.4294814347178786</v>
+        <v>0.7623037596223909</v>
       </c>
       <c r="N25">
-        <v>1.690088598177645</v>
+        <v>0.9918077749890273</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.649627663913634</v>
+        <v>0.6721002744988311</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.184585130079256</v>
+        <v>0.03116700188195765</v>
       </c>
       <c r="E2">
-        <v>0.258438883907381</v>
+        <v>0.05164283188854846</v>
       </c>
       <c r="F2">
-        <v>1.381830661596354</v>
+        <v>1.084055141458322</v>
       </c>
       <c r="G2">
-        <v>1.548296239773606</v>
+        <v>0.8691960798604157</v>
       </c>
       <c r="H2">
-        <v>0.869504728740111</v>
+        <v>0.01530716097191342</v>
       </c>
       <c r="I2">
-        <v>0.3521715174716036</v>
+        <v>0.02583516495322913</v>
       </c>
       <c r="J2">
-        <v>0.3824863911032139</v>
+        <v>0.6156695643067565</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6113755005271599</v>
       </c>
       <c r="L2">
-        <v>1.028945310806563</v>
+        <v>0.09692787686737248</v>
       </c>
       <c r="M2">
-        <v>0.6402176061022331</v>
+        <v>1.426994961622029</v>
       </c>
       <c r="N2">
-        <v>1.022830337813424</v>
+        <v>0.2892167757280362</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2201828619687589</v>
+      </c>
+      <c r="P2">
+        <v>1.239685083208363</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.442906876162425</v>
+        <v>0.591356084715045</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1660113751006236</v>
+        <v>0.02911488967320963</v>
       </c>
       <c r="E3">
-        <v>0.2331046979960476</v>
+        <v>0.04872107297805828</v>
       </c>
       <c r="F3">
-        <v>1.267669869758308</v>
+        <v>1.039935317668167</v>
       </c>
       <c r="G3">
-        <v>1.379071101753254</v>
+        <v>0.8257217808487809</v>
       </c>
       <c r="H3">
-        <v>0.7984080833326459</v>
+        <v>0.0188082845076249</v>
       </c>
       <c r="I3">
-        <v>0.3721253201683439</v>
+        <v>0.02939886462041574</v>
       </c>
       <c r="J3">
-        <v>0.3453391377191792</v>
+        <v>0.6005463027669151</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6086938732235545</v>
       </c>
       <c r="L3">
-        <v>0.8949940480942189</v>
+        <v>0.09072041185169688</v>
       </c>
       <c r="M3">
-        <v>0.5584887243867556</v>
+        <v>1.239663835067489</v>
       </c>
       <c r="N3">
-        <v>1.04642777260473</v>
+        <v>0.2548936089976195</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1939068595401992</v>
+      </c>
+      <c r="P3">
+        <v>1.274661554025746</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.316790044821346</v>
+        <v>0.5413673199686286</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1547109991172064</v>
+        <v>0.02785899006183179</v>
       </c>
       <c r="E4">
-        <v>0.2176241180164453</v>
+        <v>0.04692380889966952</v>
       </c>
       <c r="F4">
-        <v>1.200692373944449</v>
+        <v>1.013553230516862</v>
       </c>
       <c r="G4">
-        <v>1.278579984375739</v>
+        <v>0.7997476547602105</v>
       </c>
       <c r="H4">
-        <v>0.7566227461631456</v>
+        <v>0.02122271974204215</v>
       </c>
       <c r="I4">
-        <v>0.3853750923781423</v>
+        <v>0.03182166536386966</v>
       </c>
       <c r="J4">
-        <v>0.3226035887653609</v>
+        <v>0.591716906098398</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6071465518704748</v>
       </c>
       <c r="L4">
-        <v>0.8135435104567534</v>
+        <v>0.08690562717298</v>
       </c>
       <c r="M4">
-        <v>0.5087013769851296</v>
+        <v>1.125118273559423</v>
       </c>
       <c r="N4">
-        <v>1.062130537981957</v>
+        <v>0.2340778997957216</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1777777954250155</v>
+      </c>
+      <c r="P4">
+        <v>1.296672287316468</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.265572188491376</v>
+        <v>0.5198955940443284</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1501258523431162</v>
+        <v>0.02734074533586117</v>
       </c>
       <c r="E5">
-        <v>0.2113287221744322</v>
+        <v>0.04618545931086238</v>
       </c>
       <c r="F5">
-        <v>1.174118309399887</v>
+        <v>1.002289600280491</v>
       </c>
       <c r="G5">
-        <v>1.238404576176322</v>
+        <v>0.7886996134467381</v>
       </c>
       <c r="H5">
-        <v>0.7400259560450593</v>
+        <v>0.02227719711583587</v>
       </c>
       <c r="I5">
-        <v>0.3910153330920672</v>
+        <v>0.03296893738419415</v>
       </c>
       <c r="J5">
-        <v>0.3133503105993185</v>
+        <v>0.5879037035771972</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6059761954277754</v>
       </c>
       <c r="L5">
-        <v>0.780523559168131</v>
+        <v>0.08537471038939159</v>
       </c>
       <c r="M5">
-        <v>0.4884979897833901</v>
+        <v>1.078950550523928</v>
       </c>
       <c r="N5">
-        <v>1.068827036654866</v>
+        <v>0.2260684774551294</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1711566487517011</v>
+      </c>
+      <c r="P5">
+        <v>1.305376435699007</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.25707733803489</v>
+        <v>0.5151036067554742</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1493655171556583</v>
+        <v>0.02724630025950958</v>
       </c>
       <c r="E6">
-        <v>0.2102840077493973</v>
+        <v>0.04605807522814476</v>
       </c>
       <c r="F6">
-        <v>1.169747391593432</v>
+        <v>0.9995953666003743</v>
       </c>
       <c r="G6">
-        <v>1.231778011555775</v>
+        <v>0.7861002207498018</v>
       </c>
       <c r="H6">
-        <v>0.7372950288394122</v>
+        <v>0.02246374114838812</v>
       </c>
       <c r="I6">
-        <v>0.3919661533539749</v>
+        <v>0.03329521576597916</v>
       </c>
       <c r="J6">
-        <v>0.3118143286053936</v>
+        <v>0.5868793374382619</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6050945992593633</v>
       </c>
       <c r="L6">
-        <v>0.7750502099213463</v>
+        <v>0.08515332702909717</v>
       </c>
       <c r="M6">
-        <v>0.4851480033575584</v>
+        <v>1.071791167474373</v>
       </c>
       <c r="N6">
-        <v>1.069956736148391</v>
+        <v>0.2252479877048188</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1699980454562784</v>
+      </c>
+      <c r="P6">
+        <v>1.30634628509779</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.316098626768024</v>
+        <v>0.5377338505927298</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1546490897897925</v>
+        <v>0.027829073485238</v>
       </c>
       <c r="E7">
-        <v>0.2175391704058427</v>
+        <v>0.04690154509324351</v>
       </c>
       <c r="F7">
-        <v>1.200331153807696</v>
+        <v>1.011125064074719</v>
       </c>
       <c r="G7">
-        <v>1.278035129813873</v>
+        <v>0.7974828630445501</v>
       </c>
       <c r="H7">
-        <v>0.7563972197667681</v>
+        <v>0.02125648742578967</v>
       </c>
       <c r="I7">
-        <v>0.385450196360436</v>
+        <v>0.03218040224945806</v>
       </c>
       <c r="J7">
-        <v>0.3224787571380148</v>
+        <v>0.5905806227949881</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6052523345628948</v>
       </c>
       <c r="L7">
-        <v>0.8130975321323035</v>
+        <v>0.08697616500940875</v>
       </c>
       <c r="M7">
-        <v>0.5084285789585721</v>
+        <v>1.125865848709651</v>
       </c>
       <c r="N7">
-        <v>1.06221965462322</v>
+        <v>0.2353532795514042</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1775264950305555</v>
+      </c>
+      <c r="P7">
+        <v>1.295486532336973</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.57816450791222</v>
+        <v>0.6398804449181057</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1781553445076156</v>
+        <v>0.03042790378630755</v>
       </c>
       <c r="E8">
-        <v>0.2496845407350747</v>
+        <v>0.05062079566982169</v>
       </c>
       <c r="F8">
-        <v>1.341780828697225</v>
+        <v>1.065688804439631</v>
       </c>
       <c r="G8">
-        <v>1.489187006577993</v>
+        <v>0.8512581342302639</v>
       </c>
       <c r="H8">
-        <v>0.844578608291755</v>
+        <v>0.01647972603566406</v>
       </c>
       <c r="I8">
-        <v>0.3588381594071031</v>
+        <v>0.027427917426329</v>
       </c>
       <c r="J8">
-        <v>0.3696586236589638</v>
+        <v>0.6089306664094494</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.607962021271149</v>
       </c>
       <c r="L8">
-        <v>0.9825758697825506</v>
+        <v>0.09491241984310861</v>
       </c>
       <c r="M8">
-        <v>0.6119469183104229</v>
+        <v>1.364114603000104</v>
       </c>
       <c r="N8">
-        <v>1.030709992290824</v>
+        <v>0.2791676619635837</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2109044903975921</v>
+      </c>
+      <c r="P8">
+        <v>1.249990416835219</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.099908636449697</v>
+        <v>0.8429663262150484</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2253936049882128</v>
+        <v>0.03562823071457544</v>
       </c>
       <c r="E9">
-        <v>0.3136034027424728</v>
+        <v>0.05796608517857482</v>
       </c>
       <c r="F9">
-        <v>1.647062926217401</v>
+        <v>1.182785573518373</v>
       </c>
       <c r="G9">
-        <v>1.93443717036152</v>
+        <v>0.9667061682199432</v>
       </c>
       <c r="H9">
-        <v>1.0342392160901</v>
+        <v>0.009291503899386017</v>
       </c>
       <c r="I9">
-        <v>0.3150595529395233</v>
+        <v>0.0195118233428655</v>
       </c>
       <c r="J9">
-        <v>0.4630978179583281</v>
+        <v>0.6506894021706415</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6174267175690069</v>
       </c>
       <c r="L9">
-        <v>1.32265693664047</v>
+        <v>0.1103825216347616</v>
       </c>
       <c r="M9">
-        <v>0.8187679918775856</v>
+        <v>1.833535237143707</v>
       </c>
       <c r="N9">
-        <v>0.9789244624801867</v>
+        <v>0.364868306454639</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.276751882616729</v>
+      </c>
+      <c r="P9">
+        <v>1.167331075308855</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.490185505745217</v>
+        <v>0.9809277438561992</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2612963532098007</v>
+        <v>0.03901798186420535</v>
       </c>
       <c r="E10">
-        <v>0.3615583006914704</v>
+        <v>0.06353927696698403</v>
       </c>
       <c r="F10">
-        <v>1.893219444546759</v>
+        <v>1.257814350746969</v>
       </c>
       <c r="G10">
-        <v>2.286878802671453</v>
+        <v>1.042938185264049</v>
       </c>
       <c r="H10">
-        <v>1.186733057596854</v>
+        <v>0.005865566441774384</v>
       </c>
       <c r="I10">
-        <v>0.2887547727099573</v>
+        <v>0.01523858047830196</v>
       </c>
       <c r="J10">
-        <v>0.5328458906451914</v>
+        <v>0.6774615642502226</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6176655170852641</v>
       </c>
       <c r="L10">
-        <v>1.579436189948808</v>
+        <v>0.1233187652770091</v>
       </c>
       <c r="M10">
-        <v>0.974123731027305</v>
+        <v>2.180014849243065</v>
       </c>
       <c r="N10">
-        <v>0.9475354791592849</v>
+        <v>0.420543520405559</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3205919684883298</v>
+      </c>
+      <c r="P10">
+        <v>1.104653916512103</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.669787293528316</v>
+        <v>0.9720239938582722</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2780193303737093</v>
+        <v>0.03653521324489617</v>
       </c>
       <c r="E11">
-        <v>0.3837082123192985</v>
+        <v>0.06912074291841819</v>
       </c>
       <c r="F11">
-        <v>2.011172444154184</v>
+        <v>1.16798100191464</v>
       </c>
       <c r="G11">
-        <v>2.454302861032176</v>
+        <v>0.9717322032018814</v>
       </c>
       <c r="H11">
-        <v>1.259705921396574</v>
+        <v>0.02424480020990671</v>
       </c>
       <c r="I11">
-        <v>0.2782412152395821</v>
+        <v>0.01490406515929177</v>
       </c>
       <c r="J11">
-        <v>0.5649537342683288</v>
+        <v>0.6365557888176312</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5624621364422637</v>
       </c>
       <c r="L11">
-        <v>1.698314795094888</v>
+        <v>0.1463878810134318</v>
       </c>
       <c r="M11">
-        <v>1.045809309716851</v>
+        <v>2.311920743596005</v>
       </c>
       <c r="N11">
-        <v>0.9348375557311357</v>
+        <v>0.3668861636016061</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3007524665473298</v>
+      </c>
+      <c r="P11">
+        <v>1.045282816069125</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.738144813810948</v>
+        <v>0.9404854344635396</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2844206328786782</v>
+        <v>0.0342127986242442</v>
       </c>
       <c r="E12">
-        <v>0.3921553382743284</v>
+        <v>0.07571683559635467</v>
       </c>
       <c r="F12">
-        <v>2.056812538806497</v>
+        <v>1.08143704249504</v>
       </c>
       <c r="G12">
-        <v>2.518872846864951</v>
+        <v>0.8998389962891196</v>
       </c>
       <c r="H12">
-        <v>1.287927206370568</v>
+        <v>0.06310074988344638</v>
       </c>
       <c r="I12">
-        <v>0.2744857841788146</v>
+        <v>0.01486183027311405</v>
       </c>
       <c r="J12">
-        <v>0.577179967379962</v>
+        <v>0.5983655248714399</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5214743589507513</v>
       </c>
       <c r="L12">
-        <v>1.743681220070187</v>
+        <v>0.1700314665215359</v>
       </c>
       <c r="M12">
-        <v>1.073125803633204</v>
+        <v>2.346759615321446</v>
       </c>
       <c r="N12">
-        <v>0.9302690694537716</v>
+        <v>0.3112679030543291</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2755987846796515</v>
+      </c>
+      <c r="P12">
+        <v>1.017835324578841</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.723406552119172</v>
+        <v>0.8846587196048006</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2830387259200222</v>
+        <v>0.03183215206275669</v>
       </c>
       <c r="E13">
-        <v>0.390333259313806</v>
+        <v>0.08330065960913124</v>
       </c>
       <c r="F13">
-        <v>2.046937848330415</v>
+        <v>0.9888540875095799</v>
       </c>
       <c r="G13">
-        <v>2.504911931432503</v>
+        <v>0.8198507925431926</v>
       </c>
       <c r="H13">
-        <v>1.281821891353701</v>
+        <v>0.1193834221481325</v>
       </c>
       <c r="I13">
-        <v>0.2752842518036545</v>
+        <v>0.01550730472194672</v>
       </c>
       <c r="J13">
-        <v>0.574543589902234</v>
+        <v>0.5582752648689535</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4860780145837929</v>
       </c>
       <c r="L13">
-        <v>1.733894297200663</v>
+        <v>0.1952241386507794</v>
       </c>
       <c r="M13">
-        <v>1.06723468609411</v>
+        <v>2.310511525475391</v>
       </c>
       <c r="N13">
-        <v>0.9312420912920345</v>
+        <v>0.2534510867504594</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2448237870994809</v>
+      </c>
+      <c r="P13">
+        <v>1.010604511511115</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.67540386555919</v>
+        <v>0.8339742689184106</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2785445152950814</v>
+        <v>0.03020983630935081</v>
       </c>
       <c r="E14">
-        <v>0.3844019013031286</v>
+        <v>0.08941202476107968</v>
       </c>
       <c r="F14">
-        <v>2.014907061126408</v>
+        <v>0.9215457108568472</v>
       </c>
       <c r="G14">
-        <v>2.459590701679303</v>
+        <v>0.7603165294943608</v>
       </c>
       <c r="H14">
-        <v>1.262015487986218</v>
+        <v>0.1692598843008568</v>
       </c>
       <c r="I14">
-        <v>0.2779276247012064</v>
+        <v>0.01638602764128194</v>
       </c>
       <c r="J14">
-        <v>0.5659581554242976</v>
+        <v>0.5293676171969395</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4639439972598609</v>
       </c>
       <c r="L14">
-        <v>1.702039788453249</v>
+        <v>0.2143682383038481</v>
       </c>
       <c r="M14">
-        <v>1.048053079179873</v>
+        <v>2.253493238111702</v>
       </c>
       <c r="N14">
-        <v>0.9344568188998323</v>
+        <v>0.2132126950221647</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2210019067735409</v>
+      </c>
+      <c r="P14">
+        <v>1.015327732314205</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.64604748673662</v>
+        <v>0.8153636336546981</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2758010252076559</v>
+        <v>0.02974306156725692</v>
       </c>
       <c r="E15">
-        <v>0.3807768737806754</v>
+        <v>0.09074566951752239</v>
       </c>
       <c r="F15">
-        <v>1.995417729615966</v>
+        <v>0.9030547935446052</v>
       </c>
       <c r="G15">
-        <v>2.431987264912436</v>
+        <v>0.7433733445186306</v>
       </c>
       <c r="H15">
-        <v>1.249962291691986</v>
+        <v>0.1820292619223665</v>
       </c>
       <c r="I15">
-        <v>0.279576707665754</v>
+        <v>0.01690819406814015</v>
       </c>
       <c r="J15">
-        <v>0.5607085652684134</v>
+        <v>0.5215722481205489</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4589437213582634</v>
       </c>
       <c r="L15">
-        <v>1.682575177708088</v>
+        <v>0.2185552353792346</v>
       </c>
       <c r="M15">
-        <v>1.036326814677857</v>
+        <v>2.225182362071791</v>
       </c>
       <c r="N15">
-        <v>0.9364575717127508</v>
+        <v>0.2029469768243644</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2139304496407917</v>
+      </c>
+      <c r="P15">
+        <v>1.019660975184852</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.47849373363772</v>
+        <v>0.7669940816898873</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2602123583701967</v>
+        <v>0.02878150365208842</v>
       </c>
       <c r="E16">
-        <v>0.3601184216912401</v>
+        <v>0.08648952560932877</v>
       </c>
       <c r="F16">
-        <v>1.885640680862807</v>
+        <v>0.8890771980035836</v>
       </c>
       <c r="G16">
-        <v>2.276092450824251</v>
+        <v>0.7260760606728525</v>
       </c>
       <c r="H16">
-        <v>1.182042404312455</v>
+        <v>0.1707230913910394</v>
       </c>
       <c r="I16">
-        <v>0.2894724991245532</v>
+        <v>0.01878071993198471</v>
       </c>
       <c r="J16">
-        <v>0.5307562829606383</v>
+        <v>0.517623295099142</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4651272918328004</v>
       </c>
       <c r="L16">
-        <v>1.571713141542176</v>
+        <v>0.2070162548866463</v>
       </c>
       <c r="M16">
-        <v>0.9694613750802432</v>
+        <v>2.083882955847145</v>
       </c>
       <c r="N16">
-        <v>0.9483981853445584</v>
+        <v>0.1929563550888957</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2020897452338914</v>
+      </c>
+      <c r="P16">
+        <v>1.045017441292256</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.376266904466661</v>
+        <v>0.7564349495995373</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2507576431301004</v>
+        <v>0.02885945459035355</v>
       </c>
       <c r="E17">
-        <v>0.3475384825228858</v>
+        <v>0.07977164465418163</v>
       </c>
       <c r="F17">
-        <v>1.819903978514802</v>
+        <v>0.9137907354300339</v>
       </c>
       <c r="G17">
-        <v>2.182374807024075</v>
+        <v>0.7442316686655062</v>
       </c>
       <c r="H17">
-        <v>1.141345792326518</v>
+        <v>0.1337887275779366</v>
       </c>
       <c r="I17">
-        <v>0.2959268349750204</v>
+        <v>0.01978588744146137</v>
       </c>
       <c r="J17">
-        <v>0.5124874637655665</v>
+        <v>0.5299025099769352</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.48130318690297</v>
       </c>
       <c r="L17">
-        <v>1.504267914514116</v>
+        <v>0.1875627516051139</v>
       </c>
       <c r="M17">
-        <v>0.9287180699682125</v>
+        <v>2.006199564227927</v>
       </c>
       <c r="N17">
-        <v>0.956136941745541</v>
+        <v>0.2061684017843675</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2054500054502348</v>
+      </c>
+      <c r="P17">
+        <v>1.061782250537124</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.317659635032953</v>
+        <v>0.7799603774049899</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.245355468271228</v>
+        <v>0.03007730755001781</v>
       </c>
       <c r="E18">
-        <v>0.340333607877632</v>
+        <v>0.07149879265513803</v>
       </c>
       <c r="F18">
-        <v>1.782648795702642</v>
+        <v>0.9773416478987542</v>
       </c>
       <c r="G18">
-        <v>2.129128946563583</v>
+        <v>0.7972282524863061</v>
       </c>
       <c r="H18">
-        <v>1.118272638448758</v>
+        <v>0.08116877714336113</v>
       </c>
       <c r="I18">
-        <v>0.2997748182543205</v>
+        <v>0.01971652287667158</v>
       </c>
       <c r="J18">
-        <v>0.5020145196591699</v>
+        <v>0.5586065868976959</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5105643122896382</v>
       </c>
       <c r="L18">
-        <v>1.465666424024022</v>
+        <v>0.1620034782321298</v>
       </c>
       <c r="M18">
-        <v>0.9053773373672342</v>
+        <v>1.972483204818502</v>
       </c>
       <c r="N18">
-        <v>0.9607360746600051</v>
+        <v>0.2420032484667303</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2228274977628963</v>
+      </c>
+      <c r="P18">
+        <v>1.077027221849826</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.297847583166401</v>
+        <v>0.8236304508779995</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2435322013106287</v>
+        <v>0.03246159048081587</v>
       </c>
       <c r="E19">
-        <v>0.3378991272634835</v>
+        <v>0.0648518023528375</v>
       </c>
       <c r="F19">
-        <v>1.770126837620495</v>
+        <v>1.066295647834878</v>
       </c>
       <c r="G19">
-        <v>2.111209549795348</v>
+        <v>0.8728121787193857</v>
       </c>
       <c r="H19">
-        <v>1.110515905506389</v>
+        <v>0.03535830658533712</v>
       </c>
       <c r="I19">
-        <v>0.301100482746218</v>
+        <v>0.01939179463811591</v>
       </c>
       <c r="J19">
-        <v>0.4984741635457368</v>
+        <v>0.597463790294924</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5481067575694318</v>
       </c>
       <c r="L19">
-        <v>1.45262797202767</v>
+        <v>0.1388087286953059</v>
       </c>
       <c r="M19">
-        <v>0.8974899503013631</v>
+        <v>1.978824494829013</v>
       </c>
       <c r="N19">
-        <v>0.962318315720708</v>
+        <v>0.2989778002785926</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2508080798387766</v>
+      </c>
+      <c r="P19">
+        <v>1.094769523019966</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.387129025505658</v>
+        <v>0.9338822041518995</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2517603101612309</v>
+        <v>0.03802844969510133</v>
       </c>
       <c r="E20">
-        <v>0.3488743767175109</v>
+        <v>0.06204978201651956</v>
       </c>
       <c r="F20">
-        <v>1.826843550494104</v>
+        <v>1.230215938033822</v>
       </c>
       <c r="G20">
-        <v>2.192282075106675</v>
+        <v>1.015564587850918</v>
       </c>
       <c r="H20">
-        <v>1.145642919253163</v>
+        <v>0.00668330800099648</v>
       </c>
       <c r="I20">
-        <v>0.2952256063295344</v>
+        <v>0.0172619509998917</v>
       </c>
       <c r="J20">
-        <v>0.5144285194016049</v>
+        <v>0.6666741722598886</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6116400918113669</v>
       </c>
       <c r="L20">
-        <v>1.511427424645035</v>
+        <v>0.1202964978354899</v>
       </c>
       <c r="M20">
-        <v>0.9330453907386485</v>
+        <v>2.092902209746256</v>
       </c>
       <c r="N20">
-        <v>0.9552977321877592</v>
+        <v>0.409789391349193</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3083612714211057</v>
+      </c>
+      <c r="P20">
+        <v>1.117337248856163</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.689493599501134</v>
+        <v>1.053004330708035</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2798626018947914</v>
+        <v>0.0414659859740425</v>
       </c>
       <c r="E21">
-        <v>0.3861423744874344</v>
+        <v>0.06627723283569908</v>
       </c>
       <c r="F21">
-        <v>2.024287870546232</v>
+        <v>1.312825806566792</v>
       </c>
       <c r="G21">
-        <v>2.472869608503345</v>
+        <v>1.095862989002072</v>
       </c>
       <c r="H21">
-        <v>1.267816550727673</v>
+        <v>0.004032454040418632</v>
       </c>
       <c r="I21">
-        <v>0.2771449297184816</v>
+        <v>0.01401610842527745</v>
       </c>
       <c r="J21">
-        <v>0.5684779547352292</v>
+        <v>0.698273650542248</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6230822435047969</v>
       </c>
       <c r="L21">
-        <v>1.71138629206223</v>
+        <v>0.1282245753143485</v>
       </c>
       <c r="M21">
-        <v>1.053682335274452</v>
+        <v>2.364646697178557</v>
       </c>
       <c r="N21">
-        <v>0.933505957874317</v>
+        <v>0.4672380964471472</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3493101168069188</v>
+      </c>
+      <c r="P21">
+        <v>1.077628547819113</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.889151461413917</v>
+        <v>1.131134156242894</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2986364591561994</v>
+        <v>0.04351735192688366</v>
       </c>
       <c r="E22">
-        <v>0.4108519783413414</v>
+        <v>0.06913875719360174</v>
       </c>
       <c r="F22">
-        <v>2.159068574787625</v>
+        <v>1.363505058460646</v>
       </c>
       <c r="G22">
-        <v>2.663152794771406</v>
+        <v>1.145987470172088</v>
       </c>
       <c r="H22">
-        <v>1.351130296511855</v>
+        <v>0.002784799013355155</v>
       </c>
       <c r="I22">
-        <v>0.2666535734888456</v>
+        <v>0.0118322127340269</v>
       </c>
       <c r="J22">
-        <v>0.6042043802390822</v>
+        <v>0.717816200728393</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6298073742353054</v>
       </c>
       <c r="L22">
-        <v>1.84413811493971</v>
+        <v>0.1340349847671831</v>
       </c>
       <c r="M22">
-        <v>1.133534402623425</v>
+        <v>2.54000102450442</v>
       </c>
       <c r="N22">
-        <v>0.9206689735124058</v>
+        <v>0.498407528485501</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3740113651422519</v>
+      </c>
+      <c r="P22">
+        <v>1.051457309595438</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.782385325215159</v>
+        <v>1.093521534413384</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2885746271157217</v>
+        <v>0.04244610413925898</v>
       </c>
       <c r="E23">
-        <v>0.3976275811143424</v>
+        <v>0.06761428318406226</v>
       </c>
       <c r="F23">
-        <v>2.08656700544428</v>
+        <v>1.339007550028768</v>
       </c>
       <c r="G23">
-        <v>2.560909288050794</v>
+        <v>1.121596653638733</v>
       </c>
       <c r="H23">
-        <v>1.30632169111982</v>
+        <v>0.003412532071697782</v>
       </c>
       <c r="I23">
-        <v>0.2721256798897578</v>
+        <v>0.01260573561534173</v>
       </c>
       <c r="J23">
-        <v>0.585094900924247</v>
+        <v>0.7085781075135031</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6283467871711466</v>
       </c>
       <c r="L23">
-        <v>1.773077874302146</v>
+        <v>0.1307984113478682</v>
       </c>
       <c r="M23">
-        <v>1.090814510577474</v>
+        <v>2.444653497546227</v>
       </c>
       <c r="N23">
-        <v>0.9273872930690175</v>
+        <v>0.4800538524488047</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3610209586425128</v>
+      </c>
+      <c r="P23">
+        <v>1.066616696860684</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.382217752516169</v>
+        <v>0.9440781800845457</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2513069010767168</v>
+        <v>0.03841255129013632</v>
       </c>
       <c r="E24">
-        <v>0.3482703341270152</v>
+        <v>0.0619304347980596</v>
       </c>
       <c r="F24">
-        <v>1.823704503614465</v>
+        <v>1.244176955439684</v>
       </c>
       <c r="G24">
-        <v>2.18780103658213</v>
+        <v>1.027625940682839</v>
       </c>
       <c r="H24">
-        <v>1.143699184572341</v>
+        <v>0.006451784313496356</v>
       </c>
       <c r="I24">
-        <v>0.2955422054025618</v>
+        <v>0.01662502227662177</v>
       </c>
       <c r="J24">
-        <v>0.5135508755424496</v>
+        <v>0.672887722230314</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6197600039603941</v>
       </c>
       <c r="L24">
-        <v>1.508190073043011</v>
+        <v>0.1189200878670746</v>
       </c>
       <c r="M24">
-        <v>0.9310887519192903</v>
+        <v>2.088555462646156</v>
       </c>
       <c r="N24">
-        <v>0.9556766724931407</v>
+        <v>0.4139870572388418</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3116396823554695</v>
+      </c>
+      <c r="P24">
+        <v>1.123313027765903</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.957712171684591</v>
+        <v>0.782225239690348</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2124440245174952</v>
+        <v>0.03416881137362182</v>
       </c>
       <c r="E25">
-        <v>0.296173370492312</v>
+        <v>0.05595055093828383</v>
       </c>
       <c r="F25">
-        <v>1.561016528135866</v>
+        <v>1.146314829520037</v>
       </c>
       <c r="G25">
-        <v>1.810034030760932</v>
+        <v>0.930931264042627</v>
       </c>
       <c r="H25">
-        <v>0.9808528285045952</v>
+        <v>0.01100664087420099</v>
       </c>
       <c r="I25">
-        <v>0.3259307914166776</v>
+        <v>0.02199868938256078</v>
       </c>
       <c r="J25">
-        <v>0.4376698281478326</v>
+        <v>0.6370118501436366</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6114414831022543</v>
       </c>
       <c r="L25">
-        <v>1.229613926683925</v>
+        <v>0.1063552955849456</v>
       </c>
       <c r="M25">
-        <v>0.7623037596223909</v>
+        <v>1.708409648416023</v>
       </c>
       <c r="N25">
-        <v>0.9918077749890273</v>
+        <v>0.343949241945424</v>
       </c>
       <c r="O25">
+        <v>0.2586179389560108</v>
+      </c>
+      <c r="P25">
+        <v>1.187110007698536</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6721002744988311</v>
+        <v>0.5862070321912825</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03116700188195765</v>
+        <v>0.02922289077489992</v>
       </c>
       <c r="E2">
-        <v>0.05164283188854846</v>
+        <v>0.04683982451552238</v>
       </c>
       <c r="F2">
-        <v>1.084055141458322</v>
+        <v>1.016969325392701</v>
       </c>
       <c r="G2">
-        <v>0.8691960798604157</v>
+        <v>0.7980026692190734</v>
       </c>
       <c r="H2">
-        <v>0.01530716097191342</v>
+        <v>0.01240484626959575</v>
       </c>
       <c r="I2">
-        <v>0.02583516495322913</v>
+        <v>0.01835119963282184</v>
       </c>
       <c r="J2">
-        <v>0.6156695643067565</v>
+        <v>0.6039316809066975</v>
       </c>
       <c r="K2">
-        <v>0.6113755005271599</v>
+        <v>0.5227660035427739</v>
       </c>
       <c r="L2">
-        <v>0.09692787686737248</v>
+        <v>0.2104340632253852</v>
       </c>
       <c r="M2">
-        <v>1.426994961622029</v>
+        <v>0.1820886099511938</v>
       </c>
       <c r="N2">
-        <v>0.2892167757280362</v>
+        <v>0.09008177300955111</v>
       </c>
       <c r="O2">
-        <v>0.2201828619687589</v>
+        <v>1.457185754084463</v>
       </c>
       <c r="P2">
-        <v>1.239685083208363</v>
+        <v>0.3294160855116388</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2167082931241993</v>
+      </c>
+      <c r="R2">
+        <v>1.155511803895212</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.591356084715045</v>
+        <v>0.5177200369708999</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02911488967320963</v>
+        <v>0.02741163693642257</v>
       </c>
       <c r="E3">
-        <v>0.04872107297805828</v>
+        <v>0.04409311031620344</v>
       </c>
       <c r="F3">
-        <v>1.039935317668167</v>
+        <v>0.9791683175736878</v>
       </c>
       <c r="G3">
-        <v>0.8257217808487809</v>
+        <v>0.7633564154646137</v>
       </c>
       <c r="H3">
-        <v>0.0188082845076249</v>
+        <v>0.01535443890113219</v>
       </c>
       <c r="I3">
-        <v>0.02939886462041574</v>
+        <v>0.02092066031003048</v>
       </c>
       <c r="J3">
-        <v>0.6005463027669151</v>
+        <v>0.5865345370716852</v>
       </c>
       <c r="K3">
-        <v>0.6086938732235545</v>
+        <v>0.5240016339102809</v>
       </c>
       <c r="L3">
-        <v>0.09072041185169688</v>
+        <v>0.2146077504030757</v>
       </c>
       <c r="M3">
-        <v>1.239663835067489</v>
+        <v>0.1806886889160992</v>
       </c>
       <c r="N3">
-        <v>0.2548936089976195</v>
+        <v>0.08358704519501892</v>
       </c>
       <c r="O3">
-        <v>0.1939068595401992</v>
+        <v>1.264484030951422</v>
       </c>
       <c r="P3">
-        <v>1.274661554025746</v>
+        <v>0.2900420465826272</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.190961509536784</v>
+      </c>
+      <c r="R3">
+        <v>1.190066922707031</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5413673199686286</v>
+        <v>0.4750806856224727</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02785899006183179</v>
+        <v>0.02630254431666401</v>
       </c>
       <c r="E4">
-        <v>0.04692380889966952</v>
+        <v>0.04240946767871456</v>
       </c>
       <c r="F4">
-        <v>1.013553230516862</v>
+        <v>0.9565074003600316</v>
       </c>
       <c r="G4">
-        <v>0.7997476547602105</v>
+        <v>0.7428596105967529</v>
       </c>
       <c r="H4">
-        <v>0.02122271974204215</v>
+        <v>0.01739483723207719</v>
       </c>
       <c r="I4">
-        <v>0.03182166536386966</v>
+        <v>0.02268544963048313</v>
       </c>
       <c r="J4">
-        <v>0.591716906098398</v>
+        <v>0.5759840864730137</v>
       </c>
       <c r="K4">
-        <v>0.6071465518704748</v>
+        <v>0.5247787912825821</v>
       </c>
       <c r="L4">
-        <v>0.08690562717298</v>
+        <v>0.2171910271602542</v>
       </c>
       <c r="M4">
-        <v>1.125118273559423</v>
+        <v>0.1803306222223018</v>
       </c>
       <c r="N4">
-        <v>0.2340778997957216</v>
+        <v>0.07961882433616552</v>
       </c>
       <c r="O4">
-        <v>0.1777777954250155</v>
+        <v>1.146636787706711</v>
       </c>
       <c r="P4">
-        <v>1.296672287316468</v>
+        <v>0.266229379566866</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1751396706163604</v>
+      </c>
+      <c r="R4">
+        <v>1.211834869052771</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5198955940443284</v>
+        <v>0.4566506943267683</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02734074533586117</v>
+        <v>0.02584462327565085</v>
       </c>
       <c r="E5">
-        <v>0.04618545931086238</v>
+        <v>0.04172306431434736</v>
       </c>
       <c r="F5">
-        <v>1.002289600280491</v>
+        <v>0.9467706997160334</v>
       </c>
       <c r="G5">
-        <v>0.7886996134467381</v>
+        <v>0.7341085548066104</v>
       </c>
       <c r="H5">
-        <v>0.02227719711583587</v>
+        <v>0.0182872991156407</v>
       </c>
       <c r="I5">
-        <v>0.03296893738419415</v>
+        <v>0.02356184230755254</v>
       </c>
       <c r="J5">
-        <v>0.5879037035771972</v>
+        <v>0.5714047332388503</v>
       </c>
       <c r="K5">
-        <v>0.6059761954277754</v>
+        <v>0.524611986156124</v>
       </c>
       <c r="L5">
-        <v>0.08537471038939159</v>
+        <v>0.2180114755538867</v>
       </c>
       <c r="M5">
-        <v>1.078950550523928</v>
+        <v>0.1801833689257606</v>
       </c>
       <c r="N5">
-        <v>0.2260684774551294</v>
+        <v>0.07804003906339041</v>
       </c>
       <c r="O5">
-        <v>0.1711566487517011</v>
+        <v>1.099110567062183</v>
       </c>
       <c r="P5">
-        <v>1.305376435699007</v>
+        <v>0.2570239229850984</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1686419564415012</v>
+      </c>
+      <c r="R5">
+        <v>1.220526498179144</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5151036067554742</v>
+        <v>0.4524724038267181</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02724630025950958</v>
+        <v>0.02576101564858746</v>
       </c>
       <c r="E6">
-        <v>0.04605807522814476</v>
+        <v>0.0416093500185486</v>
       </c>
       <c r="F6">
-        <v>0.9995953666003743</v>
+        <v>0.9443880324987504</v>
       </c>
       <c r="G6">
-        <v>0.7861002207498018</v>
+        <v>0.7319547570677969</v>
       </c>
       <c r="H6">
-        <v>0.02246374114838812</v>
+        <v>0.01844522501897644</v>
       </c>
       <c r="I6">
-        <v>0.03329521576597916</v>
+        <v>0.02385486782340962</v>
       </c>
       <c r="J6">
-        <v>0.5868793374382619</v>
+        <v>0.5702659750682528</v>
       </c>
       <c r="K6">
-        <v>0.6050945992593633</v>
+        <v>0.5239895041169156</v>
       </c>
       <c r="L6">
-        <v>0.08515332702909717</v>
+        <v>0.2178591263730993</v>
       </c>
       <c r="M6">
-        <v>1.071791167474373</v>
+        <v>0.1800102230982503</v>
       </c>
       <c r="N6">
-        <v>0.2252479877048188</v>
+        <v>0.07782193763619638</v>
       </c>
       <c r="O6">
-        <v>0.1699980454562784</v>
+        <v>1.091708576577503</v>
       </c>
       <c r="P6">
-        <v>1.30634628509779</v>
+        <v>0.2560055619097739</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1675066101703813</v>
+      </c>
+      <c r="R6">
+        <v>1.221595751238738</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5377338505927298</v>
+        <v>0.4719041059989308</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.027829073485238</v>
+        <v>0.02637174354486405</v>
       </c>
       <c r="E7">
-        <v>0.04690154509324351</v>
+        <v>0.04238084657883734</v>
       </c>
       <c r="F7">
-        <v>1.011125064074719</v>
+        <v>0.9526865809834959</v>
       </c>
       <c r="G7">
-        <v>0.7974828630445501</v>
+        <v>0.7440601658604606</v>
       </c>
       <c r="H7">
-        <v>0.02125648742578967</v>
+        <v>0.01743524005286001</v>
       </c>
       <c r="I7">
-        <v>0.03218040224945806</v>
+        <v>0.02308247551920584</v>
       </c>
       <c r="J7">
-        <v>0.5905806227949881</v>
+        <v>0.5685800833205548</v>
       </c>
       <c r="K7">
-        <v>0.6052523345628948</v>
+        <v>0.5227033718693903</v>
       </c>
       <c r="L7">
-        <v>0.08697616500940875</v>
+        <v>0.2162196986766745</v>
       </c>
       <c r="M7">
-        <v>1.125865848709651</v>
+        <v>0.1797591486017396</v>
       </c>
       <c r="N7">
-        <v>0.2353532795514042</v>
+        <v>0.07965514094859572</v>
       </c>
       <c r="O7">
-        <v>0.1775264950305555</v>
+        <v>1.145094061882986</v>
       </c>
       <c r="P7">
-        <v>1.295486532336973</v>
+        <v>0.267063297720938</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1747852065299291</v>
+      </c>
+      <c r="R7">
+        <v>1.210516881134522</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6398804449181057</v>
+        <v>0.5590382146397701</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03042790378630755</v>
+        <v>0.02889288706723647</v>
       </c>
       <c r="E8">
-        <v>0.05062079566982169</v>
+        <v>0.04582520002623847</v>
       </c>
       <c r="F8">
-        <v>1.065688804439631</v>
+        <v>0.9958135584991794</v>
       </c>
       <c r="G8">
-        <v>0.8512581342302639</v>
+        <v>0.7942568353339539</v>
       </c>
       <c r="H8">
-        <v>0.01647972603566406</v>
+        <v>0.01342373055083024</v>
       </c>
       <c r="I8">
-        <v>0.027427917426329</v>
+        <v>0.01968103497061158</v>
       </c>
       <c r="J8">
-        <v>0.6089306664094494</v>
+        <v>0.5758321153888772</v>
       </c>
       <c r="K8">
-        <v>0.607962021271149</v>
+        <v>0.5196124641045046</v>
       </c>
       <c r="L8">
-        <v>0.09491241984310861</v>
+        <v>0.2103047230367316</v>
       </c>
       <c r="M8">
-        <v>1.364114603000104</v>
+        <v>0.1803892606489228</v>
       </c>
       <c r="N8">
-        <v>0.2791676619635837</v>
+        <v>0.08779086750210396</v>
       </c>
       <c r="O8">
-        <v>0.2109044903975921</v>
+        <v>1.384917330487184</v>
       </c>
       <c r="P8">
-        <v>1.249990416835219</v>
+        <v>0.3161800770362788</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2072478893755836</v>
+      </c>
+      <c r="R8">
+        <v>1.164824931940482</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8429663262150484</v>
+        <v>0.7302718366847216</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03562823071457544</v>
+        <v>0.03357006140797836</v>
       </c>
       <c r="E9">
-        <v>0.05796608517857482</v>
+        <v>0.0527227404000441</v>
       </c>
       <c r="F9">
-        <v>1.182785573518373</v>
+        <v>1.094581111357769</v>
       </c>
       <c r="G9">
-        <v>0.9667061682199432</v>
+        <v>0.8909494573604206</v>
       </c>
       <c r="H9">
-        <v>0.009291503899386017</v>
+        <v>0.007401176820811456</v>
       </c>
       <c r="I9">
-        <v>0.0195118233428655</v>
+        <v>0.01393127418194506</v>
       </c>
       <c r="J9">
-        <v>0.6506894021706415</v>
+        <v>0.615506019961515</v>
       </c>
       <c r="K9">
-        <v>0.6174267175690069</v>
+        <v>0.518194560339488</v>
       </c>
       <c r="L9">
-        <v>0.1103825216347616</v>
+        <v>0.2008688869775241</v>
       </c>
       <c r="M9">
-        <v>1.833535237143707</v>
+        <v>0.1869562561984388</v>
       </c>
       <c r="N9">
-        <v>0.364868306454639</v>
+        <v>0.10400131004549</v>
       </c>
       <c r="O9">
-        <v>0.276751882616729</v>
+        <v>1.865445020192396</v>
       </c>
       <c r="P9">
-        <v>1.167331075308855</v>
+        <v>0.4146470505462787</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2715431960964381</v>
+      </c>
+      <c r="R9">
+        <v>1.082858355761816</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9809277438561992</v>
+        <v>0.8467670335809032</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03901798186420535</v>
+        <v>0.03716109957217384</v>
       </c>
       <c r="E10">
-        <v>0.06353927696698403</v>
+        <v>0.05802057969000929</v>
       </c>
       <c r="F10">
-        <v>1.257814350746969</v>
+        <v>1.147901339197404</v>
       </c>
       <c r="G10">
-        <v>1.042938185264049</v>
+        <v>0.9749707624404493</v>
       </c>
       <c r="H10">
-        <v>0.005865566441774384</v>
+        <v>0.004632443109629847</v>
       </c>
       <c r="I10">
-        <v>0.01523858047830196</v>
+        <v>0.0110092274024769</v>
       </c>
       <c r="J10">
-        <v>0.6774615642502226</v>
+        <v>0.6046914896556359</v>
       </c>
       <c r="K10">
-        <v>0.6176655170852641</v>
+        <v>0.5094217480508014</v>
       </c>
       <c r="L10">
-        <v>0.1233187652770091</v>
+        <v>0.1912725425520634</v>
       </c>
       <c r="M10">
-        <v>2.180014849243065</v>
+        <v>0.1910801854653883</v>
       </c>
       <c r="N10">
-        <v>0.420543520405559</v>
+        <v>0.1175741278914337</v>
       </c>
       <c r="O10">
-        <v>0.3205919684883298</v>
+        <v>2.20559100772445</v>
       </c>
       <c r="P10">
-        <v>1.104653916512103</v>
+        <v>0.4763280509287</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.313571770251464</v>
+      </c>
+      <c r="R10">
+        <v>1.021192075647715</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9720239938582722</v>
+        <v>0.8472872852392186</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03653521324489617</v>
+        <v>0.03565586706715607</v>
       </c>
       <c r="E11">
-        <v>0.06912074291841819</v>
+        <v>0.06416620105083659</v>
       </c>
       <c r="F11">
-        <v>1.16798100191464</v>
+        <v>1.048554335674638</v>
       </c>
       <c r="G11">
-        <v>0.9717322032018814</v>
+        <v>0.9521583786085728</v>
       </c>
       <c r="H11">
-        <v>0.02424480020990671</v>
+        <v>0.02313269433020437</v>
       </c>
       <c r="I11">
-        <v>0.01490406515929177</v>
+        <v>0.01111305001211882</v>
       </c>
       <c r="J11">
-        <v>0.6365557888176312</v>
+        <v>0.5034059109195113</v>
       </c>
       <c r="K11">
-        <v>0.5624621364422637</v>
+        <v>0.4612664462836698</v>
       </c>
       <c r="L11">
-        <v>0.1463878810134318</v>
+        <v>0.1720161851462354</v>
       </c>
       <c r="M11">
-        <v>2.311920743596005</v>
+        <v>0.1752282272011634</v>
       </c>
       <c r="N11">
-        <v>0.3668861636016061</v>
+        <v>0.1427888619361894</v>
       </c>
       <c r="O11">
-        <v>0.3007524665473298</v>
+        <v>2.304685977384509</v>
       </c>
       <c r="P11">
-        <v>1.045282816069125</v>
+        <v>0.4105199579321521</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2928387483180259</v>
+      </c>
+      <c r="R11">
+        <v>0.9776670821740554</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9404854344635396</v>
+        <v>0.8273063613025613</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0342127986242442</v>
+        <v>0.03354724197651571</v>
       </c>
       <c r="E12">
-        <v>0.07571683559635467</v>
+        <v>0.07089725540332559</v>
       </c>
       <c r="F12">
-        <v>1.08143704249504</v>
+        <v>0.9645067346135932</v>
       </c>
       <c r="G12">
-        <v>0.8998389962891196</v>
+        <v>0.9051259974436192</v>
       </c>
       <c r="H12">
-        <v>0.06310074988344638</v>
+        <v>0.06199397577948673</v>
       </c>
       <c r="I12">
-        <v>0.01486183027311405</v>
+        <v>0.01110757966730169</v>
       </c>
       <c r="J12">
-        <v>0.5983655248714399</v>
+        <v>0.4474480625450497</v>
       </c>
       <c r="K12">
-        <v>0.5214743589507513</v>
+        <v>0.4289268140794746</v>
       </c>
       <c r="L12">
-        <v>0.1700314665215359</v>
+        <v>0.1604609433260418</v>
       </c>
       <c r="M12">
-        <v>2.346759615321446</v>
+        <v>0.162977536859561</v>
       </c>
       <c r="N12">
-        <v>0.3112679030543291</v>
+        <v>0.1675253812988373</v>
       </c>
       <c r="O12">
-        <v>0.2755987846796515</v>
+        <v>2.321406730384155</v>
       </c>
       <c r="P12">
-        <v>1.017835324578841</v>
+        <v>0.3458086329686409</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2677757481128751</v>
+      </c>
+      <c r="R12">
+        <v>0.9637193045303629</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8846587196048006</v>
+        <v>0.7855579715851206</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03183215206275669</v>
+        <v>0.03080673499360387</v>
       </c>
       <c r="E13">
-        <v>0.08330065960913124</v>
+        <v>0.07878072503944367</v>
       </c>
       <c r="F13">
-        <v>0.9888540875095799</v>
+        <v>0.8864711882117575</v>
       </c>
       <c r="G13">
-        <v>0.8198507925431926</v>
+        <v>0.8261709136801159</v>
       </c>
       <c r="H13">
-        <v>0.1193834221481325</v>
+        <v>0.118175948607842</v>
       </c>
       <c r="I13">
-        <v>0.01550730472194672</v>
+        <v>0.01153938556675183</v>
       </c>
       <c r="J13">
-        <v>0.5582752648689535</v>
+        <v>0.4257801717103149</v>
       </c>
       <c r="K13">
-        <v>0.4860780145837929</v>
+        <v>0.4045125471501372</v>
       </c>
       <c r="L13">
-        <v>0.1952241386507794</v>
+        <v>0.1526345484327187</v>
       </c>
       <c r="M13">
-        <v>2.310511525475391</v>
+        <v>0.1523880270908116</v>
       </c>
       <c r="N13">
-        <v>0.2534510867504594</v>
+        <v>0.1936617766490656</v>
       </c>
       <c r="O13">
-        <v>0.2448237870994809</v>
+        <v>2.283575565145867</v>
       </c>
       <c r="P13">
-        <v>1.010604511511115</v>
+        <v>0.2813515240003142</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.238052782103928</v>
+      </c>
+      <c r="R13">
+        <v>0.9674526899959801</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8339742689184106</v>
+        <v>0.745832125573429</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03020983630935081</v>
+        <v>0.02881625375412966</v>
       </c>
       <c r="E14">
-        <v>0.08941202476107968</v>
+        <v>0.08530140623290805</v>
       </c>
       <c r="F14">
-        <v>0.9215457108568472</v>
+        <v>0.8338279938141255</v>
       </c>
       <c r="G14">
-        <v>0.7603165294943608</v>
+        <v>0.7581848069670798</v>
       </c>
       <c r="H14">
-        <v>0.1692598843008568</v>
+        <v>0.1679305186157904</v>
       </c>
       <c r="I14">
-        <v>0.01638602764128194</v>
+        <v>0.01216398190672141</v>
       </c>
       <c r="J14">
-        <v>0.5293676171969395</v>
+        <v>0.4232818261402258</v>
       </c>
       <c r="K14">
-        <v>0.4639439972598609</v>
+        <v>0.3906293453937586</v>
       </c>
       <c r="L14">
-        <v>0.2143682383038481</v>
+        <v>0.1485005419902912</v>
       </c>
       <c r="M14">
-        <v>2.253493238111702</v>
+        <v>0.1457939924636449</v>
       </c>
       <c r="N14">
-        <v>0.2132126950221647</v>
+        <v>0.2134530213854191</v>
       </c>
       <c r="O14">
-        <v>0.2210019067735409</v>
+        <v>2.232575284760003</v>
       </c>
       <c r="P14">
-        <v>1.015327732314205</v>
+        <v>0.2373995579718837</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2153238641575719</v>
+      </c>
+      <c r="R14">
+        <v>0.9776075341909802</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8153636336546981</v>
+        <v>0.7305256585773918</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02974306156725692</v>
+        <v>0.02822730661421513</v>
       </c>
       <c r="E15">
-        <v>0.09074566951752239</v>
+        <v>0.08686597420064146</v>
       </c>
       <c r="F15">
-        <v>0.9030547935446052</v>
+        <v>0.8209198213924935</v>
       </c>
       <c r="G15">
-        <v>0.7433733445186306</v>
+        <v>0.7355611859463806</v>
       </c>
       <c r="H15">
-        <v>0.1820292619223665</v>
+        <v>0.1806390644076714</v>
       </c>
       <c r="I15">
-        <v>0.01690819406814015</v>
+        <v>0.01258510101610888</v>
       </c>
       <c r="J15">
-        <v>0.5215722481205489</v>
+        <v>0.4278197225041254</v>
       </c>
       <c r="K15">
-        <v>0.4589437213582634</v>
+        <v>0.3880539362291309</v>
       </c>
       <c r="L15">
-        <v>0.2185552353792346</v>
+        <v>0.1478569194159594</v>
       </c>
       <c r="M15">
-        <v>2.225182362071791</v>
+        <v>0.1443227415463006</v>
       </c>
       <c r="N15">
-        <v>0.2029469768243644</v>
+        <v>0.2178840961173805</v>
       </c>
       <c r="O15">
-        <v>0.2139304496407917</v>
+        <v>2.208729899023808</v>
       </c>
       <c r="P15">
-        <v>1.019660975184852</v>
+        <v>0.226494274699192</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2086767168080605</v>
+      </c>
+      <c r="R15">
+        <v>0.9825421830668581</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7669940816898873</v>
+        <v>0.6873304917052394</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02878150365208842</v>
+        <v>0.0269527440587094</v>
       </c>
       <c r="E16">
-        <v>0.08648952560932877</v>
+        <v>0.08366438652921993</v>
       </c>
       <c r="F16">
-        <v>0.8890771980035836</v>
+        <v>0.8239608388316739</v>
       </c>
       <c r="G16">
-        <v>0.7260760606728525</v>
+        <v>0.6886090546498593</v>
       </c>
       <c r="H16">
-        <v>0.1707230913910394</v>
+        <v>0.169016293281075</v>
       </c>
       <c r="I16">
-        <v>0.01878071993198471</v>
+        <v>0.01390946921601888</v>
       </c>
       <c r="J16">
-        <v>0.517623295099142</v>
+        <v>0.4754042765867581</v>
       </c>
       <c r="K16">
-        <v>0.4651272918328004</v>
+        <v>0.3976350824744657</v>
       </c>
       <c r="L16">
-        <v>0.2070162548866463</v>
+        <v>0.152128557146197</v>
       </c>
       <c r="M16">
-        <v>2.083882955847145</v>
+        <v>0.1463312228264346</v>
       </c>
       <c r="N16">
-        <v>0.1929563550888957</v>
+        <v>0.2071255293591818</v>
       </c>
       <c r="O16">
-        <v>0.2020897452338914</v>
+        <v>2.091978004962527</v>
       </c>
       <c r="P16">
-        <v>1.045017441292256</v>
+        <v>0.2183797804525085</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1981958814750726</v>
+      </c>
+      <c r="R16">
+        <v>1.002370708204797</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7564349495995373</v>
+        <v>0.675183441013786</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02885945459035355</v>
+        <v>0.02691642496200686</v>
       </c>
       <c r="E17">
-        <v>0.07977164465418163</v>
+        <v>0.07721014997778042</v>
       </c>
       <c r="F17">
-        <v>0.9137907354300339</v>
+        <v>0.8527606153532332</v>
       </c>
       <c r="G17">
-        <v>0.7442316686655062</v>
+        <v>0.6921711623350291</v>
       </c>
       <c r="H17">
-        <v>0.1337887275779366</v>
+        <v>0.1319051884610758</v>
       </c>
       <c r="I17">
-        <v>0.01978588744146137</v>
+        <v>0.01463543508052823</v>
       </c>
       <c r="J17">
-        <v>0.5299025099769352</v>
+        <v>0.5091097189112901</v>
       </c>
       <c r="K17">
-        <v>0.48130318690297</v>
+        <v>0.4121669213586685</v>
       </c>
       <c r="L17">
-        <v>0.1875627516051139</v>
+        <v>0.1579179586560198</v>
       </c>
       <c r="M17">
-        <v>2.006199564227927</v>
+        <v>0.1510127598563233</v>
       </c>
       <c r="N17">
-        <v>0.2061684017843675</v>
+        <v>0.1875910904874729</v>
       </c>
       <c r="O17">
-        <v>0.2054500054502348</v>
+        <v>2.026082898295186</v>
       </c>
       <c r="P17">
-        <v>1.061782250537124</v>
+        <v>0.2346786926455593</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2019278072790556</v>
+      </c>
+      <c r="R17">
+        <v>1.013642241746126</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7799603774049899</v>
+        <v>0.6906172808230053</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03007730755001781</v>
+        <v>0.02801442386879671</v>
       </c>
       <c r="E18">
-        <v>0.07149879265513803</v>
+        <v>0.06865045332050812</v>
       </c>
       <c r="F18">
-        <v>0.9773416478987542</v>
+        <v>0.9125073641729244</v>
       </c>
       <c r="G18">
-        <v>0.7972282524863061</v>
+        <v>0.7339785880594576</v>
       </c>
       <c r="H18">
-        <v>0.08116877714336113</v>
+        <v>0.07924091555567259</v>
       </c>
       <c r="I18">
-        <v>0.01971652287667158</v>
+        <v>0.0144601229734187</v>
       </c>
       <c r="J18">
-        <v>0.5586065868976959</v>
+        <v>0.5447482510130612</v>
       </c>
       <c r="K18">
-        <v>0.5105643122896382</v>
+        <v>0.4353860959717331</v>
       </c>
       <c r="L18">
-        <v>0.1620034782321298</v>
+        <v>0.166791799793284</v>
       </c>
       <c r="M18">
-        <v>1.972483204818502</v>
+        <v>0.1593486158493533</v>
       </c>
       <c r="N18">
-        <v>0.2420032484667303</v>
+        <v>0.1612561633042162</v>
       </c>
       <c r="O18">
-        <v>0.2228274977628963</v>
+        <v>2.000027475206082</v>
       </c>
       <c r="P18">
-        <v>1.077027221849826</v>
+        <v>0.2760181221498215</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2190937588483877</v>
+      </c>
+      <c r="R18">
+        <v>1.021585012980456</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8236304508779995</v>
+        <v>0.7218089934417833</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03246159048081587</v>
+        <v>0.03024689711708994</v>
       </c>
       <c r="E19">
-        <v>0.0648518023528375</v>
+        <v>0.06126510588850564</v>
       </c>
       <c r="F19">
-        <v>1.066295647834878</v>
+        <v>0.9925863530373249</v>
       </c>
       <c r="G19">
-        <v>0.8728121787193857</v>
+        <v>0.799156131742933</v>
       </c>
       <c r="H19">
-        <v>0.03535830658533712</v>
+        <v>0.03352086265960708</v>
       </c>
       <c r="I19">
-        <v>0.01939179463811591</v>
+        <v>0.01428648464385773</v>
       </c>
       <c r="J19">
-        <v>0.597463790294924</v>
+        <v>0.5824379161134203</v>
       </c>
       <c r="K19">
-        <v>0.5481067575694318</v>
+        <v>0.4638021190986059</v>
       </c>
       <c r="L19">
-        <v>0.1388087286953059</v>
+        <v>0.1774373062285459</v>
       </c>
       <c r="M19">
-        <v>1.978824494829013</v>
+        <v>0.1699479860303192</v>
       </c>
       <c r="N19">
-        <v>0.2989778002785926</v>
+        <v>0.1365630608612349</v>
       </c>
       <c r="O19">
-        <v>0.2508080798387766</v>
+        <v>2.012250022251663</v>
       </c>
       <c r="P19">
-        <v>1.094769523019966</v>
+        <v>0.3408102223872476</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2464791892321472</v>
+      </c>
+      <c r="R19">
+        <v>1.030123118392305</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9338822041518995</v>
+        <v>0.8062902370811571</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03802844969510133</v>
+        <v>0.03576955301031504</v>
       </c>
       <c r="E20">
-        <v>0.06204978201651956</v>
+        <v>0.05675163693537311</v>
       </c>
       <c r="F20">
-        <v>1.230215938033822</v>
+        <v>1.13238197000932</v>
       </c>
       <c r="G20">
-        <v>1.015564587850918</v>
+        <v>0.934011058114848</v>
       </c>
       <c r="H20">
-        <v>0.00668330800099648</v>
+        <v>0.00526744617065722</v>
       </c>
       <c r="I20">
-        <v>0.0172619509998917</v>
+        <v>0.01281057252971429</v>
       </c>
       <c r="J20">
-        <v>0.6666741722598886</v>
+        <v>0.6257595372882605</v>
       </c>
       <c r="K20">
-        <v>0.6116400918113669</v>
+        <v>0.5083802920884644</v>
       </c>
       <c r="L20">
-        <v>0.1202964978354899</v>
+        <v>0.192534016942254</v>
       </c>
       <c r="M20">
-        <v>2.092902209746256</v>
+        <v>0.188586221792864</v>
       </c>
       <c r="N20">
-        <v>0.409789391349193</v>
+        <v>0.1147688047812458</v>
       </c>
       <c r="O20">
-        <v>0.3083612714211057</v>
+        <v>2.128342655365259</v>
       </c>
       <c r="P20">
-        <v>1.117337248856163</v>
+        <v>0.4655505271879434</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3022795257682347</v>
+      </c>
+      <c r="R20">
+        <v>1.035811734458466</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.053004330708035</v>
+        <v>0.907275642257531</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0414659859740425</v>
+        <v>0.04137718727519157</v>
       </c>
       <c r="E21">
-        <v>0.06627723283569908</v>
+        <v>0.0601079627324741</v>
       </c>
       <c r="F21">
-        <v>1.312825806566792</v>
+        <v>1.165522331128997</v>
       </c>
       <c r="G21">
-        <v>1.095862989002072</v>
+        <v>1.084515298759541</v>
       </c>
       <c r="H21">
-        <v>0.004032454040418632</v>
+        <v>0.00315986834486881</v>
       </c>
       <c r="I21">
-        <v>0.01401610842527745</v>
+        <v>0.01062551357689667</v>
       </c>
       <c r="J21">
-        <v>0.698273650542248</v>
+        <v>0.5210256200267338</v>
       </c>
       <c r="K21">
-        <v>0.6230822435047969</v>
+        <v>0.5021639335712003</v>
       </c>
       <c r="L21">
-        <v>0.1282245753143485</v>
+        <v>0.185696652168847</v>
       </c>
       <c r="M21">
-        <v>2.364646697178557</v>
+        <v>0.1923755438575689</v>
       </c>
       <c r="N21">
-        <v>0.4672380964471472</v>
+        <v>0.1213478935420262</v>
       </c>
       <c r="O21">
-        <v>0.3493101168069188</v>
+        <v>2.351811318265419</v>
       </c>
       <c r="P21">
-        <v>1.077628547819113</v>
+        <v>0.5211806378866584</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3393501258213192</v>
+      </c>
+      <c r="R21">
+        <v>0.9890708766454068</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.131134156242894</v>
+        <v>0.9741004209988375</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04351735192688366</v>
+        <v>0.04521356915148544</v>
       </c>
       <c r="E22">
-        <v>0.06913875719360174</v>
+        <v>0.06250687931773458</v>
       </c>
       <c r="F22">
-        <v>1.363505058460646</v>
+        <v>1.181516824779479</v>
       </c>
       <c r="G22">
-        <v>1.145987470172088</v>
+        <v>1.190363320585135</v>
       </c>
       <c r="H22">
-        <v>0.002784799013355155</v>
+        <v>0.002185046829801363</v>
       </c>
       <c r="I22">
-        <v>0.0118322127340269</v>
+        <v>0.008988753394721272</v>
       </c>
       <c r="J22">
-        <v>0.717816200728393</v>
+        <v>0.4534398827232025</v>
       </c>
       <c r="K22">
-        <v>0.6298073742353054</v>
+        <v>0.4970094616159315</v>
       </c>
       <c r="L22">
-        <v>0.1340349847671831</v>
+        <v>0.1810010185303099</v>
       </c>
       <c r="M22">
-        <v>2.54000102450442</v>
+        <v>0.1946971400696604</v>
       </c>
       <c r="N22">
-        <v>0.498407528485501</v>
+        <v>0.1263628397449423</v>
       </c>
       <c r="O22">
-        <v>0.3740113651422519</v>
+        <v>2.49095173904135</v>
       </c>
       <c r="P22">
-        <v>1.051457309595438</v>
+        <v>0.5497160748265628</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3613011221546003</v>
+      </c>
+      <c r="R22">
+        <v>0.95884081275375</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.093521534413384</v>
+        <v>0.9417960643230003</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04244610413925898</v>
+        <v>0.0428619358096185</v>
       </c>
       <c r="E23">
-        <v>0.06761428318406226</v>
+        <v>0.06125417650126241</v>
       </c>
       <c r="F23">
-        <v>1.339007550028768</v>
+        <v>1.179434375567283</v>
       </c>
       <c r="G23">
-        <v>1.121596653638733</v>
+        <v>1.126069584320206</v>
       </c>
       <c r="H23">
-        <v>0.003412532071697782</v>
+        <v>0.002667179386994123</v>
       </c>
       <c r="I23">
-        <v>0.01260573561534173</v>
+        <v>0.00941087558526732</v>
       </c>
       <c r="J23">
-        <v>0.7085781075135031</v>
+        <v>0.5024122352549085</v>
       </c>
       <c r="K23">
-        <v>0.6283467871711466</v>
+        <v>0.5025368909660983</v>
       </c>
       <c r="L23">
-        <v>0.1307984113478682</v>
+        <v>0.184413985158578</v>
       </c>
       <c r="M23">
-        <v>2.444653497546227</v>
+        <v>0.1945933267956477</v>
       </c>
       <c r="N23">
-        <v>0.4800538524488047</v>
+        <v>0.1236744335976283</v>
       </c>
       <c r="O23">
-        <v>0.3610209586425128</v>
+        <v>2.42127895612316</v>
       </c>
       <c r="P23">
-        <v>1.066616696860684</v>
+        <v>0.5339790354162517</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3500910656089786</v>
+      </c>
+      <c r="R23">
+        <v>0.976181466869753</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9440781800845457</v>
+        <v>0.8145135582766159</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03841255129013632</v>
+        <v>0.03612064702695506</v>
       </c>
       <c r="E24">
-        <v>0.0619304347980596</v>
+        <v>0.05647933971063468</v>
       </c>
       <c r="F24">
-        <v>1.244176955439684</v>
+        <v>1.145170900673222</v>
       </c>
       <c r="G24">
-        <v>1.027625940682839</v>
+        <v>0.9441391490478566</v>
       </c>
       <c r="H24">
-        <v>0.006451784313496356</v>
+        <v>0.005050960638871782</v>
       </c>
       <c r="I24">
-        <v>0.01662502227662177</v>
+        <v>0.0120952476822902</v>
       </c>
       <c r="J24">
-        <v>0.672887722230314</v>
+        <v>0.6324353118685906</v>
       </c>
       <c r="K24">
-        <v>0.6197600039603941</v>
+        <v>0.5148079538134667</v>
       </c>
       <c r="L24">
-        <v>0.1189200878670746</v>
+        <v>0.1949441002531813</v>
       </c>
       <c r="M24">
-        <v>2.088555462646156</v>
+        <v>0.1909776489254504</v>
       </c>
       <c r="N24">
-        <v>0.4139870572388418</v>
+        <v>0.1130373122846251</v>
       </c>
       <c r="O24">
-        <v>0.3116396823554695</v>
+        <v>2.124971630572873</v>
       </c>
       <c r="P24">
-        <v>1.123313027765903</v>
+        <v>0.4707072586950858</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3054891926240089</v>
+      </c>
+      <c r="R24">
+        <v>1.039762819698677</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.782225239690348</v>
+        <v>0.6788024158920223</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03416881137362182</v>
+        <v>0.03211768664821335</v>
       </c>
       <c r="E25">
-        <v>0.05595055093828383</v>
+        <v>0.050885401716946</v>
       </c>
       <c r="F25">
-        <v>1.146314829520037</v>
+        <v>1.065809904254763</v>
       </c>
       <c r="G25">
-        <v>0.930931264042627</v>
+        <v>0.8557770271004301</v>
       </c>
       <c r="H25">
-        <v>0.01100664087420099</v>
+        <v>0.008820220602547904</v>
       </c>
       <c r="I25">
-        <v>0.02199868938256078</v>
+        <v>0.01593417172786271</v>
       </c>
       <c r="J25">
-        <v>0.6370118501436366</v>
+        <v>0.6116636796178341</v>
       </c>
       <c r="K25">
-        <v>0.6114414831022543</v>
+        <v>0.5164062331043091</v>
       </c>
       <c r="L25">
-        <v>0.1063552955849456</v>
+        <v>0.2025531646716985</v>
       </c>
       <c r="M25">
-        <v>1.708409648416023</v>
+        <v>0.1839924804629369</v>
       </c>
       <c r="N25">
-        <v>0.343949241945424</v>
+        <v>0.09991912301569528</v>
       </c>
       <c r="O25">
-        <v>0.2586179389560108</v>
+        <v>1.740516180024741</v>
       </c>
       <c r="P25">
-        <v>1.187110007698536</v>
+        <v>0.3908284683420788</v>
       </c>
       <c r="Q25">
+        <v>0.2540288991757791</v>
+      </c>
+      <c r="R25">
+        <v>1.103539123279383</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
